--- a/general/xls_statment_SEISMO_template.xlsx
+++ b/general/xls_statment_SEISMO_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Новая папка (2)\DigitRock (2)\DigitRock\general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\DigitRock\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D3C769-7265-4315-B1C3-D357E5E76A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD3BE3-8886-4A63-913F-4A5A5066C0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18930" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1410" windowWidth="23490" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -105,22 +105,148 @@
 НАГРУЗКОЙ (ГОСТ 56353-2022, ASTM D5311/ASTM D5311M-13) №112-22СВД</t>
   </si>
   <si>
-    <t>σ'3, кПа</t>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>fail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, ед.</t>
+    </r>
   </si>
   <si>
-    <t>σ'1, кПа</t>
+    <r>
+      <t>σ'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, кПа</t>
+    </r>
   </si>
   <si>
-    <t>τα, кПа</t>
+    <r>
+      <t>σ'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, кПа</t>
+    </r>
   </si>
   <si>
-    <t>PPRmax, д. е</t>
+    <r>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, кПа</t>
+    </r>
   </si>
   <si>
-    <t>εmax, д. е.</t>
+    <r>
+      <t>PPR</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, д. е</t>
+    </r>
   </si>
   <si>
-    <t>Nfail, ед.</t>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, д. е.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -131,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +385,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -787,11 +920,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -801,18 +940,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,6 +983,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2297,8 +2430,8 @@
   </sheetPr>
   <dimension ref="A1:R795"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScale="130" zoomScaleNormal="90" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K748" zoomScale="130" zoomScaleNormal="90" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="L755" sqref="L755:Q755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,228 +2475,228 @@
     </row>
     <row r="2" spans="1:18" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="56" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="58" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
       <c r="R2" s="39"/>
     </row>
     <row r="3" spans="1:18" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
       <c r="R3" s="39"/>
     </row>
     <row r="4" spans="1:18" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="58" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
       <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:18" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
       <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:18" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
       <c r="R6" s="40"/>
     </row>
     <row r="7" spans="1:18" ht="6.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
       <c r="R7" s="40"/>
     </row>
     <row r="8" spans="1:18" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
       <c r="R8" s="40"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
       <c r="R9" s="40"/>
     </row>
     <row r="10" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
       <c r="R10" s="40"/>
     </row>
     <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
       <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
       <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2577,32 +2710,32 @@
       <c r="D13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R13" s="4"/>
     </row>
@@ -3323,8 +3456,8 @@
       <c r="A51" s="3"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="22"/>
       <c r="K51" s="1"/>
       <c r="L51" s="2"/>
@@ -3341,15 +3474,15 @@
       <c r="A52" s="3"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I52" s="49"/>
+      <c r="I52" s="42"/>
       <c r="J52" s="38">
         <v>44634</v>
       </c>
       <c r="K52" s="3"/>
-      <c r="R52" s="50" t="s">
+      <c r="R52" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3361,10 +3494,10 @@
       <c r="E53" s="26"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="52" t="s">
+      <c r="H53" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="53"/>
+      <c r="I53" s="51"/>
       <c r="J53" s="15" t="s">
         <v>20</v>
       </c>
@@ -3375,7 +3508,7 @@
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
-      <c r="R53" s="51"/>
+      <c r="R53" s="49"/>
     </row>
     <row r="54" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -3399,228 +3532,228 @@
     </row>
     <row r="55" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="56" t="s">
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="58" t="s">
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L55" s="41" t="s">
+      <c r="L55" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63"/>
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
       <c r="R56" s="39"/>
     </row>
     <row r="57" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="58" t="s">
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L57" s="42" t="s">
+      <c r="L57" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
       <c r="R57" s="40"/>
     </row>
     <row r="58" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
       <c r="R58" s="40"/>
     </row>
     <row r="59" spans="1:18" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
       <c r="R59" s="40"/>
     </row>
     <row r="60" spans="1:18" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
       <c r="K60" s="21"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
       <c r="R60" s="40"/>
     </row>
     <row r="61" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
       <c r="K61" s="24"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
       <c r="R61" s="40"/>
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
       <c r="K62" s="24"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
       <c r="R62" s="40"/>
     </row>
     <row r="63" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
       <c r="K63" s="25"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="42"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
       <c r="R63" s="40"/>
     </row>
     <row r="64" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="44"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
       <c r="R64" s="20"/>
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
       <c r="R65" s="20"/>
     </row>
     <row r="66" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3634,32 +3767,32 @@
       <c r="D66" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="62" t="s">
+      <c r="E66" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="64"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="62"/>
       <c r="L66" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N66" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q66" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M66" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N66" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O66" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P66" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q66" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R66" s="4"/>
     </row>
@@ -4380,8 +4513,8 @@
       <c r="A104" s="3"/>
       <c r="F104" s="22"/>
       <c r="G104" s="22"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="47"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="44"/>
       <c r="J104" s="22"/>
       <c r="K104" s="1"/>
       <c r="L104" s="2"/>
@@ -4398,10 +4531,10 @@
       <c r="A105" s="3"/>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
-      <c r="H105" s="48" t="s">
+      <c r="H105" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I105" s="49"/>
+      <c r="I105" s="42"/>
       <c r="J105" s="38">
         <v>44634</v>
       </c>
@@ -4418,10 +4551,10 @@
       <c r="E106" s="26"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
-      <c r="H106" s="52" t="s">
+      <c r="H106" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I106" s="53"/>
+      <c r="I106" s="51"/>
       <c r="J106" s="15" t="s">
         <v>20</v>
       </c>
@@ -4456,228 +4589,228 @@
     </row>
     <row r="108" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="C108" s="54" t="s">
+      <c r="C108" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="56" t="s">
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="58" t="s">
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L108" s="41" t="s">
+      <c r="L108" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M108" s="41"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
+      <c r="M108" s="63"/>
+      <c r="N108" s="63"/>
+      <c r="O108" s="63"/>
+      <c r="P108" s="63"/>
+      <c r="Q108" s="63"/>
       <c r="R108" s="39"/>
     </row>
     <row r="109" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="56"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="56"/>
-      <c r="K109" s="58"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="41"/>
-      <c r="N109" s="41"/>
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="41"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="56"/>
+      <c r="L109" s="63"/>
+      <c r="M109" s="63"/>
+      <c r="N109" s="63"/>
+      <c r="O109" s="63"/>
+      <c r="P109" s="63"/>
+      <c r="Q109" s="63"/>
       <c r="R109" s="39"/>
     </row>
     <row r="110" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
-      <c r="C110" s="54"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="54"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="54"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="58" t="s">
+      <c r="C110" s="52"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L110" s="42" t="s">
+      <c r="L110" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M110" s="42"/>
-      <c r="N110" s="42"/>
-      <c r="O110" s="42"/>
-      <c r="P110" s="42"/>
-      <c r="Q110" s="42"/>
+      <c r="M110" s="64"/>
+      <c r="N110" s="64"/>
+      <c r="O110" s="64"/>
+      <c r="P110" s="64"/>
+      <c r="Q110" s="64"/>
       <c r="R110" s="40"/>
     </row>
     <row r="111" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="56"/>
-      <c r="K111" s="58"/>
-      <c r="L111" s="42"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="42"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="56"/>
+      <c r="L111" s="64"/>
+      <c r="M111" s="64"/>
+      <c r="N111" s="64"/>
+      <c r="O111" s="64"/>
+      <c r="P111" s="64"/>
+      <c r="Q111" s="64"/>
       <c r="R111" s="40"/>
     </row>
     <row r="112" spans="1:18" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="55"/>
-      <c r="G112" s="55"/>
-      <c r="H112" s="57"/>
-      <c r="I112" s="57"/>
-      <c r="J112" s="57"/>
-      <c r="L112" s="42"/>
-      <c r="M112" s="42"/>
-      <c r="N112" s="42"/>
-      <c r="O112" s="42"/>
-      <c r="P112" s="42"/>
-      <c r="Q112" s="42"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="55"/>
+      <c r="L112" s="64"/>
+      <c r="M112" s="64"/>
+      <c r="N112" s="64"/>
+      <c r="O112" s="64"/>
+      <c r="P112" s="64"/>
+      <c r="Q112" s="64"/>
       <c r="R112" s="40"/>
     </row>
     <row r="113" spans="1:18" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
-      <c r="C113" s="59" t="s">
+      <c r="C113" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D113" s="59"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59"/>
-      <c r="H113" s="59"/>
-      <c r="I113" s="59"/>
-      <c r="J113" s="59"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="57"/>
+      <c r="J113" s="57"/>
       <c r="K113" s="21"/>
-      <c r="L113" s="42"/>
-      <c r="M113" s="42"/>
-      <c r="N113" s="42"/>
-      <c r="O113" s="42"/>
-      <c r="P113" s="42"/>
-      <c r="Q113" s="42"/>
+      <c r="L113" s="64"/>
+      <c r="M113" s="64"/>
+      <c r="N113" s="64"/>
+      <c r="O113" s="64"/>
+      <c r="P113" s="64"/>
+      <c r="Q113" s="64"/>
       <c r="R113" s="40"/>
     </row>
     <row r="114" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="58"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="58"/>
+      <c r="J114" s="58"/>
       <c r="K114" s="24"/>
-      <c r="L114" s="42"/>
-      <c r="M114" s="42"/>
-      <c r="N114" s="42"/>
-      <c r="O114" s="42"/>
-      <c r="P114" s="42"/>
-      <c r="Q114" s="42"/>
+      <c r="L114" s="64"/>
+      <c r="M114" s="64"/>
+      <c r="N114" s="64"/>
+      <c r="O114" s="64"/>
+      <c r="P114" s="64"/>
+      <c r="Q114" s="64"/>
       <c r="R114" s="40"/>
     </row>
     <row r="115" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="60"/>
-      <c r="G115" s="60"/>
-      <c r="H115" s="60"/>
-      <c r="I115" s="60"/>
-      <c r="J115" s="60"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
       <c r="K115" s="24"/>
-      <c r="L115" s="42"/>
-      <c r="M115" s="42"/>
-      <c r="N115" s="42"/>
-      <c r="O115" s="42"/>
-      <c r="P115" s="42"/>
-      <c r="Q115" s="42"/>
+      <c r="L115" s="64"/>
+      <c r="M115" s="64"/>
+      <c r="N115" s="64"/>
+      <c r="O115" s="64"/>
+      <c r="P115" s="64"/>
+      <c r="Q115" s="64"/>
       <c r="R115" s="40"/>
     </row>
     <row r="116" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
-      <c r="C116" s="61"/>
-      <c r="D116" s="61"/>
-      <c r="E116" s="61"/>
-      <c r="F116" s="61"/>
-      <c r="G116" s="61"/>
-      <c r="H116" s="61"/>
-      <c r="I116" s="61"/>
-      <c r="J116" s="61"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="59"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="59"/>
+      <c r="I116" s="59"/>
+      <c r="J116" s="59"/>
       <c r="K116" s="25"/>
-      <c r="L116" s="42"/>
-      <c r="M116" s="42"/>
-      <c r="N116" s="42"/>
-      <c r="O116" s="42"/>
-      <c r="P116" s="42"/>
-      <c r="Q116" s="42"/>
+      <c r="L116" s="64"/>
+      <c r="M116" s="64"/>
+      <c r="N116" s="64"/>
+      <c r="O116" s="64"/>
+      <c r="P116" s="64"/>
+      <c r="Q116" s="64"/>
       <c r="R116" s="40"/>
     </row>
     <row r="117" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
-      <c r="B117" s="43" t="s">
+      <c r="B117" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="44"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="44"/>
-      <c r="L117" s="44"/>
-      <c r="M117" s="44"/>
-      <c r="N117" s="44"/>
-      <c r="O117" s="44"/>
-      <c r="P117" s="44"/>
-      <c r="Q117" s="44"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
+      <c r="J117" s="46"/>
+      <c r="K117" s="46"/>
+      <c r="L117" s="46"/>
+      <c r="M117" s="46"/>
+      <c r="N117" s="46"/>
+      <c r="O117" s="46"/>
+      <c r="P117" s="46"/>
+      <c r="Q117" s="46"/>
       <c r="R117" s="20"/>
     </row>
     <row r="118" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-      <c r="B118" s="45"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="45"/>
-      <c r="I118" s="45"/>
-      <c r="J118" s="45"/>
-      <c r="K118" s="45"/>
-      <c r="L118" s="45"/>
-      <c r="M118" s="44"/>
-      <c r="N118" s="44"/>
-      <c r="O118" s="44"/>
-      <c r="P118" s="44"/>
-      <c r="Q118" s="44"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="47"/>
+      <c r="K118" s="47"/>
+      <c r="L118" s="47"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="46"/>
+      <c r="O118" s="46"/>
+      <c r="P118" s="46"/>
+      <c r="Q118" s="46"/>
       <c r="R118" s="20"/>
     </row>
     <row r="119" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4691,32 +4824,32 @@
       <c r="D119" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="62" t="s">
+      <c r="E119" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F119" s="63"/>
-      <c r="G119" s="63"/>
-      <c r="H119" s="63"/>
-      <c r="I119" s="63"/>
-      <c r="J119" s="63"/>
-      <c r="K119" s="64"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="61"/>
+      <c r="I119" s="61"/>
+      <c r="J119" s="61"/>
+      <c r="K119" s="62"/>
       <c r="L119" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M119" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N119" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O119" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P119" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q119" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M119" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N119" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O119" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P119" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q119" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R119" s="4"/>
     </row>
@@ -5437,8 +5570,8 @@
       <c r="A157" s="3"/>
       <c r="F157" s="22"/>
       <c r="G157" s="22"/>
-      <c r="H157" s="46"/>
-      <c r="I157" s="47"/>
+      <c r="H157" s="43"/>
+      <c r="I157" s="44"/>
       <c r="J157" s="22"/>
       <c r="K157" s="1"/>
       <c r="L157" s="2"/>
@@ -5455,10 +5588,10 @@
       <c r="A158" s="3"/>
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
-      <c r="H158" s="48" t="s">
+      <c r="H158" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I158" s="49"/>
+      <c r="I158" s="42"/>
       <c r="J158" s="38">
         <v>44634</v>
       </c>
@@ -5475,10 +5608,10 @@
       <c r="E159" s="26"/>
       <c r="F159" s="15"/>
       <c r="G159" s="15"/>
-      <c r="H159" s="52" t="s">
+      <c r="H159" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I159" s="53"/>
+      <c r="I159" s="51"/>
       <c r="J159" s="15" t="s">
         <v>20</v>
       </c>
@@ -5513,228 +5646,228 @@
     </row>
     <row r="161" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
-      <c r="C161" s="54" t="s">
+      <c r="C161" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D161" s="54"/>
-      <c r="E161" s="54"/>
-      <c r="F161" s="54"/>
-      <c r="G161" s="54"/>
-      <c r="H161" s="56" t="s">
+      <c r="D161" s="52"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="52"/>
+      <c r="G161" s="52"/>
+      <c r="H161" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I161" s="56"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="58" t="s">
+      <c r="I161" s="54"/>
+      <c r="J161" s="54"/>
+      <c r="K161" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L161" s="41" t="s">
+      <c r="L161" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M161" s="41"/>
-      <c r="N161" s="41"/>
-      <c r="O161" s="41"/>
-      <c r="P161" s="41"/>
-      <c r="Q161" s="41"/>
+      <c r="M161" s="63"/>
+      <c r="N161" s="63"/>
+      <c r="O161" s="63"/>
+      <c r="P161" s="63"/>
+      <c r="Q161" s="63"/>
       <c r="R161" s="39"/>
     </row>
     <row r="162" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-      <c r="C162" s="54"/>
-      <c r="D162" s="54"/>
-      <c r="E162" s="54"/>
-      <c r="F162" s="54"/>
-      <c r="G162" s="54"/>
-      <c r="H162" s="56"/>
-      <c r="I162" s="56"/>
-      <c r="J162" s="56"/>
-      <c r="K162" s="58"/>
-      <c r="L162" s="41"/>
-      <c r="M162" s="41"/>
-      <c r="N162" s="41"/>
-      <c r="O162" s="41"/>
-      <c r="P162" s="41"/>
-      <c r="Q162" s="41"/>
+      <c r="C162" s="52"/>
+      <c r="D162" s="52"/>
+      <c r="E162" s="52"/>
+      <c r="F162" s="52"/>
+      <c r="G162" s="52"/>
+      <c r="H162" s="54"/>
+      <c r="I162" s="54"/>
+      <c r="J162" s="54"/>
+      <c r="K162" s="56"/>
+      <c r="L162" s="63"/>
+      <c r="M162" s="63"/>
+      <c r="N162" s="63"/>
+      <c r="O162" s="63"/>
+      <c r="P162" s="63"/>
+      <c r="Q162" s="63"/>
       <c r="R162" s="39"/>
     </row>
     <row r="163" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
-      <c r="C163" s="54"/>
-      <c r="D163" s="54"/>
-      <c r="E163" s="54"/>
-      <c r="F163" s="54"/>
-      <c r="G163" s="54"/>
-      <c r="H163" s="56"/>
-      <c r="I163" s="56"/>
-      <c r="J163" s="56"/>
-      <c r="K163" s="58" t="s">
+      <c r="C163" s="52"/>
+      <c r="D163" s="52"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="52"/>
+      <c r="G163" s="52"/>
+      <c r="H163" s="54"/>
+      <c r="I163" s="54"/>
+      <c r="J163" s="54"/>
+      <c r="K163" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L163" s="42" t="s">
+      <c r="L163" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M163" s="42"/>
-      <c r="N163" s="42"/>
-      <c r="O163" s="42"/>
-      <c r="P163" s="42"/>
-      <c r="Q163" s="42"/>
+      <c r="M163" s="64"/>
+      <c r="N163" s="64"/>
+      <c r="O163" s="64"/>
+      <c r="P163" s="64"/>
+      <c r="Q163" s="64"/>
       <c r="R163" s="40"/>
     </row>
     <row r="164" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
-      <c r="C164" s="54"/>
-      <c r="D164" s="54"/>
-      <c r="E164" s="54"/>
-      <c r="F164" s="54"/>
-      <c r="G164" s="54"/>
-      <c r="H164" s="56"/>
-      <c r="I164" s="56"/>
-      <c r="J164" s="56"/>
-      <c r="K164" s="58"/>
-      <c r="L164" s="42"/>
-      <c r="M164" s="42"/>
-      <c r="N164" s="42"/>
-      <c r="O164" s="42"/>
-      <c r="P164" s="42"/>
-      <c r="Q164" s="42"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="54"/>
+      <c r="I164" s="54"/>
+      <c r="J164" s="54"/>
+      <c r="K164" s="56"/>
+      <c r="L164" s="64"/>
+      <c r="M164" s="64"/>
+      <c r="N164" s="64"/>
+      <c r="O164" s="64"/>
+      <c r="P164" s="64"/>
+      <c r="Q164" s="64"/>
       <c r="R164" s="40"/>
     </row>
     <row r="165" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
-      <c r="C165" s="55"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="55"/>
-      <c r="F165" s="55"/>
-      <c r="G165" s="55"/>
-      <c r="H165" s="57"/>
-      <c r="I165" s="57"/>
-      <c r="J165" s="57"/>
-      <c r="L165" s="42"/>
-      <c r="M165" s="42"/>
-      <c r="N165" s="42"/>
-      <c r="O165" s="42"/>
-      <c r="P165" s="42"/>
-      <c r="Q165" s="42"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="53"/>
+      <c r="E165" s="53"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="53"/>
+      <c r="H165" s="55"/>
+      <c r="I165" s="55"/>
+      <c r="J165" s="55"/>
+      <c r="L165" s="64"/>
+      <c r="M165" s="64"/>
+      <c r="N165" s="64"/>
+      <c r="O165" s="64"/>
+      <c r="P165" s="64"/>
+      <c r="Q165" s="64"/>
       <c r="R165" s="40"/>
     </row>
     <row r="166" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
-      <c r="C166" s="59" t="s">
+      <c r="C166" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D166" s="59"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="59"/>
-      <c r="H166" s="59"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="59"/>
+      <c r="D166" s="57"/>
+      <c r="E166" s="57"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="57"/>
       <c r="K166" s="21"/>
-      <c r="L166" s="42"/>
-      <c r="M166" s="42"/>
-      <c r="N166" s="42"/>
-      <c r="O166" s="42"/>
-      <c r="P166" s="42"/>
-      <c r="Q166" s="42"/>
+      <c r="L166" s="64"/>
+      <c r="M166" s="64"/>
+      <c r="N166" s="64"/>
+      <c r="O166" s="64"/>
+      <c r="P166" s="64"/>
+      <c r="Q166" s="64"/>
       <c r="R166" s="40"/>
     </row>
     <row r="167" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
-      <c r="C167" s="60"/>
-      <c r="D167" s="60"/>
-      <c r="E167" s="60"/>
-      <c r="F167" s="60"/>
-      <c r="G167" s="60"/>
-      <c r="H167" s="60"/>
-      <c r="I167" s="60"/>
-      <c r="J167" s="60"/>
+      <c r="C167" s="58"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="58"/>
+      <c r="F167" s="58"/>
+      <c r="G167" s="58"/>
+      <c r="H167" s="58"/>
+      <c r="I167" s="58"/>
+      <c r="J167" s="58"/>
       <c r="K167" s="24"/>
-      <c r="L167" s="42"/>
-      <c r="M167" s="42"/>
-      <c r="N167" s="42"/>
-      <c r="O167" s="42"/>
-      <c r="P167" s="42"/>
-      <c r="Q167" s="42"/>
+      <c r="L167" s="64"/>
+      <c r="M167" s="64"/>
+      <c r="N167" s="64"/>
+      <c r="O167" s="64"/>
+      <c r="P167" s="64"/>
+      <c r="Q167" s="64"/>
       <c r="R167" s="40"/>
     </row>
     <row r="168" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="60"/>
-      <c r="E168" s="60"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="60"/>
-      <c r="H168" s="60"/>
-      <c r="I168" s="60"/>
-      <c r="J168" s="60"/>
+      <c r="C168" s="58"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="58"/>
+      <c r="F168" s="58"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="58"/>
+      <c r="I168" s="58"/>
+      <c r="J168" s="58"/>
       <c r="K168" s="24"/>
-      <c r="L168" s="42"/>
-      <c r="M168" s="42"/>
-      <c r="N168" s="42"/>
-      <c r="O168" s="42"/>
-      <c r="P168" s="42"/>
-      <c r="Q168" s="42"/>
+      <c r="L168" s="64"/>
+      <c r="M168" s="64"/>
+      <c r="N168" s="64"/>
+      <c r="O168" s="64"/>
+      <c r="P168" s="64"/>
+      <c r="Q168" s="64"/>
       <c r="R168" s="40"/>
     </row>
     <row r="169" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
-      <c r="C169" s="61"/>
-      <c r="D169" s="61"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="61"/>
-      <c r="G169" s="61"/>
-      <c r="H169" s="61"/>
-      <c r="I169" s="61"/>
-      <c r="J169" s="61"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="59"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="59"/>
+      <c r="H169" s="59"/>
+      <c r="I169" s="59"/>
+      <c r="J169" s="59"/>
       <c r="K169" s="25"/>
-      <c r="L169" s="42"/>
-      <c r="M169" s="42"/>
-      <c r="N169" s="42"/>
-      <c r="O169" s="42"/>
-      <c r="P169" s="42"/>
-      <c r="Q169" s="42"/>
+      <c r="L169" s="64"/>
+      <c r="M169" s="64"/>
+      <c r="N169" s="64"/>
+      <c r="O169" s="64"/>
+      <c r="P169" s="64"/>
+      <c r="Q169" s="64"/>
       <c r="R169" s="40"/>
     </row>
     <row r="170" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
-      <c r="B170" s="43" t="s">
+      <c r="B170" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C170" s="44"/>
-      <c r="D170" s="44"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="44"/>
-      <c r="I170" s="44"/>
-      <c r="J170" s="44"/>
-      <c r="K170" s="44"/>
-      <c r="L170" s="44"/>
-      <c r="M170" s="44"/>
-      <c r="N170" s="44"/>
-      <c r="O170" s="44"/>
-      <c r="P170" s="44"/>
-      <c r="Q170" s="44"/>
+      <c r="C170" s="46"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="46"/>
+      <c r="F170" s="46"/>
+      <c r="G170" s="46"/>
+      <c r="H170" s="46"/>
+      <c r="I170" s="46"/>
+      <c r="J170" s="46"/>
+      <c r="K170" s="46"/>
+      <c r="L170" s="46"/>
+      <c r="M170" s="46"/>
+      <c r="N170" s="46"/>
+      <c r="O170" s="46"/>
+      <c r="P170" s="46"/>
+      <c r="Q170" s="46"/>
       <c r="R170" s="20"/>
     </row>
     <row r="171" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
-      <c r="B171" s="45"/>
-      <c r="C171" s="45"/>
-      <c r="D171" s="45"/>
-      <c r="E171" s="45"/>
-      <c r="F171" s="45"/>
-      <c r="G171" s="45"/>
-      <c r="H171" s="45"/>
-      <c r="I171" s="45"/>
-      <c r="J171" s="45"/>
-      <c r="K171" s="45"/>
-      <c r="L171" s="45"/>
-      <c r="M171" s="44"/>
-      <c r="N171" s="44"/>
-      <c r="O171" s="44"/>
-      <c r="P171" s="44"/>
-      <c r="Q171" s="44"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="47"/>
+      <c r="D171" s="47"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="47"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="47"/>
+      <c r="I171" s="47"/>
+      <c r="J171" s="47"/>
+      <c r="K171" s="47"/>
+      <c r="L171" s="47"/>
+      <c r="M171" s="46"/>
+      <c r="N171" s="46"/>
+      <c r="O171" s="46"/>
+      <c r="P171" s="46"/>
+      <c r="Q171" s="46"/>
       <c r="R171" s="20"/>
     </row>
     <row r="172" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5748,32 +5881,32 @@
       <c r="D172" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="62" t="s">
+      <c r="E172" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F172" s="63"/>
-      <c r="G172" s="63"/>
-      <c r="H172" s="63"/>
-      <c r="I172" s="63"/>
-      <c r="J172" s="63"/>
-      <c r="K172" s="64"/>
+      <c r="F172" s="61"/>
+      <c r="G172" s="61"/>
+      <c r="H172" s="61"/>
+      <c r="I172" s="61"/>
+      <c r="J172" s="61"/>
+      <c r="K172" s="62"/>
       <c r="L172" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M172" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N172" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O172" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P172" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q172" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M172" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N172" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O172" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P172" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q172" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R172" s="4"/>
     </row>
@@ -6494,8 +6627,8 @@
       <c r="A210" s="3"/>
       <c r="F210" s="22"/>
       <c r="G210" s="22"/>
-      <c r="H210" s="46"/>
-      <c r="I210" s="47"/>
+      <c r="H210" s="43"/>
+      <c r="I210" s="44"/>
       <c r="J210" s="22"/>
       <c r="K210" s="1"/>
       <c r="L210" s="2"/>
@@ -6512,15 +6645,15 @@
       <c r="A211" s="3"/>
       <c r="F211" s="16"/>
       <c r="G211" s="16"/>
-      <c r="H211" s="48" t="s">
+      <c r="H211" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I211" s="49"/>
+      <c r="I211" s="42"/>
       <c r="J211" s="38">
         <v>44634</v>
       </c>
       <c r="K211" s="3"/>
-      <c r="R211" s="50" t="s">
+      <c r="R211" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6532,10 +6665,10 @@
       <c r="E212" s="26"/>
       <c r="F212" s="15"/>
       <c r="G212" s="15"/>
-      <c r="H212" s="52" t="s">
+      <c r="H212" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I212" s="53"/>
+      <c r="I212" s="51"/>
       <c r="J212" s="15" t="s">
         <v>20</v>
       </c>
@@ -6546,7 +6679,7 @@
       <c r="O212" s="14"/>
       <c r="P212" s="14"/>
       <c r="Q212" s="14"/>
-      <c r="R212" s="51"/>
+      <c r="R212" s="49"/>
     </row>
     <row r="213" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
@@ -6570,228 +6703,228 @@
     </row>
     <row r="214" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
-      <c r="C214" s="54" t="s">
+      <c r="C214" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D214" s="54"/>
-      <c r="E214" s="54"/>
-      <c r="F214" s="54"/>
-      <c r="G214" s="54"/>
-      <c r="H214" s="56" t="s">
+      <c r="D214" s="52"/>
+      <c r="E214" s="52"/>
+      <c r="F214" s="52"/>
+      <c r="G214" s="52"/>
+      <c r="H214" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I214" s="56"/>
-      <c r="J214" s="56"/>
-      <c r="K214" s="58" t="s">
+      <c r="I214" s="54"/>
+      <c r="J214" s="54"/>
+      <c r="K214" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L214" s="41" t="s">
+      <c r="L214" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M214" s="41"/>
-      <c r="N214" s="41"/>
-      <c r="O214" s="41"/>
-      <c r="P214" s="41"/>
-      <c r="Q214" s="41"/>
+      <c r="M214" s="63"/>
+      <c r="N214" s="63"/>
+      <c r="O214" s="63"/>
+      <c r="P214" s="63"/>
+      <c r="Q214" s="63"/>
       <c r="R214" s="39"/>
     </row>
     <row r="215" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
-      <c r="C215" s="54"/>
-      <c r="D215" s="54"/>
-      <c r="E215" s="54"/>
-      <c r="F215" s="54"/>
-      <c r="G215" s="54"/>
-      <c r="H215" s="56"/>
-      <c r="I215" s="56"/>
-      <c r="J215" s="56"/>
-      <c r="K215" s="58"/>
-      <c r="L215" s="41"/>
-      <c r="M215" s="41"/>
-      <c r="N215" s="41"/>
-      <c r="O215" s="41"/>
-      <c r="P215" s="41"/>
-      <c r="Q215" s="41"/>
+      <c r="C215" s="52"/>
+      <c r="D215" s="52"/>
+      <c r="E215" s="52"/>
+      <c r="F215" s="52"/>
+      <c r="G215" s="52"/>
+      <c r="H215" s="54"/>
+      <c r="I215" s="54"/>
+      <c r="J215" s="54"/>
+      <c r="K215" s="56"/>
+      <c r="L215" s="63"/>
+      <c r="M215" s="63"/>
+      <c r="N215" s="63"/>
+      <c r="O215" s="63"/>
+      <c r="P215" s="63"/>
+      <c r="Q215" s="63"/>
       <c r="R215" s="39"/>
     </row>
     <row r="216" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
-      <c r="C216" s="54"/>
-      <c r="D216" s="54"/>
-      <c r="E216" s="54"/>
-      <c r="F216" s="54"/>
-      <c r="G216" s="54"/>
-      <c r="H216" s="56"/>
-      <c r="I216" s="56"/>
-      <c r="J216" s="56"/>
-      <c r="K216" s="58" t="s">
+      <c r="C216" s="52"/>
+      <c r="D216" s="52"/>
+      <c r="E216" s="52"/>
+      <c r="F216" s="52"/>
+      <c r="G216" s="52"/>
+      <c r="H216" s="54"/>
+      <c r="I216" s="54"/>
+      <c r="J216" s="54"/>
+      <c r="K216" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L216" s="42" t="s">
+      <c r="L216" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M216" s="42"/>
-      <c r="N216" s="42"/>
-      <c r="O216" s="42"/>
-      <c r="P216" s="42"/>
-      <c r="Q216" s="42"/>
+      <c r="M216" s="64"/>
+      <c r="N216" s="64"/>
+      <c r="O216" s="64"/>
+      <c r="P216" s="64"/>
+      <c r="Q216" s="64"/>
       <c r="R216" s="40"/>
     </row>
     <row r="217" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
-      <c r="C217" s="54"/>
-      <c r="D217" s="54"/>
-      <c r="E217" s="54"/>
-      <c r="F217" s="54"/>
-      <c r="G217" s="54"/>
-      <c r="H217" s="56"/>
-      <c r="I217" s="56"/>
-      <c r="J217" s="56"/>
-      <c r="K217" s="58"/>
-      <c r="L217" s="42"/>
-      <c r="M217" s="42"/>
-      <c r="N217" s="42"/>
-      <c r="O217" s="42"/>
-      <c r="P217" s="42"/>
-      <c r="Q217" s="42"/>
+      <c r="C217" s="52"/>
+      <c r="D217" s="52"/>
+      <c r="E217" s="52"/>
+      <c r="F217" s="52"/>
+      <c r="G217" s="52"/>
+      <c r="H217" s="54"/>
+      <c r="I217" s="54"/>
+      <c r="J217" s="54"/>
+      <c r="K217" s="56"/>
+      <c r="L217" s="64"/>
+      <c r="M217" s="64"/>
+      <c r="N217" s="64"/>
+      <c r="O217" s="64"/>
+      <c r="P217" s="64"/>
+      <c r="Q217" s="64"/>
       <c r="R217" s="40"/>
     </row>
     <row r="218" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
-      <c r="C218" s="55"/>
-      <c r="D218" s="55"/>
-      <c r="E218" s="55"/>
-      <c r="F218" s="55"/>
-      <c r="G218" s="55"/>
-      <c r="H218" s="57"/>
-      <c r="I218" s="57"/>
-      <c r="J218" s="57"/>
-      <c r="L218" s="42"/>
-      <c r="M218" s="42"/>
-      <c r="N218" s="42"/>
-      <c r="O218" s="42"/>
-      <c r="P218" s="42"/>
-      <c r="Q218" s="42"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="53"/>
+      <c r="E218" s="53"/>
+      <c r="F218" s="53"/>
+      <c r="G218" s="53"/>
+      <c r="H218" s="55"/>
+      <c r="I218" s="55"/>
+      <c r="J218" s="55"/>
+      <c r="L218" s="64"/>
+      <c r="M218" s="64"/>
+      <c r="N218" s="64"/>
+      <c r="O218" s="64"/>
+      <c r="P218" s="64"/>
+      <c r="Q218" s="64"/>
       <c r="R218" s="40"/>
     </row>
     <row r="219" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
-      <c r="C219" s="59" t="s">
+      <c r="C219" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D219" s="59"/>
-      <c r="E219" s="59"/>
-      <c r="F219" s="59"/>
-      <c r="G219" s="59"/>
-      <c r="H219" s="59"/>
-      <c r="I219" s="59"/>
-      <c r="J219" s="59"/>
+      <c r="D219" s="57"/>
+      <c r="E219" s="57"/>
+      <c r="F219" s="57"/>
+      <c r="G219" s="57"/>
+      <c r="H219" s="57"/>
+      <c r="I219" s="57"/>
+      <c r="J219" s="57"/>
       <c r="K219" s="21"/>
-      <c r="L219" s="42"/>
-      <c r="M219" s="42"/>
-      <c r="N219" s="42"/>
-      <c r="O219" s="42"/>
-      <c r="P219" s="42"/>
-      <c r="Q219" s="42"/>
+      <c r="L219" s="64"/>
+      <c r="M219" s="64"/>
+      <c r="N219" s="64"/>
+      <c r="O219" s="64"/>
+      <c r="P219" s="64"/>
+      <c r="Q219" s="64"/>
       <c r="R219" s="40"/>
     </row>
     <row r="220" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
-      <c r="C220" s="60"/>
-      <c r="D220" s="60"/>
-      <c r="E220" s="60"/>
-      <c r="F220" s="60"/>
-      <c r="G220" s="60"/>
-      <c r="H220" s="60"/>
-      <c r="I220" s="60"/>
-      <c r="J220" s="60"/>
+      <c r="C220" s="58"/>
+      <c r="D220" s="58"/>
+      <c r="E220" s="58"/>
+      <c r="F220" s="58"/>
+      <c r="G220" s="58"/>
+      <c r="H220" s="58"/>
+      <c r="I220" s="58"/>
+      <c r="J220" s="58"/>
       <c r="K220" s="24"/>
-      <c r="L220" s="42"/>
-      <c r="M220" s="42"/>
-      <c r="N220" s="42"/>
-      <c r="O220" s="42"/>
-      <c r="P220" s="42"/>
-      <c r="Q220" s="42"/>
+      <c r="L220" s="64"/>
+      <c r="M220" s="64"/>
+      <c r="N220" s="64"/>
+      <c r="O220" s="64"/>
+      <c r="P220" s="64"/>
+      <c r="Q220" s="64"/>
       <c r="R220" s="40"/>
     </row>
     <row r="221" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
-      <c r="C221" s="60"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="60"/>
-      <c r="H221" s="60"/>
-      <c r="I221" s="60"/>
-      <c r="J221" s="60"/>
+      <c r="C221" s="58"/>
+      <c r="D221" s="58"/>
+      <c r="E221" s="58"/>
+      <c r="F221" s="58"/>
+      <c r="G221" s="58"/>
+      <c r="H221" s="58"/>
+      <c r="I221" s="58"/>
+      <c r="J221" s="58"/>
       <c r="K221" s="24"/>
-      <c r="L221" s="42"/>
-      <c r="M221" s="42"/>
-      <c r="N221" s="42"/>
-      <c r="O221" s="42"/>
-      <c r="P221" s="42"/>
-      <c r="Q221" s="42"/>
+      <c r="L221" s="64"/>
+      <c r="M221" s="64"/>
+      <c r="N221" s="64"/>
+      <c r="O221" s="64"/>
+      <c r="P221" s="64"/>
+      <c r="Q221" s="64"/>
       <c r="R221" s="40"/>
     </row>
     <row r="222" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
-      <c r="C222" s="61"/>
-      <c r="D222" s="61"/>
-      <c r="E222" s="61"/>
-      <c r="F222" s="61"/>
-      <c r="G222" s="61"/>
-      <c r="H222" s="61"/>
-      <c r="I222" s="61"/>
-      <c r="J222" s="61"/>
+      <c r="C222" s="59"/>
+      <c r="D222" s="59"/>
+      <c r="E222" s="59"/>
+      <c r="F222" s="59"/>
+      <c r="G222" s="59"/>
+      <c r="H222" s="59"/>
+      <c r="I222" s="59"/>
+      <c r="J222" s="59"/>
       <c r="K222" s="25"/>
-      <c r="L222" s="42"/>
-      <c r="M222" s="42"/>
-      <c r="N222" s="42"/>
-      <c r="O222" s="42"/>
-      <c r="P222" s="42"/>
-      <c r="Q222" s="42"/>
+      <c r="L222" s="64"/>
+      <c r="M222" s="64"/>
+      <c r="N222" s="64"/>
+      <c r="O222" s="64"/>
+      <c r="P222" s="64"/>
+      <c r="Q222" s="64"/>
       <c r="R222" s="40"/>
     </row>
     <row r="223" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
-      <c r="B223" s="43" t="s">
+      <c r="B223" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C223" s="44"/>
-      <c r="D223" s="44"/>
-      <c r="E223" s="44"/>
-      <c r="F223" s="44"/>
-      <c r="G223" s="44"/>
-      <c r="H223" s="44"/>
-      <c r="I223" s="44"/>
-      <c r="J223" s="44"/>
-      <c r="K223" s="44"/>
-      <c r="L223" s="44"/>
-      <c r="M223" s="44"/>
-      <c r="N223" s="44"/>
-      <c r="O223" s="44"/>
-      <c r="P223" s="44"/>
-      <c r="Q223" s="44"/>
+      <c r="C223" s="46"/>
+      <c r="D223" s="46"/>
+      <c r="E223" s="46"/>
+      <c r="F223" s="46"/>
+      <c r="G223" s="46"/>
+      <c r="H223" s="46"/>
+      <c r="I223" s="46"/>
+      <c r="J223" s="46"/>
+      <c r="K223" s="46"/>
+      <c r="L223" s="46"/>
+      <c r="M223" s="46"/>
+      <c r="N223" s="46"/>
+      <c r="O223" s="46"/>
+      <c r="P223" s="46"/>
+      <c r="Q223" s="46"/>
       <c r="R223" s="20"/>
     </row>
     <row r="224" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
-      <c r="B224" s="45"/>
-      <c r="C224" s="45"/>
-      <c r="D224" s="45"/>
-      <c r="E224" s="45"/>
-      <c r="F224" s="45"/>
-      <c r="G224" s="45"/>
-      <c r="H224" s="45"/>
-      <c r="I224" s="45"/>
-      <c r="J224" s="45"/>
-      <c r="K224" s="45"/>
-      <c r="L224" s="45"/>
-      <c r="M224" s="44"/>
-      <c r="N224" s="44"/>
-      <c r="O224" s="44"/>
-      <c r="P224" s="44"/>
-      <c r="Q224" s="44"/>
+      <c r="B224" s="47"/>
+      <c r="C224" s="47"/>
+      <c r="D224" s="47"/>
+      <c r="E224" s="47"/>
+      <c r="F224" s="47"/>
+      <c r="G224" s="47"/>
+      <c r="H224" s="47"/>
+      <c r="I224" s="47"/>
+      <c r="J224" s="47"/>
+      <c r="K224" s="47"/>
+      <c r="L224" s="47"/>
+      <c r="M224" s="46"/>
+      <c r="N224" s="46"/>
+      <c r="O224" s="46"/>
+      <c r="P224" s="46"/>
+      <c r="Q224" s="46"/>
       <c r="R224" s="20"/>
     </row>
     <row r="225" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6805,32 +6938,32 @@
       <c r="D225" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E225" s="62" t="s">
+      <c r="E225" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F225" s="63"/>
-      <c r="G225" s="63"/>
-      <c r="H225" s="63"/>
-      <c r="I225" s="63"/>
-      <c r="J225" s="63"/>
-      <c r="K225" s="64"/>
+      <c r="F225" s="61"/>
+      <c r="G225" s="61"/>
+      <c r="H225" s="61"/>
+      <c r="I225" s="61"/>
+      <c r="J225" s="61"/>
+      <c r="K225" s="62"/>
       <c r="L225" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M225" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N225" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O225" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P225" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q225" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M225" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N225" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O225" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P225" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q225" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R225" s="4"/>
     </row>
@@ -7551,8 +7684,8 @@
       <c r="A263" s="3"/>
       <c r="F263" s="22"/>
       <c r="G263" s="22"/>
-      <c r="H263" s="46"/>
-      <c r="I263" s="47"/>
+      <c r="H263" s="43"/>
+      <c r="I263" s="44"/>
       <c r="J263" s="22"/>
       <c r="K263" s="1"/>
       <c r="L263" s="2"/>
@@ -7569,15 +7702,15 @@
       <c r="A264" s="3"/>
       <c r="F264" s="16"/>
       <c r="G264" s="16"/>
-      <c r="H264" s="48" t="s">
+      <c r="H264" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I264" s="49"/>
+      <c r="I264" s="42"/>
       <c r="J264" s="38">
         <v>44634</v>
       </c>
       <c r="K264" s="3"/>
-      <c r="R264" s="50" t="s">
+      <c r="R264" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7589,10 +7722,10 @@
       <c r="E265" s="26"/>
       <c r="F265" s="15"/>
       <c r="G265" s="15"/>
-      <c r="H265" s="52" t="s">
+      <c r="H265" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I265" s="53"/>
+      <c r="I265" s="51"/>
       <c r="J265" s="15" t="s">
         <v>20</v>
       </c>
@@ -7603,7 +7736,7 @@
       <c r="O265" s="14"/>
       <c r="P265" s="14"/>
       <c r="Q265" s="14"/>
-      <c r="R265" s="51"/>
+      <c r="R265" s="49"/>
     </row>
     <row r="266" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
@@ -7627,228 +7760,228 @@
     </row>
     <row r="267" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
-      <c r="C267" s="54" t="s">
+      <c r="C267" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D267" s="54"/>
-      <c r="E267" s="54"/>
-      <c r="F267" s="54"/>
-      <c r="G267" s="54"/>
-      <c r="H267" s="56" t="s">
+      <c r="D267" s="52"/>
+      <c r="E267" s="52"/>
+      <c r="F267" s="52"/>
+      <c r="G267" s="52"/>
+      <c r="H267" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I267" s="56"/>
-      <c r="J267" s="56"/>
-      <c r="K267" s="58" t="s">
+      <c r="I267" s="54"/>
+      <c r="J267" s="54"/>
+      <c r="K267" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L267" s="41" t="s">
+      <c r="L267" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M267" s="41"/>
-      <c r="N267" s="41"/>
-      <c r="O267" s="41"/>
-      <c r="P267" s="41"/>
-      <c r="Q267" s="41"/>
+      <c r="M267" s="63"/>
+      <c r="N267" s="63"/>
+      <c r="O267" s="63"/>
+      <c r="P267" s="63"/>
+      <c r="Q267" s="63"/>
       <c r="R267" s="39"/>
     </row>
     <row r="268" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
-      <c r="C268" s="54"/>
-      <c r="D268" s="54"/>
-      <c r="E268" s="54"/>
-      <c r="F268" s="54"/>
-      <c r="G268" s="54"/>
-      <c r="H268" s="56"/>
-      <c r="I268" s="56"/>
-      <c r="J268" s="56"/>
-      <c r="K268" s="58"/>
-      <c r="L268" s="41"/>
-      <c r="M268" s="41"/>
-      <c r="N268" s="41"/>
-      <c r="O268" s="41"/>
-      <c r="P268" s="41"/>
-      <c r="Q268" s="41"/>
+      <c r="C268" s="52"/>
+      <c r="D268" s="52"/>
+      <c r="E268" s="52"/>
+      <c r="F268" s="52"/>
+      <c r="G268" s="52"/>
+      <c r="H268" s="54"/>
+      <c r="I268" s="54"/>
+      <c r="J268" s="54"/>
+      <c r="K268" s="56"/>
+      <c r="L268" s="63"/>
+      <c r="M268" s="63"/>
+      <c r="N268" s="63"/>
+      <c r="O268" s="63"/>
+      <c r="P268" s="63"/>
+      <c r="Q268" s="63"/>
       <c r="R268" s="39"/>
     </row>
     <row r="269" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
-      <c r="C269" s="54"/>
-      <c r="D269" s="54"/>
-      <c r="E269" s="54"/>
-      <c r="F269" s="54"/>
-      <c r="G269" s="54"/>
-      <c r="H269" s="56"/>
-      <c r="I269" s="56"/>
-      <c r="J269" s="56"/>
-      <c r="K269" s="58" t="s">
+      <c r="C269" s="52"/>
+      <c r="D269" s="52"/>
+      <c r="E269" s="52"/>
+      <c r="F269" s="52"/>
+      <c r="G269" s="52"/>
+      <c r="H269" s="54"/>
+      <c r="I269" s="54"/>
+      <c r="J269" s="54"/>
+      <c r="K269" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L269" s="42" t="s">
+      <c r="L269" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M269" s="42"/>
-      <c r="N269" s="42"/>
-      <c r="O269" s="42"/>
-      <c r="P269" s="42"/>
-      <c r="Q269" s="42"/>
+      <c r="M269" s="64"/>
+      <c r="N269" s="64"/>
+      <c r="O269" s="64"/>
+      <c r="P269" s="64"/>
+      <c r="Q269" s="64"/>
       <c r="R269" s="40"/>
     </row>
     <row r="270" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
-      <c r="C270" s="54"/>
-      <c r="D270" s="54"/>
-      <c r="E270" s="54"/>
-      <c r="F270" s="54"/>
-      <c r="G270" s="54"/>
-      <c r="H270" s="56"/>
-      <c r="I270" s="56"/>
-      <c r="J270" s="56"/>
-      <c r="K270" s="58"/>
-      <c r="L270" s="42"/>
-      <c r="M270" s="42"/>
-      <c r="N270" s="42"/>
-      <c r="O270" s="42"/>
-      <c r="P270" s="42"/>
-      <c r="Q270" s="42"/>
+      <c r="C270" s="52"/>
+      <c r="D270" s="52"/>
+      <c r="E270" s="52"/>
+      <c r="F270" s="52"/>
+      <c r="G270" s="52"/>
+      <c r="H270" s="54"/>
+      <c r="I270" s="54"/>
+      <c r="J270" s="54"/>
+      <c r="K270" s="56"/>
+      <c r="L270" s="64"/>
+      <c r="M270" s="64"/>
+      <c r="N270" s="64"/>
+      <c r="O270" s="64"/>
+      <c r="P270" s="64"/>
+      <c r="Q270" s="64"/>
       <c r="R270" s="40"/>
     </row>
     <row r="271" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3"/>
-      <c r="C271" s="55"/>
-      <c r="D271" s="55"/>
-      <c r="E271" s="55"/>
-      <c r="F271" s="55"/>
-      <c r="G271" s="55"/>
-      <c r="H271" s="57"/>
-      <c r="I271" s="57"/>
-      <c r="J271" s="57"/>
-      <c r="L271" s="42"/>
-      <c r="M271" s="42"/>
-      <c r="N271" s="42"/>
-      <c r="O271" s="42"/>
-      <c r="P271" s="42"/>
-      <c r="Q271" s="42"/>
+      <c r="C271" s="53"/>
+      <c r="D271" s="53"/>
+      <c r="E271" s="53"/>
+      <c r="F271" s="53"/>
+      <c r="G271" s="53"/>
+      <c r="H271" s="55"/>
+      <c r="I271" s="55"/>
+      <c r="J271" s="55"/>
+      <c r="L271" s="64"/>
+      <c r="M271" s="64"/>
+      <c r="N271" s="64"/>
+      <c r="O271" s="64"/>
+      <c r="P271" s="64"/>
+      <c r="Q271" s="64"/>
       <c r="R271" s="40"/>
     </row>
     <row r="272" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
-      <c r="C272" s="59" t="s">
+      <c r="C272" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D272" s="59"/>
-      <c r="E272" s="59"/>
-      <c r="F272" s="59"/>
-      <c r="G272" s="59"/>
-      <c r="H272" s="59"/>
-      <c r="I272" s="59"/>
-      <c r="J272" s="59"/>
+      <c r="D272" s="57"/>
+      <c r="E272" s="57"/>
+      <c r="F272" s="57"/>
+      <c r="G272" s="57"/>
+      <c r="H272" s="57"/>
+      <c r="I272" s="57"/>
+      <c r="J272" s="57"/>
       <c r="K272" s="21"/>
-      <c r="L272" s="42"/>
-      <c r="M272" s="42"/>
-      <c r="N272" s="42"/>
-      <c r="O272" s="42"/>
-      <c r="P272" s="42"/>
-      <c r="Q272" s="42"/>
+      <c r="L272" s="64"/>
+      <c r="M272" s="64"/>
+      <c r="N272" s="64"/>
+      <c r="O272" s="64"/>
+      <c r="P272" s="64"/>
+      <c r="Q272" s="64"/>
       <c r="R272" s="40"/>
     </row>
     <row r="273" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
-      <c r="C273" s="60"/>
-      <c r="D273" s="60"/>
-      <c r="E273" s="60"/>
-      <c r="F273" s="60"/>
-      <c r="G273" s="60"/>
-      <c r="H273" s="60"/>
-      <c r="I273" s="60"/>
-      <c r="J273" s="60"/>
+      <c r="C273" s="58"/>
+      <c r="D273" s="58"/>
+      <c r="E273" s="58"/>
+      <c r="F273" s="58"/>
+      <c r="G273" s="58"/>
+      <c r="H273" s="58"/>
+      <c r="I273" s="58"/>
+      <c r="J273" s="58"/>
       <c r="K273" s="24"/>
-      <c r="L273" s="42"/>
-      <c r="M273" s="42"/>
-      <c r="N273" s="42"/>
-      <c r="O273" s="42"/>
-      <c r="P273" s="42"/>
-      <c r="Q273" s="42"/>
+      <c r="L273" s="64"/>
+      <c r="M273" s="64"/>
+      <c r="N273" s="64"/>
+      <c r="O273" s="64"/>
+      <c r="P273" s="64"/>
+      <c r="Q273" s="64"/>
       <c r="R273" s="40"/>
     </row>
     <row r="274" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
-      <c r="C274" s="60"/>
-      <c r="D274" s="60"/>
-      <c r="E274" s="60"/>
-      <c r="F274" s="60"/>
-      <c r="G274" s="60"/>
-      <c r="H274" s="60"/>
-      <c r="I274" s="60"/>
-      <c r="J274" s="60"/>
+      <c r="C274" s="58"/>
+      <c r="D274" s="58"/>
+      <c r="E274" s="58"/>
+      <c r="F274" s="58"/>
+      <c r="G274" s="58"/>
+      <c r="H274" s="58"/>
+      <c r="I274" s="58"/>
+      <c r="J274" s="58"/>
       <c r="K274" s="24"/>
-      <c r="L274" s="42"/>
-      <c r="M274" s="42"/>
-      <c r="N274" s="42"/>
-      <c r="O274" s="42"/>
-      <c r="P274" s="42"/>
-      <c r="Q274" s="42"/>
+      <c r="L274" s="64"/>
+      <c r="M274" s="64"/>
+      <c r="N274" s="64"/>
+      <c r="O274" s="64"/>
+      <c r="P274" s="64"/>
+      <c r="Q274" s="64"/>
       <c r="R274" s="40"/>
     </row>
     <row r="275" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
-      <c r="C275" s="61"/>
-      <c r="D275" s="61"/>
-      <c r="E275" s="61"/>
-      <c r="F275" s="61"/>
-      <c r="G275" s="61"/>
-      <c r="H275" s="61"/>
-      <c r="I275" s="61"/>
-      <c r="J275" s="61"/>
+      <c r="C275" s="59"/>
+      <c r="D275" s="59"/>
+      <c r="E275" s="59"/>
+      <c r="F275" s="59"/>
+      <c r="G275" s="59"/>
+      <c r="H275" s="59"/>
+      <c r="I275" s="59"/>
+      <c r="J275" s="59"/>
       <c r="K275" s="25"/>
-      <c r="L275" s="42"/>
-      <c r="M275" s="42"/>
-      <c r="N275" s="42"/>
-      <c r="O275" s="42"/>
-      <c r="P275" s="42"/>
-      <c r="Q275" s="42"/>
+      <c r="L275" s="64"/>
+      <c r="M275" s="64"/>
+      <c r="N275" s="64"/>
+      <c r="O275" s="64"/>
+      <c r="P275" s="64"/>
+      <c r="Q275" s="64"/>
       <c r="R275" s="40"/>
     </row>
     <row r="276" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
-      <c r="B276" s="43" t="s">
+      <c r="B276" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C276" s="44"/>
-      <c r="D276" s="44"/>
-      <c r="E276" s="44"/>
-      <c r="F276" s="44"/>
-      <c r="G276" s="44"/>
-      <c r="H276" s="44"/>
-      <c r="I276" s="44"/>
-      <c r="J276" s="44"/>
-      <c r="K276" s="44"/>
-      <c r="L276" s="44"/>
-      <c r="M276" s="44"/>
-      <c r="N276" s="44"/>
-      <c r="O276" s="44"/>
-      <c r="P276" s="44"/>
-      <c r="Q276" s="44"/>
+      <c r="C276" s="46"/>
+      <c r="D276" s="46"/>
+      <c r="E276" s="46"/>
+      <c r="F276" s="46"/>
+      <c r="G276" s="46"/>
+      <c r="H276" s="46"/>
+      <c r="I276" s="46"/>
+      <c r="J276" s="46"/>
+      <c r="K276" s="46"/>
+      <c r="L276" s="46"/>
+      <c r="M276" s="46"/>
+      <c r="N276" s="46"/>
+      <c r="O276" s="46"/>
+      <c r="P276" s="46"/>
+      <c r="Q276" s="46"/>
       <c r="R276" s="20"/>
     </row>
     <row r="277" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
-      <c r="B277" s="45"/>
-      <c r="C277" s="45"/>
-      <c r="D277" s="45"/>
-      <c r="E277" s="45"/>
-      <c r="F277" s="45"/>
-      <c r="G277" s="45"/>
-      <c r="H277" s="45"/>
-      <c r="I277" s="45"/>
-      <c r="J277" s="45"/>
-      <c r="K277" s="45"/>
-      <c r="L277" s="45"/>
-      <c r="M277" s="44"/>
-      <c r="N277" s="44"/>
-      <c r="O277" s="44"/>
-      <c r="P277" s="44"/>
-      <c r="Q277" s="44"/>
+      <c r="B277" s="47"/>
+      <c r="C277" s="47"/>
+      <c r="D277" s="47"/>
+      <c r="E277" s="47"/>
+      <c r="F277" s="47"/>
+      <c r="G277" s="47"/>
+      <c r="H277" s="47"/>
+      <c r="I277" s="47"/>
+      <c r="J277" s="47"/>
+      <c r="K277" s="47"/>
+      <c r="L277" s="47"/>
+      <c r="M277" s="46"/>
+      <c r="N277" s="46"/>
+      <c r="O277" s="46"/>
+      <c r="P277" s="46"/>
+      <c r="Q277" s="46"/>
       <c r="R277" s="20"/>
     </row>
     <row r="278" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7862,32 +7995,32 @@
       <c r="D278" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E278" s="62" t="s">
+      <c r="E278" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F278" s="63"/>
-      <c r="G278" s="63"/>
-      <c r="H278" s="63"/>
-      <c r="I278" s="63"/>
-      <c r="J278" s="63"/>
-      <c r="K278" s="64"/>
+      <c r="F278" s="61"/>
+      <c r="G278" s="61"/>
+      <c r="H278" s="61"/>
+      <c r="I278" s="61"/>
+      <c r="J278" s="61"/>
+      <c r="K278" s="62"/>
       <c r="L278" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M278" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N278" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O278" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P278" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q278" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M278" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N278" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O278" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P278" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q278" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R278" s="4"/>
     </row>
@@ -8608,8 +8741,8 @@
       <c r="A316" s="3"/>
       <c r="F316" s="22"/>
       <c r="G316" s="22"/>
-      <c r="H316" s="46"/>
-      <c r="I316" s="47"/>
+      <c r="H316" s="43"/>
+      <c r="I316" s="44"/>
       <c r="J316" s="22"/>
       <c r="K316" s="1"/>
       <c r="L316" s="2"/>
@@ -8626,15 +8759,15 @@
       <c r="A317" s="3"/>
       <c r="F317" s="16"/>
       <c r="G317" s="16"/>
-      <c r="H317" s="48" t="s">
+      <c r="H317" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I317" s="49"/>
+      <c r="I317" s="42"/>
       <c r="J317" s="38">
         <v>44634</v>
       </c>
       <c r="K317" s="3"/>
-      <c r="R317" s="50" t="s">
+      <c r="R317" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8646,10 +8779,10 @@
       <c r="E318" s="26"/>
       <c r="F318" s="15"/>
       <c r="G318" s="15"/>
-      <c r="H318" s="52" t="s">
+      <c r="H318" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I318" s="53"/>
+      <c r="I318" s="51"/>
       <c r="J318" s="15" t="s">
         <v>20</v>
       </c>
@@ -8660,7 +8793,7 @@
       <c r="O318" s="14"/>
       <c r="P318" s="14"/>
       <c r="Q318" s="14"/>
-      <c r="R318" s="51"/>
+      <c r="R318" s="49"/>
     </row>
     <row r="319" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
@@ -8684,228 +8817,228 @@
     </row>
     <row r="320" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
-      <c r="C320" s="54" t="s">
+      <c r="C320" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D320" s="54"/>
-      <c r="E320" s="54"/>
-      <c r="F320" s="54"/>
-      <c r="G320" s="54"/>
-      <c r="H320" s="56" t="s">
+      <c r="D320" s="52"/>
+      <c r="E320" s="52"/>
+      <c r="F320" s="52"/>
+      <c r="G320" s="52"/>
+      <c r="H320" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I320" s="56"/>
-      <c r="J320" s="56"/>
-      <c r="K320" s="58" t="s">
+      <c r="I320" s="54"/>
+      <c r="J320" s="54"/>
+      <c r="K320" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L320" s="41" t="s">
+      <c r="L320" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M320" s="41"/>
-      <c r="N320" s="41"/>
-      <c r="O320" s="41"/>
-      <c r="P320" s="41"/>
-      <c r="Q320" s="41"/>
+      <c r="M320" s="63"/>
+      <c r="N320" s="63"/>
+      <c r="O320" s="63"/>
+      <c r="P320" s="63"/>
+      <c r="Q320" s="63"/>
       <c r="R320" s="39"/>
     </row>
     <row r="321" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
-      <c r="C321" s="54"/>
-      <c r="D321" s="54"/>
-      <c r="E321" s="54"/>
-      <c r="F321" s="54"/>
-      <c r="G321" s="54"/>
-      <c r="H321" s="56"/>
-      <c r="I321" s="56"/>
-      <c r="J321" s="56"/>
-      <c r="K321" s="58"/>
-      <c r="L321" s="41"/>
-      <c r="M321" s="41"/>
-      <c r="N321" s="41"/>
-      <c r="O321" s="41"/>
-      <c r="P321" s="41"/>
-      <c r="Q321" s="41"/>
+      <c r="C321" s="52"/>
+      <c r="D321" s="52"/>
+      <c r="E321" s="52"/>
+      <c r="F321" s="52"/>
+      <c r="G321" s="52"/>
+      <c r="H321" s="54"/>
+      <c r="I321" s="54"/>
+      <c r="J321" s="54"/>
+      <c r="K321" s="56"/>
+      <c r="L321" s="63"/>
+      <c r="M321" s="63"/>
+      <c r="N321" s="63"/>
+      <c r="O321" s="63"/>
+      <c r="P321" s="63"/>
+      <c r="Q321" s="63"/>
       <c r="R321" s="39"/>
     </row>
     <row r="322" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
-      <c r="C322" s="54"/>
-      <c r="D322" s="54"/>
-      <c r="E322" s="54"/>
-      <c r="F322" s="54"/>
-      <c r="G322" s="54"/>
-      <c r="H322" s="56"/>
-      <c r="I322" s="56"/>
-      <c r="J322" s="56"/>
-      <c r="K322" s="58" t="s">
+      <c r="C322" s="52"/>
+      <c r="D322" s="52"/>
+      <c r="E322" s="52"/>
+      <c r="F322" s="52"/>
+      <c r="G322" s="52"/>
+      <c r="H322" s="54"/>
+      <c r="I322" s="54"/>
+      <c r="J322" s="54"/>
+      <c r="K322" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L322" s="42" t="s">
+      <c r="L322" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M322" s="42"/>
-      <c r="N322" s="42"/>
-      <c r="O322" s="42"/>
-      <c r="P322" s="42"/>
-      <c r="Q322" s="42"/>
+      <c r="M322" s="64"/>
+      <c r="N322" s="64"/>
+      <c r="O322" s="64"/>
+      <c r="P322" s="64"/>
+      <c r="Q322" s="64"/>
       <c r="R322" s="40"/>
     </row>
     <row r="323" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
-      <c r="C323" s="54"/>
-      <c r="D323" s="54"/>
-      <c r="E323" s="54"/>
-      <c r="F323" s="54"/>
-      <c r="G323" s="54"/>
-      <c r="H323" s="56"/>
-      <c r="I323" s="56"/>
-      <c r="J323" s="56"/>
-      <c r="K323" s="58"/>
-      <c r="L323" s="42"/>
-      <c r="M323" s="42"/>
-      <c r="N323" s="42"/>
-      <c r="O323" s="42"/>
-      <c r="P323" s="42"/>
-      <c r="Q323" s="42"/>
+      <c r="C323" s="52"/>
+      <c r="D323" s="52"/>
+      <c r="E323" s="52"/>
+      <c r="F323" s="52"/>
+      <c r="G323" s="52"/>
+      <c r="H323" s="54"/>
+      <c r="I323" s="54"/>
+      <c r="J323" s="54"/>
+      <c r="K323" s="56"/>
+      <c r="L323" s="64"/>
+      <c r="M323" s="64"/>
+      <c r="N323" s="64"/>
+      <c r="O323" s="64"/>
+      <c r="P323" s="64"/>
+      <c r="Q323" s="64"/>
       <c r="R323" s="40"/>
     </row>
     <row r="324" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3"/>
-      <c r="C324" s="55"/>
-      <c r="D324" s="55"/>
-      <c r="E324" s="55"/>
-      <c r="F324" s="55"/>
-      <c r="G324" s="55"/>
-      <c r="H324" s="57"/>
-      <c r="I324" s="57"/>
-      <c r="J324" s="57"/>
-      <c r="L324" s="42"/>
-      <c r="M324" s="42"/>
-      <c r="N324" s="42"/>
-      <c r="O324" s="42"/>
-      <c r="P324" s="42"/>
-      <c r="Q324" s="42"/>
+      <c r="C324" s="53"/>
+      <c r="D324" s="53"/>
+      <c r="E324" s="53"/>
+      <c r="F324" s="53"/>
+      <c r="G324" s="53"/>
+      <c r="H324" s="55"/>
+      <c r="I324" s="55"/>
+      <c r="J324" s="55"/>
+      <c r="L324" s="64"/>
+      <c r="M324" s="64"/>
+      <c r="N324" s="64"/>
+      <c r="O324" s="64"/>
+      <c r="P324" s="64"/>
+      <c r="Q324" s="64"/>
       <c r="R324" s="40"/>
     </row>
     <row r="325" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
-      <c r="C325" s="59" t="s">
+      <c r="C325" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D325" s="59"/>
-      <c r="E325" s="59"/>
-      <c r="F325" s="59"/>
-      <c r="G325" s="59"/>
-      <c r="H325" s="59"/>
-      <c r="I325" s="59"/>
-      <c r="J325" s="59"/>
+      <c r="D325" s="57"/>
+      <c r="E325" s="57"/>
+      <c r="F325" s="57"/>
+      <c r="G325" s="57"/>
+      <c r="H325" s="57"/>
+      <c r="I325" s="57"/>
+      <c r="J325" s="57"/>
       <c r="K325" s="21"/>
-      <c r="L325" s="42"/>
-      <c r="M325" s="42"/>
-      <c r="N325" s="42"/>
-      <c r="O325" s="42"/>
-      <c r="P325" s="42"/>
-      <c r="Q325" s="42"/>
+      <c r="L325" s="64"/>
+      <c r="M325" s="64"/>
+      <c r="N325" s="64"/>
+      <c r="O325" s="64"/>
+      <c r="P325" s="64"/>
+      <c r="Q325" s="64"/>
       <c r="R325" s="40"/>
     </row>
     <row r="326" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
-      <c r="C326" s="60"/>
-      <c r="D326" s="60"/>
-      <c r="E326" s="60"/>
-      <c r="F326" s="60"/>
-      <c r="G326" s="60"/>
-      <c r="H326" s="60"/>
-      <c r="I326" s="60"/>
-      <c r="J326" s="60"/>
+      <c r="C326" s="58"/>
+      <c r="D326" s="58"/>
+      <c r="E326" s="58"/>
+      <c r="F326" s="58"/>
+      <c r="G326" s="58"/>
+      <c r="H326" s="58"/>
+      <c r="I326" s="58"/>
+      <c r="J326" s="58"/>
       <c r="K326" s="24"/>
-      <c r="L326" s="42"/>
-      <c r="M326" s="42"/>
-      <c r="N326" s="42"/>
-      <c r="O326" s="42"/>
-      <c r="P326" s="42"/>
-      <c r="Q326" s="42"/>
+      <c r="L326" s="64"/>
+      <c r="M326" s="64"/>
+      <c r="N326" s="64"/>
+      <c r="O326" s="64"/>
+      <c r="P326" s="64"/>
+      <c r="Q326" s="64"/>
       <c r="R326" s="40"/>
     </row>
     <row r="327" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
-      <c r="C327" s="60"/>
-      <c r="D327" s="60"/>
-      <c r="E327" s="60"/>
-      <c r="F327" s="60"/>
-      <c r="G327" s="60"/>
-      <c r="H327" s="60"/>
-      <c r="I327" s="60"/>
-      <c r="J327" s="60"/>
+      <c r="C327" s="58"/>
+      <c r="D327" s="58"/>
+      <c r="E327" s="58"/>
+      <c r="F327" s="58"/>
+      <c r="G327" s="58"/>
+      <c r="H327" s="58"/>
+      <c r="I327" s="58"/>
+      <c r="J327" s="58"/>
       <c r="K327" s="24"/>
-      <c r="L327" s="42"/>
-      <c r="M327" s="42"/>
-      <c r="N327" s="42"/>
-      <c r="O327" s="42"/>
-      <c r="P327" s="42"/>
-      <c r="Q327" s="42"/>
+      <c r="L327" s="64"/>
+      <c r="M327" s="64"/>
+      <c r="N327" s="64"/>
+      <c r="O327" s="64"/>
+      <c r="P327" s="64"/>
+      <c r="Q327" s="64"/>
       <c r="R327" s="40"/>
     </row>
     <row r="328" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
-      <c r="C328" s="61"/>
-      <c r="D328" s="61"/>
-      <c r="E328" s="61"/>
-      <c r="F328" s="61"/>
-      <c r="G328" s="61"/>
-      <c r="H328" s="61"/>
-      <c r="I328" s="61"/>
-      <c r="J328" s="61"/>
+      <c r="C328" s="59"/>
+      <c r="D328" s="59"/>
+      <c r="E328" s="59"/>
+      <c r="F328" s="59"/>
+      <c r="G328" s="59"/>
+      <c r="H328" s="59"/>
+      <c r="I328" s="59"/>
+      <c r="J328" s="59"/>
       <c r="K328" s="25"/>
-      <c r="L328" s="42"/>
-      <c r="M328" s="42"/>
-      <c r="N328" s="42"/>
-      <c r="O328" s="42"/>
-      <c r="P328" s="42"/>
-      <c r="Q328" s="42"/>
+      <c r="L328" s="64"/>
+      <c r="M328" s="64"/>
+      <c r="N328" s="64"/>
+      <c r="O328" s="64"/>
+      <c r="P328" s="64"/>
+      <c r="Q328" s="64"/>
       <c r="R328" s="40"/>
     </row>
     <row r="329" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
-      <c r="B329" s="43" t="s">
+      <c r="B329" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C329" s="44"/>
-      <c r="D329" s="44"/>
-      <c r="E329" s="44"/>
-      <c r="F329" s="44"/>
-      <c r="G329" s="44"/>
-      <c r="H329" s="44"/>
-      <c r="I329" s="44"/>
-      <c r="J329" s="44"/>
-      <c r="K329" s="44"/>
-      <c r="L329" s="44"/>
-      <c r="M329" s="44"/>
-      <c r="N329" s="44"/>
-      <c r="O329" s="44"/>
-      <c r="P329" s="44"/>
-      <c r="Q329" s="44"/>
+      <c r="C329" s="46"/>
+      <c r="D329" s="46"/>
+      <c r="E329" s="46"/>
+      <c r="F329" s="46"/>
+      <c r="G329" s="46"/>
+      <c r="H329" s="46"/>
+      <c r="I329" s="46"/>
+      <c r="J329" s="46"/>
+      <c r="K329" s="46"/>
+      <c r="L329" s="46"/>
+      <c r="M329" s="46"/>
+      <c r="N329" s="46"/>
+      <c r="O329" s="46"/>
+      <c r="P329" s="46"/>
+      <c r="Q329" s="46"/>
       <c r="R329" s="20"/>
     </row>
     <row r="330" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
-      <c r="B330" s="45"/>
-      <c r="C330" s="45"/>
-      <c r="D330" s="45"/>
-      <c r="E330" s="45"/>
-      <c r="F330" s="45"/>
-      <c r="G330" s="45"/>
-      <c r="H330" s="45"/>
-      <c r="I330" s="45"/>
-      <c r="J330" s="45"/>
-      <c r="K330" s="45"/>
-      <c r="L330" s="45"/>
-      <c r="M330" s="44"/>
-      <c r="N330" s="44"/>
-      <c r="O330" s="44"/>
-      <c r="P330" s="44"/>
-      <c r="Q330" s="44"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
+      <c r="M330" s="46"/>
+      <c r="N330" s="46"/>
+      <c r="O330" s="46"/>
+      <c r="P330" s="46"/>
+      <c r="Q330" s="46"/>
       <c r="R330" s="20"/>
     </row>
     <row r="331" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8919,32 +9052,32 @@
       <c r="D331" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E331" s="62" t="s">
+      <c r="E331" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F331" s="63"/>
-      <c r="G331" s="63"/>
-      <c r="H331" s="63"/>
-      <c r="I331" s="63"/>
-      <c r="J331" s="63"/>
-      <c r="K331" s="64"/>
+      <c r="F331" s="61"/>
+      <c r="G331" s="61"/>
+      <c r="H331" s="61"/>
+      <c r="I331" s="61"/>
+      <c r="J331" s="61"/>
+      <c r="K331" s="62"/>
       <c r="L331" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M331" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N331" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O331" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P331" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q331" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M331" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N331" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O331" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P331" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q331" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R331" s="4"/>
     </row>
@@ -9665,8 +9798,8 @@
       <c r="A369" s="3"/>
       <c r="F369" s="22"/>
       <c r="G369" s="22"/>
-      <c r="H369" s="46"/>
-      <c r="I369" s="47"/>
+      <c r="H369" s="43"/>
+      <c r="I369" s="44"/>
       <c r="J369" s="22"/>
       <c r="K369" s="1"/>
       <c r="L369" s="2"/>
@@ -9683,10 +9816,10 @@
       <c r="A370" s="3"/>
       <c r="F370" s="16"/>
       <c r="G370" s="16"/>
-      <c r="H370" s="48" t="s">
+      <c r="H370" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I370" s="49"/>
+      <c r="I370" s="42"/>
       <c r="J370" s="38">
         <v>44634</v>
       </c>
@@ -9703,10 +9836,10 @@
       <c r="E371" s="26"/>
       <c r="F371" s="15"/>
       <c r="G371" s="15"/>
-      <c r="H371" s="52" t="s">
+      <c r="H371" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I371" s="53"/>
+      <c r="I371" s="51"/>
       <c r="J371" s="15" t="s">
         <v>20</v>
       </c>
@@ -9741,228 +9874,228 @@
     </row>
     <row r="373" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
-      <c r="C373" s="54" t="s">
+      <c r="C373" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D373" s="54"/>
-      <c r="E373" s="54"/>
-      <c r="F373" s="54"/>
-      <c r="G373" s="54"/>
-      <c r="H373" s="56" t="s">
+      <c r="D373" s="52"/>
+      <c r="E373" s="52"/>
+      <c r="F373" s="52"/>
+      <c r="G373" s="52"/>
+      <c r="H373" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I373" s="56"/>
-      <c r="J373" s="56"/>
-      <c r="K373" s="58" t="s">
+      <c r="I373" s="54"/>
+      <c r="J373" s="54"/>
+      <c r="K373" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L373" s="41" t="s">
+      <c r="L373" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M373" s="41"/>
-      <c r="N373" s="41"/>
-      <c r="O373" s="41"/>
-      <c r="P373" s="41"/>
-      <c r="Q373" s="41"/>
+      <c r="M373" s="63"/>
+      <c r="N373" s="63"/>
+      <c r="O373" s="63"/>
+      <c r="P373" s="63"/>
+      <c r="Q373" s="63"/>
       <c r="R373" s="39"/>
     </row>
     <row r="374" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
-      <c r="C374" s="54"/>
-      <c r="D374" s="54"/>
-      <c r="E374" s="54"/>
-      <c r="F374" s="54"/>
-      <c r="G374" s="54"/>
-      <c r="H374" s="56"/>
-      <c r="I374" s="56"/>
-      <c r="J374" s="56"/>
-      <c r="K374" s="58"/>
-      <c r="L374" s="41"/>
-      <c r="M374" s="41"/>
-      <c r="N374" s="41"/>
-      <c r="O374" s="41"/>
-      <c r="P374" s="41"/>
-      <c r="Q374" s="41"/>
+      <c r="C374" s="52"/>
+      <c r="D374" s="52"/>
+      <c r="E374" s="52"/>
+      <c r="F374" s="52"/>
+      <c r="G374" s="52"/>
+      <c r="H374" s="54"/>
+      <c r="I374" s="54"/>
+      <c r="J374" s="54"/>
+      <c r="K374" s="56"/>
+      <c r="L374" s="63"/>
+      <c r="M374" s="63"/>
+      <c r="N374" s="63"/>
+      <c r="O374" s="63"/>
+      <c r="P374" s="63"/>
+      <c r="Q374" s="63"/>
       <c r="R374" s="39"/>
     </row>
     <row r="375" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
-      <c r="C375" s="54"/>
-      <c r="D375" s="54"/>
-      <c r="E375" s="54"/>
-      <c r="F375" s="54"/>
-      <c r="G375" s="54"/>
-      <c r="H375" s="56"/>
-      <c r="I375" s="56"/>
-      <c r="J375" s="56"/>
-      <c r="K375" s="58" t="s">
+      <c r="C375" s="52"/>
+      <c r="D375" s="52"/>
+      <c r="E375" s="52"/>
+      <c r="F375" s="52"/>
+      <c r="G375" s="52"/>
+      <c r="H375" s="54"/>
+      <c r="I375" s="54"/>
+      <c r="J375" s="54"/>
+      <c r="K375" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L375" s="42" t="s">
+      <c r="L375" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M375" s="42"/>
-      <c r="N375" s="42"/>
-      <c r="O375" s="42"/>
-      <c r="P375" s="42"/>
-      <c r="Q375" s="42"/>
+      <c r="M375" s="64"/>
+      <c r="N375" s="64"/>
+      <c r="O375" s="64"/>
+      <c r="P375" s="64"/>
+      <c r="Q375" s="64"/>
       <c r="R375" s="40"/>
     </row>
     <row r="376" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
-      <c r="C376" s="54"/>
-      <c r="D376" s="54"/>
-      <c r="E376" s="54"/>
-      <c r="F376" s="54"/>
-      <c r="G376" s="54"/>
-      <c r="H376" s="56"/>
-      <c r="I376" s="56"/>
-      <c r="J376" s="56"/>
-      <c r="K376" s="58"/>
-      <c r="L376" s="42"/>
-      <c r="M376" s="42"/>
-      <c r="N376" s="42"/>
-      <c r="O376" s="42"/>
-      <c r="P376" s="42"/>
-      <c r="Q376" s="42"/>
+      <c r="C376" s="52"/>
+      <c r="D376" s="52"/>
+      <c r="E376" s="52"/>
+      <c r="F376" s="52"/>
+      <c r="G376" s="52"/>
+      <c r="H376" s="54"/>
+      <c r="I376" s="54"/>
+      <c r="J376" s="54"/>
+      <c r="K376" s="56"/>
+      <c r="L376" s="64"/>
+      <c r="M376" s="64"/>
+      <c r="N376" s="64"/>
+      <c r="O376" s="64"/>
+      <c r="P376" s="64"/>
+      <c r="Q376" s="64"/>
       <c r="R376" s="40"/>
     </row>
     <row r="377" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3"/>
-      <c r="C377" s="55"/>
-      <c r="D377" s="55"/>
-      <c r="E377" s="55"/>
-      <c r="F377" s="55"/>
-      <c r="G377" s="55"/>
-      <c r="H377" s="57"/>
-      <c r="I377" s="57"/>
-      <c r="J377" s="57"/>
-      <c r="L377" s="42"/>
-      <c r="M377" s="42"/>
-      <c r="N377" s="42"/>
-      <c r="O377" s="42"/>
-      <c r="P377" s="42"/>
-      <c r="Q377" s="42"/>
+      <c r="C377" s="53"/>
+      <c r="D377" s="53"/>
+      <c r="E377" s="53"/>
+      <c r="F377" s="53"/>
+      <c r="G377" s="53"/>
+      <c r="H377" s="55"/>
+      <c r="I377" s="55"/>
+      <c r="J377" s="55"/>
+      <c r="L377" s="64"/>
+      <c r="M377" s="64"/>
+      <c r="N377" s="64"/>
+      <c r="O377" s="64"/>
+      <c r="P377" s="64"/>
+      <c r="Q377" s="64"/>
       <c r="R377" s="40"/>
     </row>
     <row r="378" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
-      <c r="C378" s="59" t="s">
+      <c r="C378" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D378" s="59"/>
-      <c r="E378" s="59"/>
-      <c r="F378" s="59"/>
-      <c r="G378" s="59"/>
-      <c r="H378" s="59"/>
-      <c r="I378" s="59"/>
-      <c r="J378" s="59"/>
+      <c r="D378" s="57"/>
+      <c r="E378" s="57"/>
+      <c r="F378" s="57"/>
+      <c r="G378" s="57"/>
+      <c r="H378" s="57"/>
+      <c r="I378" s="57"/>
+      <c r="J378" s="57"/>
       <c r="K378" s="21"/>
-      <c r="L378" s="42"/>
-      <c r="M378" s="42"/>
-      <c r="N378" s="42"/>
-      <c r="O378" s="42"/>
-      <c r="P378" s="42"/>
-      <c r="Q378" s="42"/>
+      <c r="L378" s="64"/>
+      <c r="M378" s="64"/>
+      <c r="N378" s="64"/>
+      <c r="O378" s="64"/>
+      <c r="P378" s="64"/>
+      <c r="Q378" s="64"/>
       <c r="R378" s="40"/>
     </row>
     <row r="379" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
-      <c r="C379" s="60"/>
-      <c r="D379" s="60"/>
-      <c r="E379" s="60"/>
-      <c r="F379" s="60"/>
-      <c r="G379" s="60"/>
-      <c r="H379" s="60"/>
-      <c r="I379" s="60"/>
-      <c r="J379" s="60"/>
+      <c r="C379" s="58"/>
+      <c r="D379" s="58"/>
+      <c r="E379" s="58"/>
+      <c r="F379" s="58"/>
+      <c r="G379" s="58"/>
+      <c r="H379" s="58"/>
+      <c r="I379" s="58"/>
+      <c r="J379" s="58"/>
       <c r="K379" s="24"/>
-      <c r="L379" s="42"/>
-      <c r="M379" s="42"/>
-      <c r="N379" s="42"/>
-      <c r="O379" s="42"/>
-      <c r="P379" s="42"/>
-      <c r="Q379" s="42"/>
+      <c r="L379" s="64"/>
+      <c r="M379" s="64"/>
+      <c r="N379" s="64"/>
+      <c r="O379" s="64"/>
+      <c r="P379" s="64"/>
+      <c r="Q379" s="64"/>
       <c r="R379" s="40"/>
     </row>
     <row r="380" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
-      <c r="C380" s="60"/>
-      <c r="D380" s="60"/>
-      <c r="E380" s="60"/>
-      <c r="F380" s="60"/>
-      <c r="G380" s="60"/>
-      <c r="H380" s="60"/>
-      <c r="I380" s="60"/>
-      <c r="J380" s="60"/>
+      <c r="C380" s="58"/>
+      <c r="D380" s="58"/>
+      <c r="E380" s="58"/>
+      <c r="F380" s="58"/>
+      <c r="G380" s="58"/>
+      <c r="H380" s="58"/>
+      <c r="I380" s="58"/>
+      <c r="J380" s="58"/>
       <c r="K380" s="24"/>
-      <c r="L380" s="42"/>
-      <c r="M380" s="42"/>
-      <c r="N380" s="42"/>
-      <c r="O380" s="42"/>
-      <c r="P380" s="42"/>
-      <c r="Q380" s="42"/>
+      <c r="L380" s="64"/>
+      <c r="M380" s="64"/>
+      <c r="N380" s="64"/>
+      <c r="O380" s="64"/>
+      <c r="P380" s="64"/>
+      <c r="Q380" s="64"/>
       <c r="R380" s="40"/>
     </row>
     <row r="381" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
-      <c r="C381" s="61"/>
-      <c r="D381" s="61"/>
-      <c r="E381" s="61"/>
-      <c r="F381" s="61"/>
-      <c r="G381" s="61"/>
-      <c r="H381" s="61"/>
-      <c r="I381" s="61"/>
-      <c r="J381" s="61"/>
+      <c r="C381" s="59"/>
+      <c r="D381" s="59"/>
+      <c r="E381" s="59"/>
+      <c r="F381" s="59"/>
+      <c r="G381" s="59"/>
+      <c r="H381" s="59"/>
+      <c r="I381" s="59"/>
+      <c r="J381" s="59"/>
       <c r="K381" s="25"/>
-      <c r="L381" s="42"/>
-      <c r="M381" s="42"/>
-      <c r="N381" s="42"/>
-      <c r="O381" s="42"/>
-      <c r="P381" s="42"/>
-      <c r="Q381" s="42"/>
+      <c r="L381" s="64"/>
+      <c r="M381" s="64"/>
+      <c r="N381" s="64"/>
+      <c r="O381" s="64"/>
+      <c r="P381" s="64"/>
+      <c r="Q381" s="64"/>
       <c r="R381" s="40"/>
     </row>
     <row r="382" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
-      <c r="B382" s="43" t="s">
+      <c r="B382" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C382" s="44"/>
-      <c r="D382" s="44"/>
-      <c r="E382" s="44"/>
-      <c r="F382" s="44"/>
-      <c r="G382" s="44"/>
-      <c r="H382" s="44"/>
-      <c r="I382" s="44"/>
-      <c r="J382" s="44"/>
-      <c r="K382" s="44"/>
-      <c r="L382" s="44"/>
-      <c r="M382" s="44"/>
-      <c r="N382" s="44"/>
-      <c r="O382" s="44"/>
-      <c r="P382" s="44"/>
-      <c r="Q382" s="44"/>
+      <c r="C382" s="46"/>
+      <c r="D382" s="46"/>
+      <c r="E382" s="46"/>
+      <c r="F382" s="46"/>
+      <c r="G382" s="46"/>
+      <c r="H382" s="46"/>
+      <c r="I382" s="46"/>
+      <c r="J382" s="46"/>
+      <c r="K382" s="46"/>
+      <c r="L382" s="46"/>
+      <c r="M382" s="46"/>
+      <c r="N382" s="46"/>
+      <c r="O382" s="46"/>
+      <c r="P382" s="46"/>
+      <c r="Q382" s="46"/>
       <c r="R382" s="20"/>
     </row>
     <row r="383" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
-      <c r="B383" s="45"/>
-      <c r="C383" s="45"/>
-      <c r="D383" s="45"/>
-      <c r="E383" s="45"/>
-      <c r="F383" s="45"/>
-      <c r="G383" s="45"/>
-      <c r="H383" s="45"/>
-      <c r="I383" s="45"/>
-      <c r="J383" s="45"/>
-      <c r="K383" s="45"/>
-      <c r="L383" s="45"/>
-      <c r="M383" s="44"/>
-      <c r="N383" s="44"/>
-      <c r="O383" s="44"/>
-      <c r="P383" s="44"/>
-      <c r="Q383" s="44"/>
+      <c r="B383" s="47"/>
+      <c r="C383" s="47"/>
+      <c r="D383" s="47"/>
+      <c r="E383" s="47"/>
+      <c r="F383" s="47"/>
+      <c r="G383" s="47"/>
+      <c r="H383" s="47"/>
+      <c r="I383" s="47"/>
+      <c r="J383" s="47"/>
+      <c r="K383" s="47"/>
+      <c r="L383" s="47"/>
+      <c r="M383" s="46"/>
+      <c r="N383" s="46"/>
+      <c r="O383" s="46"/>
+      <c r="P383" s="46"/>
+      <c r="Q383" s="46"/>
       <c r="R383" s="20"/>
     </row>
     <row r="384" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9976,32 +10109,32 @@
       <c r="D384" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E384" s="62" t="s">
+      <c r="E384" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F384" s="63"/>
-      <c r="G384" s="63"/>
-      <c r="H384" s="63"/>
-      <c r="I384" s="63"/>
-      <c r="J384" s="63"/>
-      <c r="K384" s="64"/>
+      <c r="F384" s="61"/>
+      <c r="G384" s="61"/>
+      <c r="H384" s="61"/>
+      <c r="I384" s="61"/>
+      <c r="J384" s="61"/>
+      <c r="K384" s="62"/>
       <c r="L384" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M384" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N384" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O384" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P384" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q384" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M384" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N384" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O384" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P384" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q384" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R384" s="4"/>
     </row>
@@ -10722,8 +10855,8 @@
       <c r="A422" s="3"/>
       <c r="F422" s="22"/>
       <c r="G422" s="22"/>
-      <c r="H422" s="46"/>
-      <c r="I422" s="47"/>
+      <c r="H422" s="43"/>
+      <c r="I422" s="44"/>
       <c r="J422" s="22"/>
       <c r="K422" s="1"/>
       <c r="L422" s="2"/>
@@ -10740,10 +10873,10 @@
       <c r="A423" s="3"/>
       <c r="F423" s="16"/>
       <c r="G423" s="16"/>
-      <c r="H423" s="48" t="s">
+      <c r="H423" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I423" s="49"/>
+      <c r="I423" s="42"/>
       <c r="J423" s="38">
         <v>44634</v>
       </c>
@@ -10760,10 +10893,10 @@
       <c r="E424" s="26"/>
       <c r="F424" s="15"/>
       <c r="G424" s="15"/>
-      <c r="H424" s="52" t="s">
+      <c r="H424" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I424" s="53"/>
+      <c r="I424" s="51"/>
       <c r="J424" s="15" t="s">
         <v>20</v>
       </c>
@@ -10798,228 +10931,228 @@
     </row>
     <row r="426" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
-      <c r="C426" s="54" t="s">
+      <c r="C426" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D426" s="54"/>
-      <c r="E426" s="54"/>
-      <c r="F426" s="54"/>
-      <c r="G426" s="54"/>
-      <c r="H426" s="56" t="s">
+      <c r="D426" s="52"/>
+      <c r="E426" s="52"/>
+      <c r="F426" s="52"/>
+      <c r="G426" s="52"/>
+      <c r="H426" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I426" s="56"/>
-      <c r="J426" s="56"/>
-      <c r="K426" s="58" t="s">
+      <c r="I426" s="54"/>
+      <c r="J426" s="54"/>
+      <c r="K426" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L426" s="41" t="s">
+      <c r="L426" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M426" s="41"/>
-      <c r="N426" s="41"/>
-      <c r="O426" s="41"/>
-      <c r="P426" s="41"/>
-      <c r="Q426" s="41"/>
+      <c r="M426" s="63"/>
+      <c r="N426" s="63"/>
+      <c r="O426" s="63"/>
+      <c r="P426" s="63"/>
+      <c r="Q426" s="63"/>
       <c r="R426" s="39"/>
     </row>
     <row r="427" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
-      <c r="C427" s="54"/>
-      <c r="D427" s="54"/>
-      <c r="E427" s="54"/>
-      <c r="F427" s="54"/>
-      <c r="G427" s="54"/>
-      <c r="H427" s="56"/>
-      <c r="I427" s="56"/>
-      <c r="J427" s="56"/>
-      <c r="K427" s="58"/>
-      <c r="L427" s="41"/>
-      <c r="M427" s="41"/>
-      <c r="N427" s="41"/>
-      <c r="O427" s="41"/>
-      <c r="P427" s="41"/>
-      <c r="Q427" s="41"/>
+      <c r="C427" s="52"/>
+      <c r="D427" s="52"/>
+      <c r="E427" s="52"/>
+      <c r="F427" s="52"/>
+      <c r="G427" s="52"/>
+      <c r="H427" s="54"/>
+      <c r="I427" s="54"/>
+      <c r="J427" s="54"/>
+      <c r="K427" s="56"/>
+      <c r="L427" s="63"/>
+      <c r="M427" s="63"/>
+      <c r="N427" s="63"/>
+      <c r="O427" s="63"/>
+      <c r="P427" s="63"/>
+      <c r="Q427" s="63"/>
       <c r="R427" s="39"/>
     </row>
     <row r="428" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
-      <c r="C428" s="54"/>
-      <c r="D428" s="54"/>
-      <c r="E428" s="54"/>
-      <c r="F428" s="54"/>
-      <c r="G428" s="54"/>
-      <c r="H428" s="56"/>
-      <c r="I428" s="56"/>
-      <c r="J428" s="56"/>
-      <c r="K428" s="58" t="s">
+      <c r="C428" s="52"/>
+      <c r="D428" s="52"/>
+      <c r="E428" s="52"/>
+      <c r="F428" s="52"/>
+      <c r="G428" s="52"/>
+      <c r="H428" s="54"/>
+      <c r="I428" s="54"/>
+      <c r="J428" s="54"/>
+      <c r="K428" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L428" s="42" t="s">
+      <c r="L428" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M428" s="42"/>
-      <c r="N428" s="42"/>
-      <c r="O428" s="42"/>
-      <c r="P428" s="42"/>
-      <c r="Q428" s="42"/>
+      <c r="M428" s="64"/>
+      <c r="N428" s="64"/>
+      <c r="O428" s="64"/>
+      <c r="P428" s="64"/>
+      <c r="Q428" s="64"/>
       <c r="R428" s="40"/>
     </row>
     <row r="429" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
-      <c r="C429" s="54"/>
-      <c r="D429" s="54"/>
-      <c r="E429" s="54"/>
-      <c r="F429" s="54"/>
-      <c r="G429" s="54"/>
-      <c r="H429" s="56"/>
-      <c r="I429" s="56"/>
-      <c r="J429" s="56"/>
-      <c r="K429" s="58"/>
-      <c r="L429" s="42"/>
-      <c r="M429" s="42"/>
-      <c r="N429" s="42"/>
-      <c r="O429" s="42"/>
-      <c r="P429" s="42"/>
-      <c r="Q429" s="42"/>
+      <c r="C429" s="52"/>
+      <c r="D429" s="52"/>
+      <c r="E429" s="52"/>
+      <c r="F429" s="52"/>
+      <c r="G429" s="52"/>
+      <c r="H429" s="54"/>
+      <c r="I429" s="54"/>
+      <c r="J429" s="54"/>
+      <c r="K429" s="56"/>
+      <c r="L429" s="64"/>
+      <c r="M429" s="64"/>
+      <c r="N429" s="64"/>
+      <c r="O429" s="64"/>
+      <c r="P429" s="64"/>
+      <c r="Q429" s="64"/>
       <c r="R429" s="40"/>
     </row>
     <row r="430" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3"/>
-      <c r="C430" s="55"/>
-      <c r="D430" s="55"/>
-      <c r="E430" s="55"/>
-      <c r="F430" s="55"/>
-      <c r="G430" s="55"/>
-      <c r="H430" s="57"/>
-      <c r="I430" s="57"/>
-      <c r="J430" s="57"/>
-      <c r="L430" s="42"/>
-      <c r="M430" s="42"/>
-      <c r="N430" s="42"/>
-      <c r="O430" s="42"/>
-      <c r="P430" s="42"/>
-      <c r="Q430" s="42"/>
+      <c r="C430" s="53"/>
+      <c r="D430" s="53"/>
+      <c r="E430" s="53"/>
+      <c r="F430" s="53"/>
+      <c r="G430" s="53"/>
+      <c r="H430" s="55"/>
+      <c r="I430" s="55"/>
+      <c r="J430" s="55"/>
+      <c r="L430" s="64"/>
+      <c r="M430" s="64"/>
+      <c r="N430" s="64"/>
+      <c r="O430" s="64"/>
+      <c r="P430" s="64"/>
+      <c r="Q430" s="64"/>
       <c r="R430" s="40"/>
     </row>
     <row r="431" spans="1:18" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
-      <c r="C431" s="59" t="s">
+      <c r="C431" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D431" s="59"/>
-      <c r="E431" s="59"/>
-      <c r="F431" s="59"/>
-      <c r="G431" s="59"/>
-      <c r="H431" s="59"/>
-      <c r="I431" s="59"/>
-      <c r="J431" s="59"/>
+      <c r="D431" s="57"/>
+      <c r="E431" s="57"/>
+      <c r="F431" s="57"/>
+      <c r="G431" s="57"/>
+      <c r="H431" s="57"/>
+      <c r="I431" s="57"/>
+      <c r="J431" s="57"/>
       <c r="K431" s="21"/>
-      <c r="L431" s="42"/>
-      <c r="M431" s="42"/>
-      <c r="N431" s="42"/>
-      <c r="O431" s="42"/>
-      <c r="P431" s="42"/>
-      <c r="Q431" s="42"/>
+      <c r="L431" s="64"/>
+      <c r="M431" s="64"/>
+      <c r="N431" s="64"/>
+      <c r="O431" s="64"/>
+      <c r="P431" s="64"/>
+      <c r="Q431" s="64"/>
       <c r="R431" s="40"/>
     </row>
     <row r="432" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
-      <c r="C432" s="60"/>
-      <c r="D432" s="60"/>
-      <c r="E432" s="60"/>
-      <c r="F432" s="60"/>
-      <c r="G432" s="60"/>
-      <c r="H432" s="60"/>
-      <c r="I432" s="60"/>
-      <c r="J432" s="60"/>
+      <c r="C432" s="58"/>
+      <c r="D432" s="58"/>
+      <c r="E432" s="58"/>
+      <c r="F432" s="58"/>
+      <c r="G432" s="58"/>
+      <c r="H432" s="58"/>
+      <c r="I432" s="58"/>
+      <c r="J432" s="58"/>
       <c r="K432" s="24"/>
-      <c r="L432" s="42"/>
-      <c r="M432" s="42"/>
-      <c r="N432" s="42"/>
-      <c r="O432" s="42"/>
-      <c r="P432" s="42"/>
-      <c r="Q432" s="42"/>
+      <c r="L432" s="64"/>
+      <c r="M432" s="64"/>
+      <c r="N432" s="64"/>
+      <c r="O432" s="64"/>
+      <c r="P432" s="64"/>
+      <c r="Q432" s="64"/>
       <c r="R432" s="40"/>
     </row>
     <row r="433" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
-      <c r="C433" s="60"/>
-      <c r="D433" s="60"/>
-      <c r="E433" s="60"/>
-      <c r="F433" s="60"/>
-      <c r="G433" s="60"/>
-      <c r="H433" s="60"/>
-      <c r="I433" s="60"/>
-      <c r="J433" s="60"/>
+      <c r="C433" s="58"/>
+      <c r="D433" s="58"/>
+      <c r="E433" s="58"/>
+      <c r="F433" s="58"/>
+      <c r="G433" s="58"/>
+      <c r="H433" s="58"/>
+      <c r="I433" s="58"/>
+      <c r="J433" s="58"/>
       <c r="K433" s="24"/>
-      <c r="L433" s="42"/>
-      <c r="M433" s="42"/>
-      <c r="N433" s="42"/>
-      <c r="O433" s="42"/>
-      <c r="P433" s="42"/>
-      <c r="Q433" s="42"/>
+      <c r="L433" s="64"/>
+      <c r="M433" s="64"/>
+      <c r="N433" s="64"/>
+      <c r="O433" s="64"/>
+      <c r="P433" s="64"/>
+      <c r="Q433" s="64"/>
       <c r="R433" s="40"/>
     </row>
     <row r="434" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
-      <c r="C434" s="61"/>
-      <c r="D434" s="61"/>
-      <c r="E434" s="61"/>
-      <c r="F434" s="61"/>
-      <c r="G434" s="61"/>
-      <c r="H434" s="61"/>
-      <c r="I434" s="61"/>
-      <c r="J434" s="61"/>
+      <c r="C434" s="59"/>
+      <c r="D434" s="59"/>
+      <c r="E434" s="59"/>
+      <c r="F434" s="59"/>
+      <c r="G434" s="59"/>
+      <c r="H434" s="59"/>
+      <c r="I434" s="59"/>
+      <c r="J434" s="59"/>
       <c r="K434" s="25"/>
-      <c r="L434" s="42"/>
-      <c r="M434" s="42"/>
-      <c r="N434" s="42"/>
-      <c r="O434" s="42"/>
-      <c r="P434" s="42"/>
-      <c r="Q434" s="42"/>
+      <c r="L434" s="64"/>
+      <c r="M434" s="64"/>
+      <c r="N434" s="64"/>
+      <c r="O434" s="64"/>
+      <c r="P434" s="64"/>
+      <c r="Q434" s="64"/>
       <c r="R434" s="40"/>
     </row>
     <row r="435" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
-      <c r="B435" s="43" t="s">
+      <c r="B435" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C435" s="44"/>
-      <c r="D435" s="44"/>
-      <c r="E435" s="44"/>
-      <c r="F435" s="44"/>
-      <c r="G435" s="44"/>
-      <c r="H435" s="44"/>
-      <c r="I435" s="44"/>
-      <c r="J435" s="44"/>
-      <c r="K435" s="44"/>
-      <c r="L435" s="44"/>
-      <c r="M435" s="44"/>
-      <c r="N435" s="44"/>
-      <c r="O435" s="44"/>
-      <c r="P435" s="44"/>
-      <c r="Q435" s="44"/>
+      <c r="C435" s="46"/>
+      <c r="D435" s="46"/>
+      <c r="E435" s="46"/>
+      <c r="F435" s="46"/>
+      <c r="G435" s="46"/>
+      <c r="H435" s="46"/>
+      <c r="I435" s="46"/>
+      <c r="J435" s="46"/>
+      <c r="K435" s="46"/>
+      <c r="L435" s="46"/>
+      <c r="M435" s="46"/>
+      <c r="N435" s="46"/>
+      <c r="O435" s="46"/>
+      <c r="P435" s="46"/>
+      <c r="Q435" s="46"/>
       <c r="R435" s="20"/>
     </row>
     <row r="436" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
-      <c r="B436" s="45"/>
-      <c r="C436" s="45"/>
-      <c r="D436" s="45"/>
-      <c r="E436" s="45"/>
-      <c r="F436" s="45"/>
-      <c r="G436" s="45"/>
-      <c r="H436" s="45"/>
-      <c r="I436" s="45"/>
-      <c r="J436" s="45"/>
-      <c r="K436" s="45"/>
-      <c r="L436" s="45"/>
-      <c r="M436" s="44"/>
-      <c r="N436" s="44"/>
-      <c r="O436" s="44"/>
-      <c r="P436" s="44"/>
-      <c r="Q436" s="44"/>
+      <c r="B436" s="47"/>
+      <c r="C436" s="47"/>
+      <c r="D436" s="47"/>
+      <c r="E436" s="47"/>
+      <c r="F436" s="47"/>
+      <c r="G436" s="47"/>
+      <c r="H436" s="47"/>
+      <c r="I436" s="47"/>
+      <c r="J436" s="47"/>
+      <c r="K436" s="47"/>
+      <c r="L436" s="47"/>
+      <c r="M436" s="46"/>
+      <c r="N436" s="46"/>
+      <c r="O436" s="46"/>
+      <c r="P436" s="46"/>
+      <c r="Q436" s="46"/>
       <c r="R436" s="20"/>
     </row>
     <row r="437" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11033,32 +11166,32 @@
       <c r="D437" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E437" s="62" t="s">
+      <c r="E437" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F437" s="63"/>
-      <c r="G437" s="63"/>
-      <c r="H437" s="63"/>
-      <c r="I437" s="63"/>
-      <c r="J437" s="63"/>
-      <c r="K437" s="64"/>
+      <c r="F437" s="61"/>
+      <c r="G437" s="61"/>
+      <c r="H437" s="61"/>
+      <c r="I437" s="61"/>
+      <c r="J437" s="61"/>
+      <c r="K437" s="62"/>
       <c r="L437" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M437" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N437" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O437" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P437" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q437" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M437" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N437" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O437" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P437" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q437" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R437" s="4"/>
     </row>
@@ -11779,8 +11912,8 @@
       <c r="A475" s="3"/>
       <c r="F475" s="22"/>
       <c r="G475" s="22"/>
-      <c r="H475" s="46"/>
-      <c r="I475" s="47"/>
+      <c r="H475" s="43"/>
+      <c r="I475" s="44"/>
       <c r="J475" s="22"/>
       <c r="K475" s="1"/>
       <c r="L475" s="2"/>
@@ -11797,15 +11930,15 @@
       <c r="A476" s="3"/>
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
-      <c r="H476" s="48" t="s">
+      <c r="H476" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I476" s="49"/>
+      <c r="I476" s="42"/>
       <c r="J476" s="38">
         <v>44634</v>
       </c>
       <c r="K476" s="3"/>
-      <c r="R476" s="50" t="s">
+      <c r="R476" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11817,10 +11950,10 @@
       <c r="E477" s="26"/>
       <c r="F477" s="15"/>
       <c r="G477" s="15"/>
-      <c r="H477" s="52" t="s">
+      <c r="H477" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I477" s="53"/>
+      <c r="I477" s="51"/>
       <c r="J477" s="15" t="s">
         <v>20</v>
       </c>
@@ -11831,7 +11964,7 @@
       <c r="O477" s="14"/>
       <c r="P477" s="14"/>
       <c r="Q477" s="14"/>
-      <c r="R477" s="51"/>
+      <c r="R477" s="49"/>
     </row>
     <row r="478" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
@@ -11855,228 +11988,228 @@
     </row>
     <row r="479" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
-      <c r="C479" s="54" t="s">
+      <c r="C479" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D479" s="54"/>
-      <c r="E479" s="54"/>
-      <c r="F479" s="54"/>
-      <c r="G479" s="54"/>
-      <c r="H479" s="56" t="s">
+      <c r="D479" s="52"/>
+      <c r="E479" s="52"/>
+      <c r="F479" s="52"/>
+      <c r="G479" s="52"/>
+      <c r="H479" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I479" s="56"/>
-      <c r="J479" s="56"/>
-      <c r="K479" s="58" t="s">
+      <c r="I479" s="54"/>
+      <c r="J479" s="54"/>
+      <c r="K479" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L479" s="41" t="s">
+      <c r="L479" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M479" s="41"/>
-      <c r="N479" s="41"/>
-      <c r="O479" s="41"/>
-      <c r="P479" s="41"/>
-      <c r="Q479" s="41"/>
+      <c r="M479" s="63"/>
+      <c r="N479" s="63"/>
+      <c r="O479" s="63"/>
+      <c r="P479" s="63"/>
+      <c r="Q479" s="63"/>
       <c r="R479" s="39"/>
     </row>
     <row r="480" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
-      <c r="C480" s="54"/>
-      <c r="D480" s="54"/>
-      <c r="E480" s="54"/>
-      <c r="F480" s="54"/>
-      <c r="G480" s="54"/>
-      <c r="H480" s="56"/>
-      <c r="I480" s="56"/>
-      <c r="J480" s="56"/>
-      <c r="K480" s="58"/>
-      <c r="L480" s="41"/>
-      <c r="M480" s="41"/>
-      <c r="N480" s="41"/>
-      <c r="O480" s="41"/>
-      <c r="P480" s="41"/>
-      <c r="Q480" s="41"/>
+      <c r="C480" s="52"/>
+      <c r="D480" s="52"/>
+      <c r="E480" s="52"/>
+      <c r="F480" s="52"/>
+      <c r="G480" s="52"/>
+      <c r="H480" s="54"/>
+      <c r="I480" s="54"/>
+      <c r="J480" s="54"/>
+      <c r="K480" s="56"/>
+      <c r="L480" s="63"/>
+      <c r="M480" s="63"/>
+      <c r="N480" s="63"/>
+      <c r="O480" s="63"/>
+      <c r="P480" s="63"/>
+      <c r="Q480" s="63"/>
       <c r="R480" s="39"/>
     </row>
     <row r="481" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
-      <c r="C481" s="54"/>
-      <c r="D481" s="54"/>
-      <c r="E481" s="54"/>
-      <c r="F481" s="54"/>
-      <c r="G481" s="54"/>
-      <c r="H481" s="56"/>
-      <c r="I481" s="56"/>
-      <c r="J481" s="56"/>
-      <c r="K481" s="58" t="s">
+      <c r="C481" s="52"/>
+      <c r="D481" s="52"/>
+      <c r="E481" s="52"/>
+      <c r="F481" s="52"/>
+      <c r="G481" s="52"/>
+      <c r="H481" s="54"/>
+      <c r="I481" s="54"/>
+      <c r="J481" s="54"/>
+      <c r="K481" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L481" s="42" t="s">
+      <c r="L481" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M481" s="42"/>
-      <c r="N481" s="42"/>
-      <c r="O481" s="42"/>
-      <c r="P481" s="42"/>
-      <c r="Q481" s="42"/>
+      <c r="M481" s="64"/>
+      <c r="N481" s="64"/>
+      <c r="O481" s="64"/>
+      <c r="P481" s="64"/>
+      <c r="Q481" s="64"/>
       <c r="R481" s="40"/>
     </row>
     <row r="482" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
-      <c r="C482" s="54"/>
-      <c r="D482" s="54"/>
-      <c r="E482" s="54"/>
-      <c r="F482" s="54"/>
-      <c r="G482" s="54"/>
-      <c r="H482" s="56"/>
-      <c r="I482" s="56"/>
-      <c r="J482" s="56"/>
-      <c r="K482" s="58"/>
-      <c r="L482" s="42"/>
-      <c r="M482" s="42"/>
-      <c r="N482" s="42"/>
-      <c r="O482" s="42"/>
-      <c r="P482" s="42"/>
-      <c r="Q482" s="42"/>
+      <c r="C482" s="52"/>
+      <c r="D482" s="52"/>
+      <c r="E482" s="52"/>
+      <c r="F482" s="52"/>
+      <c r="G482" s="52"/>
+      <c r="H482" s="54"/>
+      <c r="I482" s="54"/>
+      <c r="J482" s="54"/>
+      <c r="K482" s="56"/>
+      <c r="L482" s="64"/>
+      <c r="M482" s="64"/>
+      <c r="N482" s="64"/>
+      <c r="O482" s="64"/>
+      <c r="P482" s="64"/>
+      <c r="Q482" s="64"/>
       <c r="R482" s="40"/>
     </row>
     <row r="483" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3"/>
-      <c r="C483" s="55"/>
-      <c r="D483" s="55"/>
-      <c r="E483" s="55"/>
-      <c r="F483" s="55"/>
-      <c r="G483" s="55"/>
-      <c r="H483" s="57"/>
-      <c r="I483" s="57"/>
-      <c r="J483" s="57"/>
-      <c r="L483" s="42"/>
-      <c r="M483" s="42"/>
-      <c r="N483" s="42"/>
-      <c r="O483" s="42"/>
-      <c r="P483" s="42"/>
-      <c r="Q483" s="42"/>
+      <c r="C483" s="53"/>
+      <c r="D483" s="53"/>
+      <c r="E483" s="53"/>
+      <c r="F483" s="53"/>
+      <c r="G483" s="53"/>
+      <c r="H483" s="55"/>
+      <c r="I483" s="55"/>
+      <c r="J483" s="55"/>
+      <c r="L483" s="64"/>
+      <c r="M483" s="64"/>
+      <c r="N483" s="64"/>
+      <c r="O483" s="64"/>
+      <c r="P483" s="64"/>
+      <c r="Q483" s="64"/>
       <c r="R483" s="40"/>
     </row>
     <row r="484" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
-      <c r="C484" s="59" t="s">
+      <c r="C484" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D484" s="59"/>
-      <c r="E484" s="59"/>
-      <c r="F484" s="59"/>
-      <c r="G484" s="59"/>
-      <c r="H484" s="59"/>
-      <c r="I484" s="59"/>
-      <c r="J484" s="59"/>
+      <c r="D484" s="57"/>
+      <c r="E484" s="57"/>
+      <c r="F484" s="57"/>
+      <c r="G484" s="57"/>
+      <c r="H484" s="57"/>
+      <c r="I484" s="57"/>
+      <c r="J484" s="57"/>
       <c r="K484" s="21"/>
-      <c r="L484" s="42"/>
-      <c r="M484" s="42"/>
-      <c r="N484" s="42"/>
-      <c r="O484" s="42"/>
-      <c r="P484" s="42"/>
-      <c r="Q484" s="42"/>
+      <c r="L484" s="64"/>
+      <c r="M484" s="64"/>
+      <c r="N484" s="64"/>
+      <c r="O484" s="64"/>
+      <c r="P484" s="64"/>
+      <c r="Q484" s="64"/>
       <c r="R484" s="40"/>
     </row>
     <row r="485" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
-      <c r="C485" s="60"/>
-      <c r="D485" s="60"/>
-      <c r="E485" s="60"/>
-      <c r="F485" s="60"/>
-      <c r="G485" s="60"/>
-      <c r="H485" s="60"/>
-      <c r="I485" s="60"/>
-      <c r="J485" s="60"/>
+      <c r="C485" s="58"/>
+      <c r="D485" s="58"/>
+      <c r="E485" s="58"/>
+      <c r="F485" s="58"/>
+      <c r="G485" s="58"/>
+      <c r="H485" s="58"/>
+      <c r="I485" s="58"/>
+      <c r="J485" s="58"/>
       <c r="K485" s="24"/>
-      <c r="L485" s="42"/>
-      <c r="M485" s="42"/>
-      <c r="N485" s="42"/>
-      <c r="O485" s="42"/>
-      <c r="P485" s="42"/>
-      <c r="Q485" s="42"/>
+      <c r="L485" s="64"/>
+      <c r="M485" s="64"/>
+      <c r="N485" s="64"/>
+      <c r="O485" s="64"/>
+      <c r="P485" s="64"/>
+      <c r="Q485" s="64"/>
       <c r="R485" s="40"/>
     </row>
     <row r="486" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
-      <c r="C486" s="60"/>
-      <c r="D486" s="60"/>
-      <c r="E486" s="60"/>
-      <c r="F486" s="60"/>
-      <c r="G486" s="60"/>
-      <c r="H486" s="60"/>
-      <c r="I486" s="60"/>
-      <c r="J486" s="60"/>
+      <c r="C486" s="58"/>
+      <c r="D486" s="58"/>
+      <c r="E486" s="58"/>
+      <c r="F486" s="58"/>
+      <c r="G486" s="58"/>
+      <c r="H486" s="58"/>
+      <c r="I486" s="58"/>
+      <c r="J486" s="58"/>
       <c r="K486" s="24"/>
-      <c r="L486" s="42"/>
-      <c r="M486" s="42"/>
-      <c r="N486" s="42"/>
-      <c r="O486" s="42"/>
-      <c r="P486" s="42"/>
-      <c r="Q486" s="42"/>
+      <c r="L486" s="64"/>
+      <c r="M486" s="64"/>
+      <c r="N486" s="64"/>
+      <c r="O486" s="64"/>
+      <c r="P486" s="64"/>
+      <c r="Q486" s="64"/>
       <c r="R486" s="40"/>
     </row>
     <row r="487" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
-      <c r="C487" s="61"/>
-      <c r="D487" s="61"/>
-      <c r="E487" s="61"/>
-      <c r="F487" s="61"/>
-      <c r="G487" s="61"/>
-      <c r="H487" s="61"/>
-      <c r="I487" s="61"/>
-      <c r="J487" s="61"/>
+      <c r="C487" s="59"/>
+      <c r="D487" s="59"/>
+      <c r="E487" s="59"/>
+      <c r="F487" s="59"/>
+      <c r="G487" s="59"/>
+      <c r="H487" s="59"/>
+      <c r="I487" s="59"/>
+      <c r="J487" s="59"/>
       <c r="K487" s="25"/>
-      <c r="L487" s="42"/>
-      <c r="M487" s="42"/>
-      <c r="N487" s="42"/>
-      <c r="O487" s="42"/>
-      <c r="P487" s="42"/>
-      <c r="Q487" s="42"/>
+      <c r="L487" s="64"/>
+      <c r="M487" s="64"/>
+      <c r="N487" s="64"/>
+      <c r="O487" s="64"/>
+      <c r="P487" s="64"/>
+      <c r="Q487" s="64"/>
       <c r="R487" s="40"/>
     </row>
     <row r="488" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
-      <c r="B488" s="43" t="s">
+      <c r="B488" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C488" s="44"/>
-      <c r="D488" s="44"/>
-      <c r="E488" s="44"/>
-      <c r="F488" s="44"/>
-      <c r="G488" s="44"/>
-      <c r="H488" s="44"/>
-      <c r="I488" s="44"/>
-      <c r="J488" s="44"/>
-      <c r="K488" s="44"/>
-      <c r="L488" s="44"/>
-      <c r="M488" s="44"/>
-      <c r="N488" s="44"/>
-      <c r="O488" s="44"/>
-      <c r="P488" s="44"/>
-      <c r="Q488" s="44"/>
+      <c r="C488" s="46"/>
+      <c r="D488" s="46"/>
+      <c r="E488" s="46"/>
+      <c r="F488" s="46"/>
+      <c r="G488" s="46"/>
+      <c r="H488" s="46"/>
+      <c r="I488" s="46"/>
+      <c r="J488" s="46"/>
+      <c r="K488" s="46"/>
+      <c r="L488" s="46"/>
+      <c r="M488" s="46"/>
+      <c r="N488" s="46"/>
+      <c r="O488" s="46"/>
+      <c r="P488" s="46"/>
+      <c r="Q488" s="46"/>
       <c r="R488" s="20"/>
     </row>
     <row r="489" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
-      <c r="B489" s="45"/>
-      <c r="C489" s="45"/>
-      <c r="D489" s="45"/>
-      <c r="E489" s="45"/>
-      <c r="F489" s="45"/>
-      <c r="G489" s="45"/>
-      <c r="H489" s="45"/>
-      <c r="I489" s="45"/>
-      <c r="J489" s="45"/>
-      <c r="K489" s="45"/>
-      <c r="L489" s="45"/>
-      <c r="M489" s="44"/>
-      <c r="N489" s="44"/>
-      <c r="O489" s="44"/>
-      <c r="P489" s="44"/>
-      <c r="Q489" s="44"/>
+      <c r="B489" s="47"/>
+      <c r="C489" s="47"/>
+      <c r="D489" s="47"/>
+      <c r="E489" s="47"/>
+      <c r="F489" s="47"/>
+      <c r="G489" s="47"/>
+      <c r="H489" s="47"/>
+      <c r="I489" s="47"/>
+      <c r="J489" s="47"/>
+      <c r="K489" s="47"/>
+      <c r="L489" s="47"/>
+      <c r="M489" s="46"/>
+      <c r="N489" s="46"/>
+      <c r="O489" s="46"/>
+      <c r="P489" s="46"/>
+      <c r="Q489" s="46"/>
       <c r="R489" s="20"/>
     </row>
     <row r="490" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12090,32 +12223,32 @@
       <c r="D490" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E490" s="62" t="s">
+      <c r="E490" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F490" s="63"/>
-      <c r="G490" s="63"/>
-      <c r="H490" s="63"/>
-      <c r="I490" s="63"/>
-      <c r="J490" s="63"/>
-      <c r="K490" s="64"/>
+      <c r="F490" s="61"/>
+      <c r="G490" s="61"/>
+      <c r="H490" s="61"/>
+      <c r="I490" s="61"/>
+      <c r="J490" s="61"/>
+      <c r="K490" s="62"/>
       <c r="L490" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M490" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N490" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O490" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P490" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q490" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M490" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N490" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O490" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P490" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q490" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R490" s="4"/>
     </row>
@@ -12836,8 +12969,8 @@
       <c r="A528" s="3"/>
       <c r="F528" s="22"/>
       <c r="G528" s="22"/>
-      <c r="H528" s="46"/>
-      <c r="I528" s="47"/>
+      <c r="H528" s="43"/>
+      <c r="I528" s="44"/>
       <c r="J528" s="22"/>
       <c r="K528" s="1"/>
       <c r="L528" s="2"/>
@@ -12854,15 +12987,15 @@
       <c r="A529" s="3"/>
       <c r="F529" s="16"/>
       <c r="G529" s="16"/>
-      <c r="H529" s="48" t="s">
+      <c r="H529" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I529" s="49"/>
+      <c r="I529" s="42"/>
       <c r="J529" s="38">
         <v>44634</v>
       </c>
       <c r="K529" s="3"/>
-      <c r="R529" s="50" t="s">
+      <c r="R529" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12874,10 +13007,10 @@
       <c r="E530" s="26"/>
       <c r="F530" s="15"/>
       <c r="G530" s="15"/>
-      <c r="H530" s="52" t="s">
+      <c r="H530" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I530" s="53"/>
+      <c r="I530" s="51"/>
       <c r="J530" s="15" t="s">
         <v>20</v>
       </c>
@@ -12888,7 +13021,7 @@
       <c r="O530" s="14"/>
       <c r="P530" s="14"/>
       <c r="Q530" s="14"/>
-      <c r="R530" s="51"/>
+      <c r="R530" s="49"/>
     </row>
     <row r="531" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
@@ -12912,228 +13045,228 @@
     </row>
     <row r="532" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
-      <c r="C532" s="54" t="s">
+      <c r="C532" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D532" s="54"/>
-      <c r="E532" s="54"/>
-      <c r="F532" s="54"/>
-      <c r="G532" s="54"/>
-      <c r="H532" s="56" t="s">
+      <c r="D532" s="52"/>
+      <c r="E532" s="52"/>
+      <c r="F532" s="52"/>
+      <c r="G532" s="52"/>
+      <c r="H532" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I532" s="56"/>
-      <c r="J532" s="56"/>
-      <c r="K532" s="58" t="s">
+      <c r="I532" s="54"/>
+      <c r="J532" s="54"/>
+      <c r="K532" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L532" s="41" t="s">
+      <c r="L532" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M532" s="41"/>
-      <c r="N532" s="41"/>
-      <c r="O532" s="41"/>
-      <c r="P532" s="41"/>
-      <c r="Q532" s="41"/>
+      <c r="M532" s="63"/>
+      <c r="N532" s="63"/>
+      <c r="O532" s="63"/>
+      <c r="P532" s="63"/>
+      <c r="Q532" s="63"/>
       <c r="R532" s="39"/>
     </row>
     <row r="533" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
-      <c r="C533" s="54"/>
-      <c r="D533" s="54"/>
-      <c r="E533" s="54"/>
-      <c r="F533" s="54"/>
-      <c r="G533" s="54"/>
-      <c r="H533" s="56"/>
-      <c r="I533" s="56"/>
-      <c r="J533" s="56"/>
-      <c r="K533" s="58"/>
-      <c r="L533" s="41"/>
-      <c r="M533" s="41"/>
-      <c r="N533" s="41"/>
-      <c r="O533" s="41"/>
-      <c r="P533" s="41"/>
-      <c r="Q533" s="41"/>
+      <c r="C533" s="52"/>
+      <c r="D533" s="52"/>
+      <c r="E533" s="52"/>
+      <c r="F533" s="52"/>
+      <c r="G533" s="52"/>
+      <c r="H533" s="54"/>
+      <c r="I533" s="54"/>
+      <c r="J533" s="54"/>
+      <c r="K533" s="56"/>
+      <c r="L533" s="63"/>
+      <c r="M533" s="63"/>
+      <c r="N533" s="63"/>
+      <c r="O533" s="63"/>
+      <c r="P533" s="63"/>
+      <c r="Q533" s="63"/>
       <c r="R533" s="39"/>
     </row>
     <row r="534" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
-      <c r="C534" s="54"/>
-      <c r="D534" s="54"/>
-      <c r="E534" s="54"/>
-      <c r="F534" s="54"/>
-      <c r="G534" s="54"/>
-      <c r="H534" s="56"/>
-      <c r="I534" s="56"/>
-      <c r="J534" s="56"/>
-      <c r="K534" s="58" t="s">
+      <c r="C534" s="52"/>
+      <c r="D534" s="52"/>
+      <c r="E534" s="52"/>
+      <c r="F534" s="52"/>
+      <c r="G534" s="52"/>
+      <c r="H534" s="54"/>
+      <c r="I534" s="54"/>
+      <c r="J534" s="54"/>
+      <c r="K534" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L534" s="42" t="s">
+      <c r="L534" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M534" s="42"/>
-      <c r="N534" s="42"/>
-      <c r="O534" s="42"/>
-      <c r="P534" s="42"/>
-      <c r="Q534" s="42"/>
+      <c r="M534" s="64"/>
+      <c r="N534" s="64"/>
+      <c r="O534" s="64"/>
+      <c r="P534" s="64"/>
+      <c r="Q534" s="64"/>
       <c r="R534" s="40"/>
     </row>
     <row r="535" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
-      <c r="C535" s="54"/>
-      <c r="D535" s="54"/>
-      <c r="E535" s="54"/>
-      <c r="F535" s="54"/>
-      <c r="G535" s="54"/>
-      <c r="H535" s="56"/>
-      <c r="I535" s="56"/>
-      <c r="J535" s="56"/>
-      <c r="K535" s="58"/>
-      <c r="L535" s="42"/>
-      <c r="M535" s="42"/>
-      <c r="N535" s="42"/>
-      <c r="O535" s="42"/>
-      <c r="P535" s="42"/>
-      <c r="Q535" s="42"/>
+      <c r="C535" s="52"/>
+      <c r="D535" s="52"/>
+      <c r="E535" s="52"/>
+      <c r="F535" s="52"/>
+      <c r="G535" s="52"/>
+      <c r="H535" s="54"/>
+      <c r="I535" s="54"/>
+      <c r="J535" s="54"/>
+      <c r="K535" s="56"/>
+      <c r="L535" s="64"/>
+      <c r="M535" s="64"/>
+      <c r="N535" s="64"/>
+      <c r="O535" s="64"/>
+      <c r="P535" s="64"/>
+      <c r="Q535" s="64"/>
       <c r="R535" s="40"/>
     </row>
     <row r="536" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="3"/>
-      <c r="C536" s="55"/>
-      <c r="D536" s="55"/>
-      <c r="E536" s="55"/>
-      <c r="F536" s="55"/>
-      <c r="G536" s="55"/>
-      <c r="H536" s="57"/>
-      <c r="I536" s="57"/>
-      <c r="J536" s="57"/>
-      <c r="L536" s="42"/>
-      <c r="M536" s="42"/>
-      <c r="N536" s="42"/>
-      <c r="O536" s="42"/>
-      <c r="P536" s="42"/>
-      <c r="Q536" s="42"/>
+      <c r="C536" s="53"/>
+      <c r="D536" s="53"/>
+      <c r="E536" s="53"/>
+      <c r="F536" s="53"/>
+      <c r="G536" s="53"/>
+      <c r="H536" s="55"/>
+      <c r="I536" s="55"/>
+      <c r="J536" s="55"/>
+      <c r="L536" s="64"/>
+      <c r="M536" s="64"/>
+      <c r="N536" s="64"/>
+      <c r="O536" s="64"/>
+      <c r="P536" s="64"/>
+      <c r="Q536" s="64"/>
       <c r="R536" s="40"/>
     </row>
     <row r="537" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
-      <c r="C537" s="59" t="s">
+      <c r="C537" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D537" s="59"/>
-      <c r="E537" s="59"/>
-      <c r="F537" s="59"/>
-      <c r="G537" s="59"/>
-      <c r="H537" s="59"/>
-      <c r="I537" s="59"/>
-      <c r="J537" s="59"/>
+      <c r="D537" s="57"/>
+      <c r="E537" s="57"/>
+      <c r="F537" s="57"/>
+      <c r="G537" s="57"/>
+      <c r="H537" s="57"/>
+      <c r="I537" s="57"/>
+      <c r="J537" s="57"/>
       <c r="K537" s="21"/>
-      <c r="L537" s="42"/>
-      <c r="M537" s="42"/>
-      <c r="N537" s="42"/>
-      <c r="O537" s="42"/>
-      <c r="P537" s="42"/>
-      <c r="Q537" s="42"/>
+      <c r="L537" s="64"/>
+      <c r="M537" s="64"/>
+      <c r="N537" s="64"/>
+      <c r="O537" s="64"/>
+      <c r="P537" s="64"/>
+      <c r="Q537" s="64"/>
       <c r="R537" s="40"/>
     </row>
     <row r="538" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
-      <c r="C538" s="60"/>
-      <c r="D538" s="60"/>
-      <c r="E538" s="60"/>
-      <c r="F538" s="60"/>
-      <c r="G538" s="60"/>
-      <c r="H538" s="60"/>
-      <c r="I538" s="60"/>
-      <c r="J538" s="60"/>
+      <c r="C538" s="58"/>
+      <c r="D538" s="58"/>
+      <c r="E538" s="58"/>
+      <c r="F538" s="58"/>
+      <c r="G538" s="58"/>
+      <c r="H538" s="58"/>
+      <c r="I538" s="58"/>
+      <c r="J538" s="58"/>
       <c r="K538" s="24"/>
-      <c r="L538" s="42"/>
-      <c r="M538" s="42"/>
-      <c r="N538" s="42"/>
-      <c r="O538" s="42"/>
-      <c r="P538" s="42"/>
-      <c r="Q538" s="42"/>
+      <c r="L538" s="64"/>
+      <c r="M538" s="64"/>
+      <c r="N538" s="64"/>
+      <c r="O538" s="64"/>
+      <c r="P538" s="64"/>
+      <c r="Q538" s="64"/>
       <c r="R538" s="40"/>
     </row>
     <row r="539" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
-      <c r="C539" s="60"/>
-      <c r="D539" s="60"/>
-      <c r="E539" s="60"/>
-      <c r="F539" s="60"/>
-      <c r="G539" s="60"/>
-      <c r="H539" s="60"/>
-      <c r="I539" s="60"/>
-      <c r="J539" s="60"/>
+      <c r="C539" s="58"/>
+      <c r="D539" s="58"/>
+      <c r="E539" s="58"/>
+      <c r="F539" s="58"/>
+      <c r="G539" s="58"/>
+      <c r="H539" s="58"/>
+      <c r="I539" s="58"/>
+      <c r="J539" s="58"/>
       <c r="K539" s="24"/>
-      <c r="L539" s="42"/>
-      <c r="M539" s="42"/>
-      <c r="N539" s="42"/>
-      <c r="O539" s="42"/>
-      <c r="P539" s="42"/>
-      <c r="Q539" s="42"/>
+      <c r="L539" s="64"/>
+      <c r="M539" s="64"/>
+      <c r="N539" s="64"/>
+      <c r="O539" s="64"/>
+      <c r="P539" s="64"/>
+      <c r="Q539" s="64"/>
       <c r="R539" s="40"/>
     </row>
     <row r="540" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
-      <c r="C540" s="61"/>
-      <c r="D540" s="61"/>
-      <c r="E540" s="61"/>
-      <c r="F540" s="61"/>
-      <c r="G540" s="61"/>
-      <c r="H540" s="61"/>
-      <c r="I540" s="61"/>
-      <c r="J540" s="61"/>
+      <c r="C540" s="59"/>
+      <c r="D540" s="59"/>
+      <c r="E540" s="59"/>
+      <c r="F540" s="59"/>
+      <c r="G540" s="59"/>
+      <c r="H540" s="59"/>
+      <c r="I540" s="59"/>
+      <c r="J540" s="59"/>
       <c r="K540" s="25"/>
-      <c r="L540" s="42"/>
-      <c r="M540" s="42"/>
-      <c r="N540" s="42"/>
-      <c r="O540" s="42"/>
-      <c r="P540" s="42"/>
-      <c r="Q540" s="42"/>
+      <c r="L540" s="64"/>
+      <c r="M540" s="64"/>
+      <c r="N540" s="64"/>
+      <c r="O540" s="64"/>
+      <c r="P540" s="64"/>
+      <c r="Q540" s="64"/>
       <c r="R540" s="40"/>
     </row>
     <row r="541" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
-      <c r="B541" s="43" t="s">
+      <c r="B541" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C541" s="44"/>
-      <c r="D541" s="44"/>
-      <c r="E541" s="44"/>
-      <c r="F541" s="44"/>
-      <c r="G541" s="44"/>
-      <c r="H541" s="44"/>
-      <c r="I541" s="44"/>
-      <c r="J541" s="44"/>
-      <c r="K541" s="44"/>
-      <c r="L541" s="44"/>
-      <c r="M541" s="44"/>
-      <c r="N541" s="44"/>
-      <c r="O541" s="44"/>
-      <c r="P541" s="44"/>
-      <c r="Q541" s="44"/>
+      <c r="C541" s="46"/>
+      <c r="D541" s="46"/>
+      <c r="E541" s="46"/>
+      <c r="F541" s="46"/>
+      <c r="G541" s="46"/>
+      <c r="H541" s="46"/>
+      <c r="I541" s="46"/>
+      <c r="J541" s="46"/>
+      <c r="K541" s="46"/>
+      <c r="L541" s="46"/>
+      <c r="M541" s="46"/>
+      <c r="N541" s="46"/>
+      <c r="O541" s="46"/>
+      <c r="P541" s="46"/>
+      <c r="Q541" s="46"/>
       <c r="R541" s="20"/>
     </row>
     <row r="542" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
-      <c r="B542" s="45"/>
-      <c r="C542" s="45"/>
-      <c r="D542" s="45"/>
-      <c r="E542" s="45"/>
-      <c r="F542" s="45"/>
-      <c r="G542" s="45"/>
-      <c r="H542" s="45"/>
-      <c r="I542" s="45"/>
-      <c r="J542" s="45"/>
-      <c r="K542" s="45"/>
-      <c r="L542" s="45"/>
-      <c r="M542" s="44"/>
-      <c r="N542" s="44"/>
-      <c r="O542" s="44"/>
-      <c r="P542" s="44"/>
-      <c r="Q542" s="44"/>
+      <c r="B542" s="47"/>
+      <c r="C542" s="47"/>
+      <c r="D542" s="47"/>
+      <c r="E542" s="47"/>
+      <c r="F542" s="47"/>
+      <c r="G542" s="47"/>
+      <c r="H542" s="47"/>
+      <c r="I542" s="47"/>
+      <c r="J542" s="47"/>
+      <c r="K542" s="47"/>
+      <c r="L542" s="47"/>
+      <c r="M542" s="46"/>
+      <c r="N542" s="46"/>
+      <c r="O542" s="46"/>
+      <c r="P542" s="46"/>
+      <c r="Q542" s="46"/>
       <c r="R542" s="20"/>
     </row>
     <row r="543" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13147,32 +13280,32 @@
       <c r="D543" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E543" s="62" t="s">
+      <c r="E543" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F543" s="63"/>
-      <c r="G543" s="63"/>
-      <c r="H543" s="63"/>
-      <c r="I543" s="63"/>
-      <c r="J543" s="63"/>
-      <c r="K543" s="64"/>
+      <c r="F543" s="61"/>
+      <c r="G543" s="61"/>
+      <c r="H543" s="61"/>
+      <c r="I543" s="61"/>
+      <c r="J543" s="61"/>
+      <c r="K543" s="62"/>
       <c r="L543" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M543" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N543" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O543" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P543" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q543" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M543" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N543" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O543" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P543" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q543" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R543" s="4"/>
     </row>
@@ -13893,8 +14026,8 @@
       <c r="A581" s="3"/>
       <c r="F581" s="22"/>
       <c r="G581" s="22"/>
-      <c r="H581" s="46"/>
-      <c r="I581" s="47"/>
+      <c r="H581" s="43"/>
+      <c r="I581" s="44"/>
       <c r="J581" s="22"/>
       <c r="K581" s="1"/>
       <c r="L581" s="2"/>
@@ -13911,15 +14044,15 @@
       <c r="A582" s="3"/>
       <c r="F582" s="16"/>
       <c r="G582" s="16"/>
-      <c r="H582" s="48" t="s">
+      <c r="H582" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I582" s="49"/>
+      <c r="I582" s="42"/>
       <c r="J582" s="38">
         <v>44634</v>
       </c>
       <c r="K582" s="3"/>
-      <c r="R582" s="50" t="s">
+      <c r="R582" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13931,10 +14064,10 @@
       <c r="E583" s="26"/>
       <c r="F583" s="15"/>
       <c r="G583" s="15"/>
-      <c r="H583" s="52" t="s">
+      <c r="H583" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I583" s="53"/>
+      <c r="I583" s="51"/>
       <c r="J583" s="15" t="s">
         <v>20</v>
       </c>
@@ -13945,7 +14078,7 @@
       <c r="O583" s="14"/>
       <c r="P583" s="14"/>
       <c r="Q583" s="14"/>
-      <c r="R583" s="51"/>
+      <c r="R583" s="49"/>
     </row>
     <row r="584" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
@@ -13969,228 +14102,228 @@
     </row>
     <row r="585" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
-      <c r="C585" s="54" t="s">
+      <c r="C585" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D585" s="54"/>
-      <c r="E585" s="54"/>
-      <c r="F585" s="54"/>
-      <c r="G585" s="54"/>
-      <c r="H585" s="56" t="s">
+      <c r="D585" s="52"/>
+      <c r="E585" s="52"/>
+      <c r="F585" s="52"/>
+      <c r="G585" s="52"/>
+      <c r="H585" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I585" s="56"/>
-      <c r="J585" s="56"/>
-      <c r="K585" s="58" t="s">
+      <c r="I585" s="54"/>
+      <c r="J585" s="54"/>
+      <c r="K585" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L585" s="41" t="s">
+      <c r="L585" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M585" s="41"/>
-      <c r="N585" s="41"/>
-      <c r="O585" s="41"/>
-      <c r="P585" s="41"/>
-      <c r="Q585" s="41"/>
+      <c r="M585" s="63"/>
+      <c r="N585" s="63"/>
+      <c r="O585" s="63"/>
+      <c r="P585" s="63"/>
+      <c r="Q585" s="63"/>
       <c r="R585" s="39"/>
     </row>
     <row r="586" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
-      <c r="C586" s="54"/>
-      <c r="D586" s="54"/>
-      <c r="E586" s="54"/>
-      <c r="F586" s="54"/>
-      <c r="G586" s="54"/>
-      <c r="H586" s="56"/>
-      <c r="I586" s="56"/>
-      <c r="J586" s="56"/>
-      <c r="K586" s="58"/>
-      <c r="L586" s="41"/>
-      <c r="M586" s="41"/>
-      <c r="N586" s="41"/>
-      <c r="O586" s="41"/>
-      <c r="P586" s="41"/>
-      <c r="Q586" s="41"/>
+      <c r="C586" s="52"/>
+      <c r="D586" s="52"/>
+      <c r="E586" s="52"/>
+      <c r="F586" s="52"/>
+      <c r="G586" s="52"/>
+      <c r="H586" s="54"/>
+      <c r="I586" s="54"/>
+      <c r="J586" s="54"/>
+      <c r="K586" s="56"/>
+      <c r="L586" s="63"/>
+      <c r="M586" s="63"/>
+      <c r="N586" s="63"/>
+      <c r="O586" s="63"/>
+      <c r="P586" s="63"/>
+      <c r="Q586" s="63"/>
       <c r="R586" s="39"/>
     </row>
     <row r="587" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
-      <c r="C587" s="54"/>
-      <c r="D587" s="54"/>
-      <c r="E587" s="54"/>
-      <c r="F587" s="54"/>
-      <c r="G587" s="54"/>
-      <c r="H587" s="56"/>
-      <c r="I587" s="56"/>
-      <c r="J587" s="56"/>
-      <c r="K587" s="58" t="s">
+      <c r="C587" s="52"/>
+      <c r="D587" s="52"/>
+      <c r="E587" s="52"/>
+      <c r="F587" s="52"/>
+      <c r="G587" s="52"/>
+      <c r="H587" s="54"/>
+      <c r="I587" s="54"/>
+      <c r="J587" s="54"/>
+      <c r="K587" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L587" s="42" t="s">
+      <c r="L587" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M587" s="42"/>
-      <c r="N587" s="42"/>
-      <c r="O587" s="42"/>
-      <c r="P587" s="42"/>
-      <c r="Q587" s="42"/>
+      <c r="M587" s="64"/>
+      <c r="N587" s="64"/>
+      <c r="O587" s="64"/>
+      <c r="P587" s="64"/>
+      <c r="Q587" s="64"/>
       <c r="R587" s="40"/>
     </row>
     <row r="588" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
-      <c r="C588" s="54"/>
-      <c r="D588" s="54"/>
-      <c r="E588" s="54"/>
-      <c r="F588" s="54"/>
-      <c r="G588" s="54"/>
-      <c r="H588" s="56"/>
-      <c r="I588" s="56"/>
-      <c r="J588" s="56"/>
-      <c r="K588" s="58"/>
-      <c r="L588" s="42"/>
-      <c r="M588" s="42"/>
-      <c r="N588" s="42"/>
-      <c r="O588" s="42"/>
-      <c r="P588" s="42"/>
-      <c r="Q588" s="42"/>
+      <c r="C588" s="52"/>
+      <c r="D588" s="52"/>
+      <c r="E588" s="52"/>
+      <c r="F588" s="52"/>
+      <c r="G588" s="52"/>
+      <c r="H588" s="54"/>
+      <c r="I588" s="54"/>
+      <c r="J588" s="54"/>
+      <c r="K588" s="56"/>
+      <c r="L588" s="64"/>
+      <c r="M588" s="64"/>
+      <c r="N588" s="64"/>
+      <c r="O588" s="64"/>
+      <c r="P588" s="64"/>
+      <c r="Q588" s="64"/>
       <c r="R588" s="40"/>
     </row>
     <row r="589" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="3"/>
-      <c r="C589" s="55"/>
-      <c r="D589" s="55"/>
-      <c r="E589" s="55"/>
-      <c r="F589" s="55"/>
-      <c r="G589" s="55"/>
-      <c r="H589" s="57"/>
-      <c r="I589" s="57"/>
-      <c r="J589" s="57"/>
-      <c r="L589" s="42"/>
-      <c r="M589" s="42"/>
-      <c r="N589" s="42"/>
-      <c r="O589" s="42"/>
-      <c r="P589" s="42"/>
-      <c r="Q589" s="42"/>
+      <c r="C589" s="53"/>
+      <c r="D589" s="53"/>
+      <c r="E589" s="53"/>
+      <c r="F589" s="53"/>
+      <c r="G589" s="53"/>
+      <c r="H589" s="55"/>
+      <c r="I589" s="55"/>
+      <c r="J589" s="55"/>
+      <c r="L589" s="64"/>
+      <c r="M589" s="64"/>
+      <c r="N589" s="64"/>
+      <c r="O589" s="64"/>
+      <c r="P589" s="64"/>
+      <c r="Q589" s="64"/>
       <c r="R589" s="40"/>
     </row>
     <row r="590" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
-      <c r="C590" s="59" t="s">
+      <c r="C590" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D590" s="59"/>
-      <c r="E590" s="59"/>
-      <c r="F590" s="59"/>
-      <c r="G590" s="59"/>
-      <c r="H590" s="59"/>
-      <c r="I590" s="59"/>
-      <c r="J590" s="59"/>
+      <c r="D590" s="57"/>
+      <c r="E590" s="57"/>
+      <c r="F590" s="57"/>
+      <c r="G590" s="57"/>
+      <c r="H590" s="57"/>
+      <c r="I590" s="57"/>
+      <c r="J590" s="57"/>
       <c r="K590" s="21"/>
-      <c r="L590" s="42"/>
-      <c r="M590" s="42"/>
-      <c r="N590" s="42"/>
-      <c r="O590" s="42"/>
-      <c r="P590" s="42"/>
-      <c r="Q590" s="42"/>
+      <c r="L590" s="64"/>
+      <c r="M590" s="64"/>
+      <c r="N590" s="64"/>
+      <c r="O590" s="64"/>
+      <c r="P590" s="64"/>
+      <c r="Q590" s="64"/>
       <c r="R590" s="40"/>
     </row>
     <row r="591" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
-      <c r="C591" s="60"/>
-      <c r="D591" s="60"/>
-      <c r="E591" s="60"/>
-      <c r="F591" s="60"/>
-      <c r="G591" s="60"/>
-      <c r="H591" s="60"/>
-      <c r="I591" s="60"/>
-      <c r="J591" s="60"/>
+      <c r="C591" s="58"/>
+      <c r="D591" s="58"/>
+      <c r="E591" s="58"/>
+      <c r="F591" s="58"/>
+      <c r="G591" s="58"/>
+      <c r="H591" s="58"/>
+      <c r="I591" s="58"/>
+      <c r="J591" s="58"/>
       <c r="K591" s="24"/>
-      <c r="L591" s="42"/>
-      <c r="M591" s="42"/>
-      <c r="N591" s="42"/>
-      <c r="O591" s="42"/>
-      <c r="P591" s="42"/>
-      <c r="Q591" s="42"/>
+      <c r="L591" s="64"/>
+      <c r="M591" s="64"/>
+      <c r="N591" s="64"/>
+      <c r="O591" s="64"/>
+      <c r="P591" s="64"/>
+      <c r="Q591" s="64"/>
       <c r="R591" s="40"/>
     </row>
     <row r="592" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
-      <c r="C592" s="60"/>
-      <c r="D592" s="60"/>
-      <c r="E592" s="60"/>
-      <c r="F592" s="60"/>
-      <c r="G592" s="60"/>
-      <c r="H592" s="60"/>
-      <c r="I592" s="60"/>
-      <c r="J592" s="60"/>
+      <c r="C592" s="58"/>
+      <c r="D592" s="58"/>
+      <c r="E592" s="58"/>
+      <c r="F592" s="58"/>
+      <c r="G592" s="58"/>
+      <c r="H592" s="58"/>
+      <c r="I592" s="58"/>
+      <c r="J592" s="58"/>
       <c r="K592" s="24"/>
-      <c r="L592" s="42"/>
-      <c r="M592" s="42"/>
-      <c r="N592" s="42"/>
-      <c r="O592" s="42"/>
-      <c r="P592" s="42"/>
-      <c r="Q592" s="42"/>
+      <c r="L592" s="64"/>
+      <c r="M592" s="64"/>
+      <c r="N592" s="64"/>
+      <c r="O592" s="64"/>
+      <c r="P592" s="64"/>
+      <c r="Q592" s="64"/>
       <c r="R592" s="40"/>
     </row>
     <row r="593" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
-      <c r="C593" s="61"/>
-      <c r="D593" s="61"/>
-      <c r="E593" s="61"/>
-      <c r="F593" s="61"/>
-      <c r="G593" s="61"/>
-      <c r="H593" s="61"/>
-      <c r="I593" s="61"/>
-      <c r="J593" s="61"/>
+      <c r="C593" s="59"/>
+      <c r="D593" s="59"/>
+      <c r="E593" s="59"/>
+      <c r="F593" s="59"/>
+      <c r="G593" s="59"/>
+      <c r="H593" s="59"/>
+      <c r="I593" s="59"/>
+      <c r="J593" s="59"/>
       <c r="K593" s="25"/>
-      <c r="L593" s="42"/>
-      <c r="M593" s="42"/>
-      <c r="N593" s="42"/>
-      <c r="O593" s="42"/>
-      <c r="P593" s="42"/>
-      <c r="Q593" s="42"/>
+      <c r="L593" s="64"/>
+      <c r="M593" s="64"/>
+      <c r="N593" s="64"/>
+      <c r="O593" s="64"/>
+      <c r="P593" s="64"/>
+      <c r="Q593" s="64"/>
       <c r="R593" s="40"/>
     </row>
     <row r="594" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
-      <c r="B594" s="43" t="s">
+      <c r="B594" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C594" s="44"/>
-      <c r="D594" s="44"/>
-      <c r="E594" s="44"/>
-      <c r="F594" s="44"/>
-      <c r="G594" s="44"/>
-      <c r="H594" s="44"/>
-      <c r="I594" s="44"/>
-      <c r="J594" s="44"/>
-      <c r="K594" s="44"/>
-      <c r="L594" s="44"/>
-      <c r="M594" s="44"/>
-      <c r="N594" s="44"/>
-      <c r="O594" s="44"/>
-      <c r="P594" s="44"/>
-      <c r="Q594" s="44"/>
+      <c r="C594" s="46"/>
+      <c r="D594" s="46"/>
+      <c r="E594" s="46"/>
+      <c r="F594" s="46"/>
+      <c r="G594" s="46"/>
+      <c r="H594" s="46"/>
+      <c r="I594" s="46"/>
+      <c r="J594" s="46"/>
+      <c r="K594" s="46"/>
+      <c r="L594" s="46"/>
+      <c r="M594" s="46"/>
+      <c r="N594" s="46"/>
+      <c r="O594" s="46"/>
+      <c r="P594" s="46"/>
+      <c r="Q594" s="46"/>
       <c r="R594" s="20"/>
     </row>
     <row r="595" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
-      <c r="B595" s="45"/>
-      <c r="C595" s="45"/>
-      <c r="D595" s="45"/>
-      <c r="E595" s="45"/>
-      <c r="F595" s="45"/>
-      <c r="G595" s="45"/>
-      <c r="H595" s="45"/>
-      <c r="I595" s="45"/>
-      <c r="J595" s="45"/>
-      <c r="K595" s="45"/>
-      <c r="L595" s="45"/>
-      <c r="M595" s="44"/>
-      <c r="N595" s="44"/>
-      <c r="O595" s="44"/>
-      <c r="P595" s="44"/>
-      <c r="Q595" s="44"/>
+      <c r="B595" s="47"/>
+      <c r="C595" s="47"/>
+      <c r="D595" s="47"/>
+      <c r="E595" s="47"/>
+      <c r="F595" s="47"/>
+      <c r="G595" s="47"/>
+      <c r="H595" s="47"/>
+      <c r="I595" s="47"/>
+      <c r="J595" s="47"/>
+      <c r="K595" s="47"/>
+      <c r="L595" s="47"/>
+      <c r="M595" s="46"/>
+      <c r="N595" s="46"/>
+      <c r="O595" s="46"/>
+      <c r="P595" s="46"/>
+      <c r="Q595" s="46"/>
       <c r="R595" s="20"/>
     </row>
     <row r="596" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14204,32 +14337,32 @@
       <c r="D596" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E596" s="62" t="s">
+      <c r="E596" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F596" s="63"/>
-      <c r="G596" s="63"/>
-      <c r="H596" s="63"/>
-      <c r="I596" s="63"/>
-      <c r="J596" s="63"/>
-      <c r="K596" s="64"/>
+      <c r="F596" s="61"/>
+      <c r="G596" s="61"/>
+      <c r="H596" s="61"/>
+      <c r="I596" s="61"/>
+      <c r="J596" s="61"/>
+      <c r="K596" s="62"/>
       <c r="L596" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M596" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N596" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O596" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P596" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q596" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M596" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N596" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O596" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P596" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q596" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R596" s="4"/>
     </row>
@@ -14950,8 +15083,8 @@
       <c r="A634" s="3"/>
       <c r="F634" s="22"/>
       <c r="G634" s="22"/>
-      <c r="H634" s="46"/>
-      <c r="I634" s="47"/>
+      <c r="H634" s="43"/>
+      <c r="I634" s="44"/>
       <c r="J634" s="22"/>
       <c r="K634" s="1"/>
       <c r="L634" s="2"/>
@@ -14968,10 +15101,10 @@
       <c r="A635" s="3"/>
       <c r="F635" s="16"/>
       <c r="G635" s="16"/>
-      <c r="H635" s="48" t="s">
+      <c r="H635" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I635" s="49"/>
+      <c r="I635" s="42"/>
       <c r="J635" s="38">
         <v>44634</v>
       </c>
@@ -14988,10 +15121,10 @@
       <c r="E636" s="26"/>
       <c r="F636" s="15"/>
       <c r="G636" s="15"/>
-      <c r="H636" s="52" t="s">
+      <c r="H636" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I636" s="53"/>
+      <c r="I636" s="51"/>
       <c r="J636" s="15" t="s">
         <v>20</v>
       </c>
@@ -15026,228 +15159,228 @@
     </row>
     <row r="638" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
-      <c r="C638" s="54" t="s">
+      <c r="C638" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D638" s="54"/>
-      <c r="E638" s="54"/>
-      <c r="F638" s="54"/>
-      <c r="G638" s="54"/>
-      <c r="H638" s="56" t="s">
+      <c r="D638" s="52"/>
+      <c r="E638" s="52"/>
+      <c r="F638" s="52"/>
+      <c r="G638" s="52"/>
+      <c r="H638" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I638" s="56"/>
-      <c r="J638" s="56"/>
-      <c r="K638" s="58" t="s">
+      <c r="I638" s="54"/>
+      <c r="J638" s="54"/>
+      <c r="K638" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L638" s="41" t="s">
+      <c r="L638" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M638" s="41"/>
-      <c r="N638" s="41"/>
-      <c r="O638" s="41"/>
-      <c r="P638" s="41"/>
-      <c r="Q638" s="41"/>
+      <c r="M638" s="63"/>
+      <c r="N638" s="63"/>
+      <c r="O638" s="63"/>
+      <c r="P638" s="63"/>
+      <c r="Q638" s="63"/>
       <c r="R638" s="39"/>
     </row>
     <row r="639" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
-      <c r="C639" s="54"/>
-      <c r="D639" s="54"/>
-      <c r="E639" s="54"/>
-      <c r="F639" s="54"/>
-      <c r="G639" s="54"/>
-      <c r="H639" s="56"/>
-      <c r="I639" s="56"/>
-      <c r="J639" s="56"/>
-      <c r="K639" s="58"/>
-      <c r="L639" s="41"/>
-      <c r="M639" s="41"/>
-      <c r="N639" s="41"/>
-      <c r="O639" s="41"/>
-      <c r="P639" s="41"/>
-      <c r="Q639" s="41"/>
+      <c r="C639" s="52"/>
+      <c r="D639" s="52"/>
+      <c r="E639" s="52"/>
+      <c r="F639" s="52"/>
+      <c r="G639" s="52"/>
+      <c r="H639" s="54"/>
+      <c r="I639" s="54"/>
+      <c r="J639" s="54"/>
+      <c r="K639" s="56"/>
+      <c r="L639" s="63"/>
+      <c r="M639" s="63"/>
+      <c r="N639" s="63"/>
+      <c r="O639" s="63"/>
+      <c r="P639" s="63"/>
+      <c r="Q639" s="63"/>
       <c r="R639" s="39"/>
     </row>
     <row r="640" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
-      <c r="C640" s="54"/>
-      <c r="D640" s="54"/>
-      <c r="E640" s="54"/>
-      <c r="F640" s="54"/>
-      <c r="G640" s="54"/>
-      <c r="H640" s="56"/>
-      <c r="I640" s="56"/>
-      <c r="J640" s="56"/>
-      <c r="K640" s="58" t="s">
+      <c r="C640" s="52"/>
+      <c r="D640" s="52"/>
+      <c r="E640" s="52"/>
+      <c r="F640" s="52"/>
+      <c r="G640" s="52"/>
+      <c r="H640" s="54"/>
+      <c r="I640" s="54"/>
+      <c r="J640" s="54"/>
+      <c r="K640" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L640" s="42" t="s">
+      <c r="L640" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M640" s="42"/>
-      <c r="N640" s="42"/>
-      <c r="O640" s="42"/>
-      <c r="P640" s="42"/>
-      <c r="Q640" s="42"/>
+      <c r="M640" s="64"/>
+      <c r="N640" s="64"/>
+      <c r="O640" s="64"/>
+      <c r="P640" s="64"/>
+      <c r="Q640" s="64"/>
       <c r="R640" s="40"/>
     </row>
     <row r="641" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
-      <c r="C641" s="54"/>
-      <c r="D641" s="54"/>
-      <c r="E641" s="54"/>
-      <c r="F641" s="54"/>
-      <c r="G641" s="54"/>
-      <c r="H641" s="56"/>
-      <c r="I641" s="56"/>
-      <c r="J641" s="56"/>
-      <c r="K641" s="58"/>
-      <c r="L641" s="42"/>
-      <c r="M641" s="42"/>
-      <c r="N641" s="42"/>
-      <c r="O641" s="42"/>
-      <c r="P641" s="42"/>
-      <c r="Q641" s="42"/>
+      <c r="C641" s="52"/>
+      <c r="D641" s="52"/>
+      <c r="E641" s="52"/>
+      <c r="F641" s="52"/>
+      <c r="G641" s="52"/>
+      <c r="H641" s="54"/>
+      <c r="I641" s="54"/>
+      <c r="J641" s="54"/>
+      <c r="K641" s="56"/>
+      <c r="L641" s="64"/>
+      <c r="M641" s="64"/>
+      <c r="N641" s="64"/>
+      <c r="O641" s="64"/>
+      <c r="P641" s="64"/>
+      <c r="Q641" s="64"/>
       <c r="R641" s="40"/>
     </row>
     <row r="642" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="3"/>
-      <c r="C642" s="55"/>
-      <c r="D642" s="55"/>
-      <c r="E642" s="55"/>
-      <c r="F642" s="55"/>
-      <c r="G642" s="55"/>
-      <c r="H642" s="57"/>
-      <c r="I642" s="57"/>
-      <c r="J642" s="57"/>
-      <c r="L642" s="42"/>
-      <c r="M642" s="42"/>
-      <c r="N642" s="42"/>
-      <c r="O642" s="42"/>
-      <c r="P642" s="42"/>
-      <c r="Q642" s="42"/>
+      <c r="C642" s="53"/>
+      <c r="D642" s="53"/>
+      <c r="E642" s="53"/>
+      <c r="F642" s="53"/>
+      <c r="G642" s="53"/>
+      <c r="H642" s="55"/>
+      <c r="I642" s="55"/>
+      <c r="J642" s="55"/>
+      <c r="L642" s="64"/>
+      <c r="M642" s="64"/>
+      <c r="N642" s="64"/>
+      <c r="O642" s="64"/>
+      <c r="P642" s="64"/>
+      <c r="Q642" s="64"/>
       <c r="R642" s="40"/>
     </row>
     <row r="643" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
-      <c r="C643" s="59" t="s">
+      <c r="C643" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D643" s="59"/>
-      <c r="E643" s="59"/>
-      <c r="F643" s="59"/>
-      <c r="G643" s="59"/>
-      <c r="H643" s="59"/>
-      <c r="I643" s="59"/>
-      <c r="J643" s="59"/>
+      <c r="D643" s="57"/>
+      <c r="E643" s="57"/>
+      <c r="F643" s="57"/>
+      <c r="G643" s="57"/>
+      <c r="H643" s="57"/>
+      <c r="I643" s="57"/>
+      <c r="J643" s="57"/>
       <c r="K643" s="21"/>
-      <c r="L643" s="42"/>
-      <c r="M643" s="42"/>
-      <c r="N643" s="42"/>
-      <c r="O643" s="42"/>
-      <c r="P643" s="42"/>
-      <c r="Q643" s="42"/>
+      <c r="L643" s="64"/>
+      <c r="M643" s="64"/>
+      <c r="N643" s="64"/>
+      <c r="O643" s="64"/>
+      <c r="P643" s="64"/>
+      <c r="Q643" s="64"/>
       <c r="R643" s="40"/>
     </row>
     <row r="644" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
-      <c r="C644" s="60"/>
-      <c r="D644" s="60"/>
-      <c r="E644" s="60"/>
-      <c r="F644" s="60"/>
-      <c r="G644" s="60"/>
-      <c r="H644" s="60"/>
-      <c r="I644" s="60"/>
-      <c r="J644" s="60"/>
+      <c r="C644" s="58"/>
+      <c r="D644" s="58"/>
+      <c r="E644" s="58"/>
+      <c r="F644" s="58"/>
+      <c r="G644" s="58"/>
+      <c r="H644" s="58"/>
+      <c r="I644" s="58"/>
+      <c r="J644" s="58"/>
       <c r="K644" s="24"/>
-      <c r="L644" s="42"/>
-      <c r="M644" s="42"/>
-      <c r="N644" s="42"/>
-      <c r="O644" s="42"/>
-      <c r="P644" s="42"/>
-      <c r="Q644" s="42"/>
+      <c r="L644" s="64"/>
+      <c r="M644" s="64"/>
+      <c r="N644" s="64"/>
+      <c r="O644" s="64"/>
+      <c r="P644" s="64"/>
+      <c r="Q644" s="64"/>
       <c r="R644" s="40"/>
     </row>
     <row r="645" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
-      <c r="C645" s="60"/>
-      <c r="D645" s="60"/>
-      <c r="E645" s="60"/>
-      <c r="F645" s="60"/>
-      <c r="G645" s="60"/>
-      <c r="H645" s="60"/>
-      <c r="I645" s="60"/>
-      <c r="J645" s="60"/>
+      <c r="C645" s="58"/>
+      <c r="D645" s="58"/>
+      <c r="E645" s="58"/>
+      <c r="F645" s="58"/>
+      <c r="G645" s="58"/>
+      <c r="H645" s="58"/>
+      <c r="I645" s="58"/>
+      <c r="J645" s="58"/>
       <c r="K645" s="24"/>
-      <c r="L645" s="42"/>
-      <c r="M645" s="42"/>
-      <c r="N645" s="42"/>
-      <c r="O645" s="42"/>
-      <c r="P645" s="42"/>
-      <c r="Q645" s="42"/>
+      <c r="L645" s="64"/>
+      <c r="M645" s="64"/>
+      <c r="N645" s="64"/>
+      <c r="O645" s="64"/>
+      <c r="P645" s="64"/>
+      <c r="Q645" s="64"/>
       <c r="R645" s="40"/>
     </row>
     <row r="646" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
-      <c r="C646" s="61"/>
-      <c r="D646" s="61"/>
-      <c r="E646" s="61"/>
-      <c r="F646" s="61"/>
-      <c r="G646" s="61"/>
-      <c r="H646" s="61"/>
-      <c r="I646" s="61"/>
-      <c r="J646" s="61"/>
+      <c r="C646" s="59"/>
+      <c r="D646" s="59"/>
+      <c r="E646" s="59"/>
+      <c r="F646" s="59"/>
+      <c r="G646" s="59"/>
+      <c r="H646" s="59"/>
+      <c r="I646" s="59"/>
+      <c r="J646" s="59"/>
       <c r="K646" s="25"/>
-      <c r="L646" s="42"/>
-      <c r="M646" s="42"/>
-      <c r="N646" s="42"/>
-      <c r="O646" s="42"/>
-      <c r="P646" s="42"/>
-      <c r="Q646" s="42"/>
+      <c r="L646" s="64"/>
+      <c r="M646" s="64"/>
+      <c r="N646" s="64"/>
+      <c r="O646" s="64"/>
+      <c r="P646" s="64"/>
+      <c r="Q646" s="64"/>
       <c r="R646" s="40"/>
     </row>
     <row r="647" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
-      <c r="B647" s="43" t="s">
+      <c r="B647" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C647" s="44"/>
-      <c r="D647" s="44"/>
-      <c r="E647" s="44"/>
-      <c r="F647" s="44"/>
-      <c r="G647" s="44"/>
-      <c r="H647" s="44"/>
-      <c r="I647" s="44"/>
-      <c r="J647" s="44"/>
-      <c r="K647" s="44"/>
-      <c r="L647" s="44"/>
-      <c r="M647" s="44"/>
-      <c r="N647" s="44"/>
-      <c r="O647" s="44"/>
-      <c r="P647" s="44"/>
-      <c r="Q647" s="44"/>
+      <c r="C647" s="46"/>
+      <c r="D647" s="46"/>
+      <c r="E647" s="46"/>
+      <c r="F647" s="46"/>
+      <c r="G647" s="46"/>
+      <c r="H647" s="46"/>
+      <c r="I647" s="46"/>
+      <c r="J647" s="46"/>
+      <c r="K647" s="46"/>
+      <c r="L647" s="46"/>
+      <c r="M647" s="46"/>
+      <c r="N647" s="46"/>
+      <c r="O647" s="46"/>
+      <c r="P647" s="46"/>
+      <c r="Q647" s="46"/>
       <c r="R647" s="20"/>
     </row>
     <row r="648" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
-      <c r="B648" s="45"/>
-      <c r="C648" s="45"/>
-      <c r="D648" s="45"/>
-      <c r="E648" s="45"/>
-      <c r="F648" s="45"/>
-      <c r="G648" s="45"/>
-      <c r="H648" s="45"/>
-      <c r="I648" s="45"/>
-      <c r="J648" s="45"/>
-      <c r="K648" s="45"/>
-      <c r="L648" s="45"/>
-      <c r="M648" s="44"/>
-      <c r="N648" s="44"/>
-      <c r="O648" s="44"/>
-      <c r="P648" s="44"/>
-      <c r="Q648" s="44"/>
+      <c r="B648" s="47"/>
+      <c r="C648" s="47"/>
+      <c r="D648" s="47"/>
+      <c r="E648" s="47"/>
+      <c r="F648" s="47"/>
+      <c r="G648" s="47"/>
+      <c r="H648" s="47"/>
+      <c r="I648" s="47"/>
+      <c r="J648" s="47"/>
+      <c r="K648" s="47"/>
+      <c r="L648" s="47"/>
+      <c r="M648" s="46"/>
+      <c r="N648" s="46"/>
+      <c r="O648" s="46"/>
+      <c r="P648" s="46"/>
+      <c r="Q648" s="46"/>
       <c r="R648" s="20"/>
     </row>
     <row r="649" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15261,32 +15394,32 @@
       <c r="D649" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E649" s="62" t="s">
+      <c r="E649" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F649" s="63"/>
-      <c r="G649" s="63"/>
-      <c r="H649" s="63"/>
-      <c r="I649" s="63"/>
-      <c r="J649" s="63"/>
-      <c r="K649" s="64"/>
+      <c r="F649" s="61"/>
+      <c r="G649" s="61"/>
+      <c r="H649" s="61"/>
+      <c r="I649" s="61"/>
+      <c r="J649" s="61"/>
+      <c r="K649" s="62"/>
       <c r="L649" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M649" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N649" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O649" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P649" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q649" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M649" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N649" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O649" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P649" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q649" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R649" s="4"/>
     </row>
@@ -16007,8 +16140,8 @@
       <c r="A687" s="3"/>
       <c r="F687" s="22"/>
       <c r="G687" s="22"/>
-      <c r="H687" s="46"/>
-      <c r="I687" s="47"/>
+      <c r="H687" s="43"/>
+      <c r="I687" s="44"/>
       <c r="J687" s="22"/>
       <c r="K687" s="1"/>
       <c r="L687" s="2"/>
@@ -16025,10 +16158,10 @@
       <c r="A688" s="3"/>
       <c r="F688" s="16"/>
       <c r="G688" s="16"/>
-      <c r="H688" s="48" t="s">
+      <c r="H688" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I688" s="49"/>
+      <c r="I688" s="42"/>
       <c r="J688" s="38">
         <v>44634</v>
       </c>
@@ -16045,10 +16178,10 @@
       <c r="E689" s="26"/>
       <c r="F689" s="15"/>
       <c r="G689" s="15"/>
-      <c r="H689" s="52" t="s">
+      <c r="H689" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I689" s="53"/>
+      <c r="I689" s="51"/>
       <c r="J689" s="15" t="s">
         <v>20</v>
       </c>
@@ -16083,228 +16216,228 @@
     </row>
     <row r="691" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
-      <c r="C691" s="54" t="s">
+      <c r="C691" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D691" s="54"/>
-      <c r="E691" s="54"/>
-      <c r="F691" s="54"/>
-      <c r="G691" s="54"/>
-      <c r="H691" s="56" t="s">
+      <c r="D691" s="52"/>
+      <c r="E691" s="52"/>
+      <c r="F691" s="52"/>
+      <c r="G691" s="52"/>
+      <c r="H691" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I691" s="56"/>
-      <c r="J691" s="56"/>
-      <c r="K691" s="58" t="s">
+      <c r="I691" s="54"/>
+      <c r="J691" s="54"/>
+      <c r="K691" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L691" s="41" t="s">
+      <c r="L691" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M691" s="41"/>
-      <c r="N691" s="41"/>
-      <c r="O691" s="41"/>
-      <c r="P691" s="41"/>
-      <c r="Q691" s="41"/>
+      <c r="M691" s="63"/>
+      <c r="N691" s="63"/>
+      <c r="O691" s="63"/>
+      <c r="P691" s="63"/>
+      <c r="Q691" s="63"/>
       <c r="R691" s="39"/>
     </row>
     <row r="692" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
-      <c r="C692" s="54"/>
-      <c r="D692" s="54"/>
-      <c r="E692" s="54"/>
-      <c r="F692" s="54"/>
-      <c r="G692" s="54"/>
-      <c r="H692" s="56"/>
-      <c r="I692" s="56"/>
-      <c r="J692" s="56"/>
-      <c r="K692" s="58"/>
-      <c r="L692" s="41"/>
-      <c r="M692" s="41"/>
-      <c r="N692" s="41"/>
-      <c r="O692" s="41"/>
-      <c r="P692" s="41"/>
-      <c r="Q692" s="41"/>
+      <c r="C692" s="52"/>
+      <c r="D692" s="52"/>
+      <c r="E692" s="52"/>
+      <c r="F692" s="52"/>
+      <c r="G692" s="52"/>
+      <c r="H692" s="54"/>
+      <c r="I692" s="54"/>
+      <c r="J692" s="54"/>
+      <c r="K692" s="56"/>
+      <c r="L692" s="63"/>
+      <c r="M692" s="63"/>
+      <c r="N692" s="63"/>
+      <c r="O692" s="63"/>
+      <c r="P692" s="63"/>
+      <c r="Q692" s="63"/>
       <c r="R692" s="39"/>
     </row>
     <row r="693" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
-      <c r="C693" s="54"/>
-      <c r="D693" s="54"/>
-      <c r="E693" s="54"/>
-      <c r="F693" s="54"/>
-      <c r="G693" s="54"/>
-      <c r="H693" s="56"/>
-      <c r="I693" s="56"/>
-      <c r="J693" s="56"/>
-      <c r="K693" s="58" t="s">
+      <c r="C693" s="52"/>
+      <c r="D693" s="52"/>
+      <c r="E693" s="52"/>
+      <c r="F693" s="52"/>
+      <c r="G693" s="52"/>
+      <c r="H693" s="54"/>
+      <c r="I693" s="54"/>
+      <c r="J693" s="54"/>
+      <c r="K693" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L693" s="42" t="s">
+      <c r="L693" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M693" s="42"/>
-      <c r="N693" s="42"/>
-      <c r="O693" s="42"/>
-      <c r="P693" s="42"/>
-      <c r="Q693" s="42"/>
+      <c r="M693" s="64"/>
+      <c r="N693" s="64"/>
+      <c r="O693" s="64"/>
+      <c r="P693" s="64"/>
+      <c r="Q693" s="64"/>
       <c r="R693" s="40"/>
     </row>
     <row r="694" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
-      <c r="C694" s="54"/>
-      <c r="D694" s="54"/>
-      <c r="E694" s="54"/>
-      <c r="F694" s="54"/>
-      <c r="G694" s="54"/>
-      <c r="H694" s="56"/>
-      <c r="I694" s="56"/>
-      <c r="J694" s="56"/>
-      <c r="K694" s="58"/>
-      <c r="L694" s="42"/>
-      <c r="M694" s="42"/>
-      <c r="N694" s="42"/>
-      <c r="O694" s="42"/>
-      <c r="P694" s="42"/>
-      <c r="Q694" s="42"/>
+      <c r="C694" s="52"/>
+      <c r="D694" s="52"/>
+      <c r="E694" s="52"/>
+      <c r="F694" s="52"/>
+      <c r="G694" s="52"/>
+      <c r="H694" s="54"/>
+      <c r="I694" s="54"/>
+      <c r="J694" s="54"/>
+      <c r="K694" s="56"/>
+      <c r="L694" s="64"/>
+      <c r="M694" s="64"/>
+      <c r="N694" s="64"/>
+      <c r="O694" s="64"/>
+      <c r="P694" s="64"/>
+      <c r="Q694" s="64"/>
       <c r="R694" s="40"/>
     </row>
     <row r="695" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="3"/>
-      <c r="C695" s="55"/>
-      <c r="D695" s="55"/>
-      <c r="E695" s="55"/>
-      <c r="F695" s="55"/>
-      <c r="G695" s="55"/>
-      <c r="H695" s="57"/>
-      <c r="I695" s="57"/>
-      <c r="J695" s="57"/>
-      <c r="L695" s="42"/>
-      <c r="M695" s="42"/>
-      <c r="N695" s="42"/>
-      <c r="O695" s="42"/>
-      <c r="P695" s="42"/>
-      <c r="Q695" s="42"/>
+      <c r="C695" s="53"/>
+      <c r="D695" s="53"/>
+      <c r="E695" s="53"/>
+      <c r="F695" s="53"/>
+      <c r="G695" s="53"/>
+      <c r="H695" s="55"/>
+      <c r="I695" s="55"/>
+      <c r="J695" s="55"/>
+      <c r="L695" s="64"/>
+      <c r="M695" s="64"/>
+      <c r="N695" s="64"/>
+      <c r="O695" s="64"/>
+      <c r="P695" s="64"/>
+      <c r="Q695" s="64"/>
       <c r="R695" s="40"/>
     </row>
     <row r="696" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
-      <c r="C696" s="59" t="s">
+      <c r="C696" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D696" s="59"/>
-      <c r="E696" s="59"/>
-      <c r="F696" s="59"/>
-      <c r="G696" s="59"/>
-      <c r="H696" s="59"/>
-      <c r="I696" s="59"/>
-      <c r="J696" s="59"/>
+      <c r="D696" s="57"/>
+      <c r="E696" s="57"/>
+      <c r="F696" s="57"/>
+      <c r="G696" s="57"/>
+      <c r="H696" s="57"/>
+      <c r="I696" s="57"/>
+      <c r="J696" s="57"/>
       <c r="K696" s="21"/>
-      <c r="L696" s="42"/>
-      <c r="M696" s="42"/>
-      <c r="N696" s="42"/>
-      <c r="O696" s="42"/>
-      <c r="P696" s="42"/>
-      <c r="Q696" s="42"/>
+      <c r="L696" s="64"/>
+      <c r="M696" s="64"/>
+      <c r="N696" s="64"/>
+      <c r="O696" s="64"/>
+      <c r="P696" s="64"/>
+      <c r="Q696" s="64"/>
       <c r="R696" s="40"/>
     </row>
     <row r="697" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
-      <c r="C697" s="60"/>
-      <c r="D697" s="60"/>
-      <c r="E697" s="60"/>
-      <c r="F697" s="60"/>
-      <c r="G697" s="60"/>
-      <c r="H697" s="60"/>
-      <c r="I697" s="60"/>
-      <c r="J697" s="60"/>
+      <c r="C697" s="58"/>
+      <c r="D697" s="58"/>
+      <c r="E697" s="58"/>
+      <c r="F697" s="58"/>
+      <c r="G697" s="58"/>
+      <c r="H697" s="58"/>
+      <c r="I697" s="58"/>
+      <c r="J697" s="58"/>
       <c r="K697" s="24"/>
-      <c r="L697" s="42"/>
-      <c r="M697" s="42"/>
-      <c r="N697" s="42"/>
-      <c r="O697" s="42"/>
-      <c r="P697" s="42"/>
-      <c r="Q697" s="42"/>
+      <c r="L697" s="64"/>
+      <c r="M697" s="64"/>
+      <c r="N697" s="64"/>
+      <c r="O697" s="64"/>
+      <c r="P697" s="64"/>
+      <c r="Q697" s="64"/>
       <c r="R697" s="40"/>
     </row>
     <row r="698" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
-      <c r="C698" s="60"/>
-      <c r="D698" s="60"/>
-      <c r="E698" s="60"/>
-      <c r="F698" s="60"/>
-      <c r="G698" s="60"/>
-      <c r="H698" s="60"/>
-      <c r="I698" s="60"/>
-      <c r="J698" s="60"/>
+      <c r="C698" s="58"/>
+      <c r="D698" s="58"/>
+      <c r="E698" s="58"/>
+      <c r="F698" s="58"/>
+      <c r="G698" s="58"/>
+      <c r="H698" s="58"/>
+      <c r="I698" s="58"/>
+      <c r="J698" s="58"/>
       <c r="K698" s="24"/>
-      <c r="L698" s="42"/>
-      <c r="M698" s="42"/>
-      <c r="N698" s="42"/>
-      <c r="O698" s="42"/>
-      <c r="P698" s="42"/>
-      <c r="Q698" s="42"/>
+      <c r="L698" s="64"/>
+      <c r="M698" s="64"/>
+      <c r="N698" s="64"/>
+      <c r="O698" s="64"/>
+      <c r="P698" s="64"/>
+      <c r="Q698" s="64"/>
       <c r="R698" s="40"/>
     </row>
     <row r="699" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
-      <c r="C699" s="61"/>
-      <c r="D699" s="61"/>
-      <c r="E699" s="61"/>
-      <c r="F699" s="61"/>
-      <c r="G699" s="61"/>
-      <c r="H699" s="61"/>
-      <c r="I699" s="61"/>
-      <c r="J699" s="61"/>
+      <c r="C699" s="59"/>
+      <c r="D699" s="59"/>
+      <c r="E699" s="59"/>
+      <c r="F699" s="59"/>
+      <c r="G699" s="59"/>
+      <c r="H699" s="59"/>
+      <c r="I699" s="59"/>
+      <c r="J699" s="59"/>
       <c r="K699" s="25"/>
-      <c r="L699" s="42"/>
-      <c r="M699" s="42"/>
-      <c r="N699" s="42"/>
-      <c r="O699" s="42"/>
-      <c r="P699" s="42"/>
-      <c r="Q699" s="42"/>
+      <c r="L699" s="64"/>
+      <c r="M699" s="64"/>
+      <c r="N699" s="64"/>
+      <c r="O699" s="64"/>
+      <c r="P699" s="64"/>
+      <c r="Q699" s="64"/>
       <c r="R699" s="40"/>
     </row>
     <row r="700" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
-      <c r="B700" s="43" t="s">
+      <c r="B700" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C700" s="44"/>
-      <c r="D700" s="44"/>
-      <c r="E700" s="44"/>
-      <c r="F700" s="44"/>
-      <c r="G700" s="44"/>
-      <c r="H700" s="44"/>
-      <c r="I700" s="44"/>
-      <c r="J700" s="44"/>
-      <c r="K700" s="44"/>
-      <c r="L700" s="44"/>
-      <c r="M700" s="44"/>
-      <c r="N700" s="44"/>
-      <c r="O700" s="44"/>
-      <c r="P700" s="44"/>
-      <c r="Q700" s="44"/>
+      <c r="C700" s="46"/>
+      <c r="D700" s="46"/>
+      <c r="E700" s="46"/>
+      <c r="F700" s="46"/>
+      <c r="G700" s="46"/>
+      <c r="H700" s="46"/>
+      <c r="I700" s="46"/>
+      <c r="J700" s="46"/>
+      <c r="K700" s="46"/>
+      <c r="L700" s="46"/>
+      <c r="M700" s="46"/>
+      <c r="N700" s="46"/>
+      <c r="O700" s="46"/>
+      <c r="P700" s="46"/>
+      <c r="Q700" s="46"/>
       <c r="R700" s="20"/>
     </row>
     <row r="701" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
-      <c r="B701" s="45"/>
-      <c r="C701" s="45"/>
-      <c r="D701" s="45"/>
-      <c r="E701" s="45"/>
-      <c r="F701" s="45"/>
-      <c r="G701" s="45"/>
-      <c r="H701" s="45"/>
-      <c r="I701" s="45"/>
-      <c r="J701" s="45"/>
-      <c r="K701" s="45"/>
-      <c r="L701" s="45"/>
-      <c r="M701" s="44"/>
-      <c r="N701" s="44"/>
-      <c r="O701" s="44"/>
-      <c r="P701" s="44"/>
-      <c r="Q701" s="44"/>
+      <c r="B701" s="47"/>
+      <c r="C701" s="47"/>
+      <c r="D701" s="47"/>
+      <c r="E701" s="47"/>
+      <c r="F701" s="47"/>
+      <c r="G701" s="47"/>
+      <c r="H701" s="47"/>
+      <c r="I701" s="47"/>
+      <c r="J701" s="47"/>
+      <c r="K701" s="47"/>
+      <c r="L701" s="47"/>
+      <c r="M701" s="46"/>
+      <c r="N701" s="46"/>
+      <c r="O701" s="46"/>
+      <c r="P701" s="46"/>
+      <c r="Q701" s="46"/>
       <c r="R701" s="20"/>
     </row>
     <row r="702" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16318,32 +16451,32 @@
       <c r="D702" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E702" s="62" t="s">
+      <c r="E702" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F702" s="63"/>
-      <c r="G702" s="63"/>
-      <c r="H702" s="63"/>
-      <c r="I702" s="63"/>
-      <c r="J702" s="63"/>
-      <c r="K702" s="64"/>
+      <c r="F702" s="61"/>
+      <c r="G702" s="61"/>
+      <c r="H702" s="61"/>
+      <c r="I702" s="61"/>
+      <c r="J702" s="61"/>
+      <c r="K702" s="62"/>
       <c r="L702" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M702" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N702" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O702" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P702" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q702" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M702" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N702" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O702" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P702" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q702" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R702" s="4"/>
     </row>
@@ -17064,8 +17197,8 @@
       <c r="A740" s="3"/>
       <c r="F740" s="22"/>
       <c r="G740" s="22"/>
-      <c r="H740" s="46"/>
-      <c r="I740" s="47"/>
+      <c r="H740" s="43"/>
+      <c r="I740" s="44"/>
       <c r="J740" s="22"/>
       <c r="K740" s="1"/>
       <c r="L740" s="2"/>
@@ -17082,15 +17215,15 @@
       <c r="A741" s="3"/>
       <c r="F741" s="16"/>
       <c r="G741" s="16"/>
-      <c r="H741" s="48" t="s">
+      <c r="H741" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I741" s="49"/>
+      <c r="I741" s="42"/>
       <c r="J741" s="38">
         <v>44634</v>
       </c>
       <c r="K741" s="3"/>
-      <c r="R741" s="50" t="s">
+      <c r="R741" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -17102,10 +17235,10 @@
       <c r="E742" s="26"/>
       <c r="F742" s="15"/>
       <c r="G742" s="15"/>
-      <c r="H742" s="52" t="s">
+      <c r="H742" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I742" s="53"/>
+      <c r="I742" s="51"/>
       <c r="J742" s="15" t="s">
         <v>20</v>
       </c>
@@ -17116,7 +17249,7 @@
       <c r="O742" s="14"/>
       <c r="P742" s="14"/>
       <c r="Q742" s="14"/>
-      <c r="R742" s="51"/>
+      <c r="R742" s="49"/>
     </row>
     <row r="743" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
@@ -17140,228 +17273,228 @@
     </row>
     <row r="744" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
-      <c r="C744" s="54" t="s">
+      <c r="C744" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D744" s="54"/>
-      <c r="E744" s="54"/>
-      <c r="F744" s="54"/>
-      <c r="G744" s="54"/>
-      <c r="H744" s="56" t="s">
+      <c r="D744" s="52"/>
+      <c r="E744" s="52"/>
+      <c r="F744" s="52"/>
+      <c r="G744" s="52"/>
+      <c r="H744" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I744" s="56"/>
-      <c r="J744" s="56"/>
-      <c r="K744" s="58" t="s">
+      <c r="I744" s="54"/>
+      <c r="J744" s="54"/>
+      <c r="K744" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L744" s="41" t="s">
+      <c r="L744" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M744" s="41"/>
-      <c r="N744" s="41"/>
-      <c r="O744" s="41"/>
-      <c r="P744" s="41"/>
-      <c r="Q744" s="41"/>
+      <c r="M744" s="63"/>
+      <c r="N744" s="63"/>
+      <c r="O744" s="63"/>
+      <c r="P744" s="63"/>
+      <c r="Q744" s="63"/>
       <c r="R744" s="39"/>
     </row>
     <row r="745" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
-      <c r="C745" s="54"/>
-      <c r="D745" s="54"/>
-      <c r="E745" s="54"/>
-      <c r="F745" s="54"/>
-      <c r="G745" s="54"/>
-      <c r="H745" s="56"/>
-      <c r="I745" s="56"/>
-      <c r="J745" s="56"/>
-      <c r="K745" s="58"/>
-      <c r="L745" s="41"/>
-      <c r="M745" s="41"/>
-      <c r="N745" s="41"/>
-      <c r="O745" s="41"/>
-      <c r="P745" s="41"/>
-      <c r="Q745" s="41"/>
+      <c r="C745" s="52"/>
+      <c r="D745" s="52"/>
+      <c r="E745" s="52"/>
+      <c r="F745" s="52"/>
+      <c r="G745" s="52"/>
+      <c r="H745" s="54"/>
+      <c r="I745" s="54"/>
+      <c r="J745" s="54"/>
+      <c r="K745" s="56"/>
+      <c r="L745" s="63"/>
+      <c r="M745" s="63"/>
+      <c r="N745" s="63"/>
+      <c r="O745" s="63"/>
+      <c r="P745" s="63"/>
+      <c r="Q745" s="63"/>
       <c r="R745" s="39"/>
     </row>
     <row r="746" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
-      <c r="C746" s="54"/>
-      <c r="D746" s="54"/>
-      <c r="E746" s="54"/>
-      <c r="F746" s="54"/>
-      <c r="G746" s="54"/>
-      <c r="H746" s="56"/>
-      <c r="I746" s="56"/>
-      <c r="J746" s="56"/>
-      <c r="K746" s="58" t="s">
+      <c r="C746" s="52"/>
+      <c r="D746" s="52"/>
+      <c r="E746" s="52"/>
+      <c r="F746" s="52"/>
+      <c r="G746" s="52"/>
+      <c r="H746" s="54"/>
+      <c r="I746" s="54"/>
+      <c r="J746" s="54"/>
+      <c r="K746" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L746" s="42" t="s">
+      <c r="L746" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M746" s="42"/>
-      <c r="N746" s="42"/>
-      <c r="O746" s="42"/>
-      <c r="P746" s="42"/>
-      <c r="Q746" s="42"/>
+      <c r="M746" s="64"/>
+      <c r="N746" s="64"/>
+      <c r="O746" s="64"/>
+      <c r="P746" s="64"/>
+      <c r="Q746" s="64"/>
       <c r="R746" s="40"/>
     </row>
     <row r="747" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
-      <c r="C747" s="54"/>
-      <c r="D747" s="54"/>
-      <c r="E747" s="54"/>
-      <c r="F747" s="54"/>
-      <c r="G747" s="54"/>
-      <c r="H747" s="56"/>
-      <c r="I747" s="56"/>
-      <c r="J747" s="56"/>
-      <c r="K747" s="58"/>
-      <c r="L747" s="42"/>
-      <c r="M747" s="42"/>
-      <c r="N747" s="42"/>
-      <c r="O747" s="42"/>
-      <c r="P747" s="42"/>
-      <c r="Q747" s="42"/>
+      <c r="C747" s="52"/>
+      <c r="D747" s="52"/>
+      <c r="E747" s="52"/>
+      <c r="F747" s="52"/>
+      <c r="G747" s="52"/>
+      <c r="H747" s="54"/>
+      <c r="I747" s="54"/>
+      <c r="J747" s="54"/>
+      <c r="K747" s="56"/>
+      <c r="L747" s="64"/>
+      <c r="M747" s="64"/>
+      <c r="N747" s="64"/>
+      <c r="O747" s="64"/>
+      <c r="P747" s="64"/>
+      <c r="Q747" s="64"/>
       <c r="R747" s="40"/>
     </row>
     <row r="748" spans="1:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A748" s="3"/>
-      <c r="C748" s="55"/>
-      <c r="D748" s="55"/>
-      <c r="E748" s="55"/>
-      <c r="F748" s="55"/>
-      <c r="G748" s="55"/>
-      <c r="H748" s="57"/>
-      <c r="I748" s="57"/>
-      <c r="J748" s="57"/>
-      <c r="L748" s="42"/>
-      <c r="M748" s="42"/>
-      <c r="N748" s="42"/>
-      <c r="O748" s="42"/>
-      <c r="P748" s="42"/>
-      <c r="Q748" s="42"/>
+      <c r="C748" s="53"/>
+      <c r="D748" s="53"/>
+      <c r="E748" s="53"/>
+      <c r="F748" s="53"/>
+      <c r="G748" s="53"/>
+      <c r="H748" s="55"/>
+      <c r="I748" s="55"/>
+      <c r="J748" s="55"/>
+      <c r="L748" s="64"/>
+      <c r="M748" s="64"/>
+      <c r="N748" s="64"/>
+      <c r="O748" s="64"/>
+      <c r="P748" s="64"/>
+      <c r="Q748" s="64"/>
       <c r="R748" s="40"/>
     </row>
     <row r="749" spans="1:18" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
-      <c r="C749" s="59" t="s">
+      <c r="C749" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D749" s="59"/>
-      <c r="E749" s="59"/>
-      <c r="F749" s="59"/>
-      <c r="G749" s="59"/>
-      <c r="H749" s="59"/>
-      <c r="I749" s="59"/>
-      <c r="J749" s="59"/>
+      <c r="D749" s="57"/>
+      <c r="E749" s="57"/>
+      <c r="F749" s="57"/>
+      <c r="G749" s="57"/>
+      <c r="H749" s="57"/>
+      <c r="I749" s="57"/>
+      <c r="J749" s="57"/>
       <c r="K749" s="21"/>
-      <c r="L749" s="42"/>
-      <c r="M749" s="42"/>
-      <c r="N749" s="42"/>
-      <c r="O749" s="42"/>
-      <c r="P749" s="42"/>
-      <c r="Q749" s="42"/>
+      <c r="L749" s="64"/>
+      <c r="M749" s="64"/>
+      <c r="N749" s="64"/>
+      <c r="O749" s="64"/>
+      <c r="P749" s="64"/>
+      <c r="Q749" s="64"/>
       <c r="R749" s="40"/>
     </row>
     <row r="750" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
-      <c r="C750" s="60"/>
-      <c r="D750" s="60"/>
-      <c r="E750" s="60"/>
-      <c r="F750" s="60"/>
-      <c r="G750" s="60"/>
-      <c r="H750" s="60"/>
-      <c r="I750" s="60"/>
-      <c r="J750" s="60"/>
+      <c r="C750" s="58"/>
+      <c r="D750" s="58"/>
+      <c r="E750" s="58"/>
+      <c r="F750" s="58"/>
+      <c r="G750" s="58"/>
+      <c r="H750" s="58"/>
+      <c r="I750" s="58"/>
+      <c r="J750" s="58"/>
       <c r="K750" s="24"/>
-      <c r="L750" s="42"/>
-      <c r="M750" s="42"/>
-      <c r="N750" s="42"/>
-      <c r="O750" s="42"/>
-      <c r="P750" s="42"/>
-      <c r="Q750" s="42"/>
+      <c r="L750" s="64"/>
+      <c r="M750" s="64"/>
+      <c r="N750" s="64"/>
+      <c r="O750" s="64"/>
+      <c r="P750" s="64"/>
+      <c r="Q750" s="64"/>
       <c r="R750" s="40"/>
     </row>
     <row r="751" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
-      <c r="C751" s="60"/>
-      <c r="D751" s="60"/>
-      <c r="E751" s="60"/>
-      <c r="F751" s="60"/>
-      <c r="G751" s="60"/>
-      <c r="H751" s="60"/>
-      <c r="I751" s="60"/>
-      <c r="J751" s="60"/>
+      <c r="C751" s="58"/>
+      <c r="D751" s="58"/>
+      <c r="E751" s="58"/>
+      <c r="F751" s="58"/>
+      <c r="G751" s="58"/>
+      <c r="H751" s="58"/>
+      <c r="I751" s="58"/>
+      <c r="J751" s="58"/>
       <c r="K751" s="24"/>
-      <c r="L751" s="42"/>
-      <c r="M751" s="42"/>
-      <c r="N751" s="42"/>
-      <c r="O751" s="42"/>
-      <c r="P751" s="42"/>
-      <c r="Q751" s="42"/>
+      <c r="L751" s="64"/>
+      <c r="M751" s="64"/>
+      <c r="N751" s="64"/>
+      <c r="O751" s="64"/>
+      <c r="P751" s="64"/>
+      <c r="Q751" s="64"/>
       <c r="R751" s="40"/>
     </row>
     <row r="752" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
-      <c r="C752" s="61"/>
-      <c r="D752" s="61"/>
-      <c r="E752" s="61"/>
-      <c r="F752" s="61"/>
-      <c r="G752" s="61"/>
-      <c r="H752" s="61"/>
-      <c r="I752" s="61"/>
-      <c r="J752" s="61"/>
+      <c r="C752" s="59"/>
+      <c r="D752" s="59"/>
+      <c r="E752" s="59"/>
+      <c r="F752" s="59"/>
+      <c r="G752" s="59"/>
+      <c r="H752" s="59"/>
+      <c r="I752" s="59"/>
+      <c r="J752" s="59"/>
       <c r="K752" s="25"/>
-      <c r="L752" s="42"/>
-      <c r="M752" s="42"/>
-      <c r="N752" s="42"/>
-      <c r="O752" s="42"/>
-      <c r="P752" s="42"/>
-      <c r="Q752" s="42"/>
+      <c r="L752" s="64"/>
+      <c r="M752" s="64"/>
+      <c r="N752" s="64"/>
+      <c r="O752" s="64"/>
+      <c r="P752" s="64"/>
+      <c r="Q752" s="64"/>
       <c r="R752" s="40"/>
     </row>
     <row r="753" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
-      <c r="B753" s="43" t="s">
+      <c r="B753" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C753" s="44"/>
-      <c r="D753" s="44"/>
-      <c r="E753" s="44"/>
-      <c r="F753" s="44"/>
-      <c r="G753" s="44"/>
-      <c r="H753" s="44"/>
-      <c r="I753" s="44"/>
-      <c r="J753" s="44"/>
-      <c r="K753" s="44"/>
-      <c r="L753" s="44"/>
-      <c r="M753" s="44"/>
-      <c r="N753" s="44"/>
-      <c r="O753" s="44"/>
-      <c r="P753" s="44"/>
-      <c r="Q753" s="44"/>
+      <c r="C753" s="46"/>
+      <c r="D753" s="46"/>
+      <c r="E753" s="46"/>
+      <c r="F753" s="46"/>
+      <c r="G753" s="46"/>
+      <c r="H753" s="46"/>
+      <c r="I753" s="46"/>
+      <c r="J753" s="46"/>
+      <c r="K753" s="46"/>
+      <c r="L753" s="46"/>
+      <c r="M753" s="46"/>
+      <c r="N753" s="46"/>
+      <c r="O753" s="46"/>
+      <c r="P753" s="46"/>
+      <c r="Q753" s="46"/>
       <c r="R753" s="20"/>
     </row>
     <row r="754" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
-      <c r="B754" s="45"/>
-      <c r="C754" s="45"/>
-      <c r="D754" s="45"/>
-      <c r="E754" s="45"/>
-      <c r="F754" s="45"/>
-      <c r="G754" s="45"/>
-      <c r="H754" s="45"/>
-      <c r="I754" s="45"/>
-      <c r="J754" s="45"/>
-      <c r="K754" s="45"/>
-      <c r="L754" s="45"/>
-      <c r="M754" s="44"/>
-      <c r="N754" s="44"/>
-      <c r="O754" s="44"/>
-      <c r="P754" s="44"/>
-      <c r="Q754" s="44"/>
+      <c r="B754" s="47"/>
+      <c r="C754" s="47"/>
+      <c r="D754" s="47"/>
+      <c r="E754" s="47"/>
+      <c r="F754" s="47"/>
+      <c r="G754" s="47"/>
+      <c r="H754" s="47"/>
+      <c r="I754" s="47"/>
+      <c r="J754" s="47"/>
+      <c r="K754" s="47"/>
+      <c r="L754" s="47"/>
+      <c r="M754" s="46"/>
+      <c r="N754" s="46"/>
+      <c r="O754" s="46"/>
+      <c r="P754" s="46"/>
+      <c r="Q754" s="46"/>
       <c r="R754" s="20"/>
     </row>
     <row r="755" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17375,32 +17508,32 @@
       <c r="D755" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E755" s="62" t="s">
+      <c r="E755" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F755" s="63"/>
-      <c r="G755" s="63"/>
-      <c r="H755" s="63"/>
-      <c r="I755" s="63"/>
-      <c r="J755" s="63"/>
-      <c r="K755" s="64"/>
+      <c r="F755" s="61"/>
+      <c r="G755" s="61"/>
+      <c r="H755" s="61"/>
+      <c r="I755" s="61"/>
+      <c r="J755" s="61"/>
+      <c r="K755" s="62"/>
       <c r="L755" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M755" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N755" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O755" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P755" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q755" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="M755" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N755" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O755" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P755" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q755" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="R755" s="4"/>
     </row>
@@ -18121,8 +18254,8 @@
       <c r="A793" s="3"/>
       <c r="F793" s="22"/>
       <c r="G793" s="22"/>
-      <c r="H793" s="46"/>
-      <c r="I793" s="47"/>
+      <c r="H793" s="43"/>
+      <c r="I793" s="44"/>
       <c r="J793" s="22"/>
       <c r="K793" s="1"/>
       <c r="L793" s="2"/>
@@ -18139,15 +18272,15 @@
       <c r="A794" s="3"/>
       <c r="F794" s="16"/>
       <c r="G794" s="16"/>
-      <c r="H794" s="48" t="s">
+      <c r="H794" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I794" s="49"/>
+      <c r="I794" s="42"/>
       <c r="J794" s="38">
         <v>44634</v>
       </c>
       <c r="K794" s="3"/>
-      <c r="R794" s="50" t="s">
+      <c r="R794" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -18159,10 +18292,10 @@
       <c r="E795" s="26"/>
       <c r="F795" s="15"/>
       <c r="G795" s="15"/>
-      <c r="H795" s="52" t="s">
+      <c r="H795" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I795" s="53"/>
+      <c r="I795" s="51"/>
       <c r="J795" s="15" t="s">
         <v>20</v>
       </c>
@@ -18173,10 +18306,181 @@
       <c r="O795" s="14"/>
       <c r="P795" s="14"/>
       <c r="Q795" s="14"/>
-      <c r="R795" s="51"/>
+      <c r="R795" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="L532:Q533"/>
+    <mergeCell ref="L534:Q540"/>
+    <mergeCell ref="L585:Q586"/>
+    <mergeCell ref="L587:Q593"/>
+    <mergeCell ref="L638:Q639"/>
+    <mergeCell ref="L640:Q646"/>
+    <mergeCell ref="L691:Q692"/>
+    <mergeCell ref="L693:Q699"/>
+    <mergeCell ref="L744:Q745"/>
+    <mergeCell ref="B647:Q648"/>
+    <mergeCell ref="H687:I687"/>
+    <mergeCell ref="H688:I688"/>
+    <mergeCell ref="B541:Q542"/>
+    <mergeCell ref="H581:I581"/>
+    <mergeCell ref="H582:I582"/>
+    <mergeCell ref="B753:Q754"/>
+    <mergeCell ref="H793:I793"/>
+    <mergeCell ref="H794:I794"/>
+    <mergeCell ref="R794:R795"/>
+    <mergeCell ref="H795:I795"/>
+    <mergeCell ref="B700:Q701"/>
+    <mergeCell ref="H740:I740"/>
+    <mergeCell ref="H741:I741"/>
+    <mergeCell ref="R741:R742"/>
+    <mergeCell ref="H742:I742"/>
+    <mergeCell ref="C744:G748"/>
+    <mergeCell ref="H744:J748"/>
+    <mergeCell ref="K744:K745"/>
+    <mergeCell ref="K746:K747"/>
+    <mergeCell ref="C749:J752"/>
+    <mergeCell ref="E702:K702"/>
+    <mergeCell ref="E755:K755"/>
+    <mergeCell ref="L746:Q752"/>
+    <mergeCell ref="R688:R689"/>
+    <mergeCell ref="H689:I689"/>
+    <mergeCell ref="C691:G695"/>
+    <mergeCell ref="H691:J695"/>
+    <mergeCell ref="K691:K692"/>
+    <mergeCell ref="K693:K694"/>
+    <mergeCell ref="C696:J699"/>
+    <mergeCell ref="E649:K649"/>
+    <mergeCell ref="B594:Q595"/>
+    <mergeCell ref="H634:I634"/>
+    <mergeCell ref="H635:I635"/>
+    <mergeCell ref="R635:R636"/>
+    <mergeCell ref="H636:I636"/>
+    <mergeCell ref="C638:G642"/>
+    <mergeCell ref="H638:J642"/>
+    <mergeCell ref="K638:K639"/>
+    <mergeCell ref="K640:K641"/>
+    <mergeCell ref="C643:J646"/>
+    <mergeCell ref="E596:K596"/>
+    <mergeCell ref="R582:R583"/>
+    <mergeCell ref="H583:I583"/>
+    <mergeCell ref="C585:G589"/>
+    <mergeCell ref="H585:J589"/>
+    <mergeCell ref="K585:K586"/>
+    <mergeCell ref="K587:K588"/>
+    <mergeCell ref="C590:J593"/>
+    <mergeCell ref="E543:K543"/>
+    <mergeCell ref="R211:R212"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="C532:G536"/>
+    <mergeCell ref="H532:J536"/>
+    <mergeCell ref="K532:K533"/>
+    <mergeCell ref="K534:K535"/>
+    <mergeCell ref="C537:J540"/>
+    <mergeCell ref="B223:Q224"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="R264:R265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="C214:G218"/>
+    <mergeCell ref="H214:J218"/>
+    <mergeCell ref="K214:K215"/>
+    <mergeCell ref="K216:K217"/>
+    <mergeCell ref="C219:J222"/>
+    <mergeCell ref="L214:Q215"/>
+    <mergeCell ref="L216:Q222"/>
+    <mergeCell ref="L267:Q268"/>
+    <mergeCell ref="C161:G165"/>
+    <mergeCell ref="H161:J165"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="C166:J169"/>
+    <mergeCell ref="B170:Q171"/>
+    <mergeCell ref="E172:K172"/>
+    <mergeCell ref="L161:Q162"/>
+    <mergeCell ref="L163:Q169"/>
+    <mergeCell ref="E225:K225"/>
+    <mergeCell ref="C2:G6"/>
+    <mergeCell ref="H2:J6"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C7:J10"/>
+    <mergeCell ref="B11:Q12"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L2:Q3"/>
+    <mergeCell ref="L4:Q10"/>
+    <mergeCell ref="B64:Q65"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="C55:G59"/>
+    <mergeCell ref="H55:J59"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="C60:J63"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="E66:K66"/>
+    <mergeCell ref="L55:Q56"/>
+    <mergeCell ref="L57:Q63"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="R158:R159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="C113:J116"/>
+    <mergeCell ref="B117:Q118"/>
+    <mergeCell ref="C108:G112"/>
+    <mergeCell ref="H108:J112"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="E119:K119"/>
+    <mergeCell ref="L108:Q109"/>
+    <mergeCell ref="L110:Q116"/>
+    <mergeCell ref="R317:R318"/>
+    <mergeCell ref="H318:I318"/>
+    <mergeCell ref="C267:G271"/>
+    <mergeCell ref="H267:J271"/>
+    <mergeCell ref="K267:K268"/>
+    <mergeCell ref="K269:K270"/>
+    <mergeCell ref="C272:J275"/>
+    <mergeCell ref="L269:Q275"/>
+    <mergeCell ref="R370:R371"/>
+    <mergeCell ref="H371:I371"/>
+    <mergeCell ref="C320:G324"/>
+    <mergeCell ref="H320:J324"/>
+    <mergeCell ref="K320:K321"/>
+    <mergeCell ref="K322:K323"/>
+    <mergeCell ref="C325:J328"/>
+    <mergeCell ref="L320:Q321"/>
+    <mergeCell ref="L322:Q328"/>
+    <mergeCell ref="E278:K278"/>
+    <mergeCell ref="E331:K331"/>
+    <mergeCell ref="B329:Q330"/>
+    <mergeCell ref="H369:I369"/>
+    <mergeCell ref="H370:I370"/>
+    <mergeCell ref="B276:Q277"/>
+    <mergeCell ref="H316:I316"/>
+    <mergeCell ref="C373:G377"/>
+    <mergeCell ref="H373:J377"/>
+    <mergeCell ref="K373:K374"/>
+    <mergeCell ref="K375:K376"/>
+    <mergeCell ref="C378:J381"/>
+    <mergeCell ref="L373:Q374"/>
+    <mergeCell ref="L375:Q381"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="B382:Q383"/>
+    <mergeCell ref="K428:K429"/>
+    <mergeCell ref="C431:J434"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="L426:Q427"/>
+    <mergeCell ref="L428:Q434"/>
+    <mergeCell ref="H422:I422"/>
+    <mergeCell ref="H423:I423"/>
+    <mergeCell ref="R423:R424"/>
+    <mergeCell ref="H424:I424"/>
     <mergeCell ref="H317:I317"/>
     <mergeCell ref="H210:I210"/>
     <mergeCell ref="H211:I211"/>
@@ -18201,177 +18505,6 @@
     <mergeCell ref="C426:G430"/>
     <mergeCell ref="H426:J430"/>
     <mergeCell ref="K426:K427"/>
-    <mergeCell ref="K428:K429"/>
-    <mergeCell ref="C431:J434"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="L426:Q427"/>
-    <mergeCell ref="L428:Q434"/>
-    <mergeCell ref="H422:I422"/>
-    <mergeCell ref="H423:I423"/>
-    <mergeCell ref="R423:R424"/>
-    <mergeCell ref="H424:I424"/>
-    <mergeCell ref="C373:G377"/>
-    <mergeCell ref="H373:J377"/>
-    <mergeCell ref="K373:K374"/>
-    <mergeCell ref="K375:K376"/>
-    <mergeCell ref="C378:J381"/>
-    <mergeCell ref="L373:Q374"/>
-    <mergeCell ref="L375:Q381"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="B382:Q383"/>
-    <mergeCell ref="R317:R318"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="C267:G271"/>
-    <mergeCell ref="H267:J271"/>
-    <mergeCell ref="K267:K268"/>
-    <mergeCell ref="K269:K270"/>
-    <mergeCell ref="C272:J275"/>
-    <mergeCell ref="L269:Q275"/>
-    <mergeCell ref="R370:R371"/>
-    <mergeCell ref="H371:I371"/>
-    <mergeCell ref="C320:G324"/>
-    <mergeCell ref="H320:J324"/>
-    <mergeCell ref="K320:K321"/>
-    <mergeCell ref="K322:K323"/>
-    <mergeCell ref="C325:J328"/>
-    <mergeCell ref="L320:Q321"/>
-    <mergeCell ref="L322:Q328"/>
-    <mergeCell ref="E278:K278"/>
-    <mergeCell ref="E331:K331"/>
-    <mergeCell ref="B329:Q330"/>
-    <mergeCell ref="H369:I369"/>
-    <mergeCell ref="H370:I370"/>
-    <mergeCell ref="B276:Q277"/>
-    <mergeCell ref="H316:I316"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="R158:R159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="C113:J116"/>
-    <mergeCell ref="B117:Q118"/>
-    <mergeCell ref="C108:G112"/>
-    <mergeCell ref="H108:J112"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="E119:K119"/>
-    <mergeCell ref="L108:Q109"/>
-    <mergeCell ref="L110:Q116"/>
-    <mergeCell ref="B64:Q65"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="C55:G59"/>
-    <mergeCell ref="H55:J59"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="C60:J63"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="E66:K66"/>
-    <mergeCell ref="L55:Q56"/>
-    <mergeCell ref="L57:Q63"/>
-    <mergeCell ref="C2:G6"/>
-    <mergeCell ref="H2:J6"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C7:J10"/>
-    <mergeCell ref="B11:Q12"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L2:Q3"/>
-    <mergeCell ref="L4:Q10"/>
-    <mergeCell ref="C219:J222"/>
-    <mergeCell ref="L214:Q215"/>
-    <mergeCell ref="L216:Q222"/>
-    <mergeCell ref="L267:Q268"/>
-    <mergeCell ref="C161:G165"/>
-    <mergeCell ref="H161:J165"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="C166:J169"/>
-    <mergeCell ref="B170:Q171"/>
-    <mergeCell ref="E172:K172"/>
-    <mergeCell ref="L161:Q162"/>
-    <mergeCell ref="L163:Q169"/>
-    <mergeCell ref="E225:K225"/>
-    <mergeCell ref="R582:R583"/>
-    <mergeCell ref="H583:I583"/>
-    <mergeCell ref="C585:G589"/>
-    <mergeCell ref="H585:J589"/>
-    <mergeCell ref="K585:K586"/>
-    <mergeCell ref="K587:K588"/>
-    <mergeCell ref="C590:J593"/>
-    <mergeCell ref="E543:K543"/>
-    <mergeCell ref="R211:R212"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="C532:G536"/>
-    <mergeCell ref="H532:J536"/>
-    <mergeCell ref="K532:K533"/>
-    <mergeCell ref="K534:K535"/>
-    <mergeCell ref="C537:J540"/>
-    <mergeCell ref="B223:Q224"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="R264:R265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="C214:G218"/>
-    <mergeCell ref="H214:J218"/>
-    <mergeCell ref="K214:K215"/>
-    <mergeCell ref="K216:K217"/>
-    <mergeCell ref="R688:R689"/>
-    <mergeCell ref="H689:I689"/>
-    <mergeCell ref="C691:G695"/>
-    <mergeCell ref="H691:J695"/>
-    <mergeCell ref="K691:K692"/>
-    <mergeCell ref="K693:K694"/>
-    <mergeCell ref="C696:J699"/>
-    <mergeCell ref="E649:K649"/>
-    <mergeCell ref="B594:Q595"/>
-    <mergeCell ref="H634:I634"/>
-    <mergeCell ref="H635:I635"/>
-    <mergeCell ref="R635:R636"/>
-    <mergeCell ref="H636:I636"/>
-    <mergeCell ref="C638:G642"/>
-    <mergeCell ref="H638:J642"/>
-    <mergeCell ref="K638:K639"/>
-    <mergeCell ref="K640:K641"/>
-    <mergeCell ref="C643:J646"/>
-    <mergeCell ref="E596:K596"/>
-    <mergeCell ref="B753:Q754"/>
-    <mergeCell ref="H793:I793"/>
-    <mergeCell ref="H794:I794"/>
-    <mergeCell ref="R794:R795"/>
-    <mergeCell ref="H795:I795"/>
-    <mergeCell ref="B700:Q701"/>
-    <mergeCell ref="H740:I740"/>
-    <mergeCell ref="H741:I741"/>
-    <mergeCell ref="R741:R742"/>
-    <mergeCell ref="H742:I742"/>
-    <mergeCell ref="C744:G748"/>
-    <mergeCell ref="H744:J748"/>
-    <mergeCell ref="K744:K745"/>
-    <mergeCell ref="K746:K747"/>
-    <mergeCell ref="C749:J752"/>
-    <mergeCell ref="E702:K702"/>
-    <mergeCell ref="E755:K755"/>
-    <mergeCell ref="L746:Q752"/>
-    <mergeCell ref="L532:Q533"/>
-    <mergeCell ref="L534:Q540"/>
-    <mergeCell ref="L585:Q586"/>
-    <mergeCell ref="L587:Q593"/>
-    <mergeCell ref="L638:Q639"/>
-    <mergeCell ref="L640:Q646"/>
-    <mergeCell ref="L691:Q692"/>
-    <mergeCell ref="L693:Q699"/>
-    <mergeCell ref="L744:Q745"/>
-    <mergeCell ref="B647:Q648"/>
-    <mergeCell ref="H687:I687"/>
-    <mergeCell ref="H688:I688"/>
-    <mergeCell ref="B541:Q542"/>
-    <mergeCell ref="H581:I581"/>
-    <mergeCell ref="H582:I582"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
